--- a/SSoT/twolaat.xlsx
+++ b/SSoT/twolaat.xlsx
@@ -19,7 +19,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
   <si>
+    <t>WayNumber</t>
+  </si>
+  <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>Disadvantages</t>
+  </si>
+  <si>
+    <t>HexValue</t>
   </si>
   <si>
     <t>Type</t>
@@ -28,16 +43,13 @@
     <t>InitialValue</t>
   </si>
   <si>
-    <t>WayNumber</t>
-  </si>
-  <si>
-    <t>HexValue</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
     <t>Black</t>
+  </si>
+  <si>
+    <t>W01</t>
   </si>
   <si>
     <t>#000000</t>
@@ -46,19 +58,10 @@
     <t>0x0</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>Advantages</t>
-  </si>
-  <si>
     <t>#FF0000</t>
-  </si>
-  <si>
-    <t>Disadvantages</t>
   </si>
   <si>
     <t>Blue</t>
@@ -70,22 +73,13 @@
     <t>Green</t>
   </si>
   <si>
-    <t>W01</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>Degrees</t>
-  </si>
-  <si>
     <t>OOTurtle</t>
   </si>
   <si>
     <t>I'm</t>
   </si>
   <si>
-    <t>Color</t>
+    <t>#00FF00</t>
   </si>
   <si>
     <t>not</t>
@@ -101,9 +95,6 @@
   </si>
   <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>PenState</t>
   </si>
   <si>
     <t>copy</t>
@@ -127,10 +118,22 @@
     <t>list</t>
   </si>
   <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Degrees</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
     <t>W04</t>
   </si>
   <si>
     <t>Api_FP_Core</t>
+  </si>
+  <si>
+    <t>PenState</t>
   </si>
   <si>
     <t>in</t>
@@ -163,13 +166,13 @@
     <t>DependencyInjection_Interface-1</t>
   </si>
   <si>
+    <t>Down</t>
+  </si>
+  <si>
     <t>then</t>
   </si>
   <si>
     <t>the</t>
-  </si>
-  <si>
-    <t>#00FF00</t>
   </si>
   <si>
     <t>structure</t>
@@ -221,9 +224,6 @@
   </si>
   <si>
     <t>list.</t>
-  </si>
-  <si>
-    <t>Down</t>
   </si>
   <si>
     <t>W09</t>
@@ -412,14 +412,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -446,31 +446,31 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,21 +488,21 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -510,7 +510,7 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -564,20 +564,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -602,175 +602,175 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
+      <c r="A2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>46</v>
+      <c r="A8" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>64</v>
+      <c r="A11" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -781,7 +781,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -792,7 +792,7 @@
       <c r="E13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -803,7 +803,7 @@
       <c r="E14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -814,7 +814,7 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -825,7 +825,7 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -836,7 +836,7 @@
       <c r="E17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -847,7 +847,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -6756,14 +6756,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -6791,21 +6791,21 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7">
         <v>0.0</v>
@@ -6813,24 +6813,24 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>28</v>
+      <c r="B5" s="10" t="s">
+        <v>38</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>68</v>
+      <c r="C5" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -9834,11 +9834,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -9866,58 +9866,58 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>50</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9939,10 +9939,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -9979,43 +9979,43 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10033,13 +10033,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D1" s="3"/>
@@ -10082,7 +10082,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -10100,40 +10100,40 @@
         <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10156,13 +10156,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>100</v>
@@ -10219,40 +10219,40 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="8" t="b">
+      <c r="D4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10288,7 +10288,7 @@
         <v>110</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>111</v>
@@ -10325,7 +10325,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="19">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="E2" s="20" t="str">
         <f>vlookup(B2,TurtleCommands!A$2:C7,3,false)</f>
@@ -10401,7 +10401,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="19">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="E4" s="20" t="str">
         <f>vlookup(B4,TurtleCommands!A$2:C9,3,false)</f>
@@ -10477,7 +10477,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="19">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="E6" s="20" t="str">
         <f>vlookup(B6,TurtleCommands!A$2:C11,3,false)</f>
@@ -10592,7 +10592,7 @@
         <v>96</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="20" t="str">
@@ -10865,7 +10865,7 @@
         <v>96</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="20" t="str">
@@ -11138,7 +11138,7 @@
         <v>96</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="20" t="str">
@@ -11247,17 +11247,17 @@
       <c r="AA25" s="24"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="str">
+      <c r="A26" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="28">
         <v>100.0</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="20" t="str">
         <f>vlookup(B26,TurtleCommands!A$2:C31,3,false)</f>
         <v>Distance</v>
@@ -11286,17 +11286,17 @@
       <c r="AA26" s="21"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="str">
+      <c r="A27" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="28">
         <v>90.0</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="20" t="str">
         <f>vlookup(B27,TurtleCommands!A$2:C32,3,false)</f>
         <v>Degrees</v>
@@ -11325,17 +11325,17 @@
       <c r="AA27" s="21"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C28" s="28">
         <v>100.0</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="20" t="str">
         <f>vlookup(B28,TurtleCommands!A$2:C33,3,false)</f>
         <v>Distance</v>
@@ -11364,17 +11364,17 @@
       <c r="AA28" s="21"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="str">
+      <c r="A29" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C29" s="28">
         <v>90.0</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="20" t="str">
         <f>vlookup(B29,TurtleCommands!A$2:C34,3,false)</f>
         <v>Degrees</v>
@@ -11403,17 +11403,17 @@
       <c r="AA29" s="21"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C30" s="28">
         <v>100.0</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="20" t="str">
         <f>vlookup(B30,TurtleCommands!A$2:C35,3,false)</f>
         <v>Distance</v>
@@ -11442,17 +11442,17 @@
       <c r="AA30" s="21"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="str">
+      <c r="A31" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C31" s="28">
         <v>90.0</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="20" t="str">
         <f>vlookup(B31,TurtleCommands!A$2:C36,3,false)</f>
         <v>Degrees</v>
@@ -11481,17 +11481,17 @@
       <c r="AA31" s="21"/>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="str">
+      <c r="A32" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="28">
         <v>100.0</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="20" t="str">
         <f>vlookup(B32,TurtleCommands!A$2:C37,3,false)</f>
         <v>Distance</v>
@@ -11520,17 +11520,17 @@
       <c r="AA32" s="21"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="str">
+      <c r="A33" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C33" s="28">
         <v>90.0</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="20" t="str">
         <f>vlookup(B33,TurtleCommands!A$2:C38,3,false)</f>
         <v>Degrees</v>

--- a/SSoT/twolaat.xlsx
+++ b/SSoT/twolaat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>WayNumber</t>
+  </si>
+  <si>
+    <t>Black</t>
   </si>
   <si>
     <t>Type</t>
@@ -37,16 +40,10 @@
     <t>DisplayWayNumber</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t>MainFileName</t>
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Position</t>
   </si>
   <si>
     <t>#000000</t>
@@ -98,9 +95,6 @@
 and the client talks to the turtle directly.</t>
   </si>
   <si>
-    <t>0x0</t>
-  </si>
-  <si>
     <t>W02</t>
   </si>
   <si>
@@ -114,6 +108,12 @@
   </si>
   <si>
     <t>Simple FP - a module of functions with immutable state</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>0x0</t>
   </si>
   <si>
     <t>In this design, the turtle state is immutable. A module contains functions that return a new turtle state,
@@ -148,13 +148,7 @@
     <t>Way 04</t>
   </si>
   <si>
-    <t>Angle</t>
-  </si>
-  <si>
     <t>04-Api_FP_Core.fsx</t>
-  </si>
-  <si>
-    <t>Degrees</t>
   </si>
   <si>
     <t>Api_FP_Core</t>
@@ -163,19 +157,25 @@
     <t>API (OO/FP hybrid approach) -- OO API calling stateless functions</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>In this design, an API layer communicates with pure turtle functions
 and the client talks to the API layer.
 The API layer manages the state (rather than the client) by storing a mutable turtle state.
 *This approach has been named "Functional Core/Imperative Shell" by [Gary Bernhardt](https://www.youtube.com/watch?v=yTkzNHF6rMs)*</t>
   </si>
   <si>
-    <t>PenState</t>
+    <t>W05</t>
   </si>
   <si>
-    <t>W05</t>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Degrees</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>PenState</t>
   </si>
   <si>
     <t>Down</t>
@@ -617,13 +617,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -734,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -766,41 +766,41 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>32</v>
@@ -838,23 +838,23 @@
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" ref="B6:B19" si="1">CONCATENATE("Way ",right(A6,2))</f>
@@ -1177,6867 +1177,6867 @@
     <row r="20">
       <c r="A20" s="13"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="13"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="13"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34">
       <c r="A34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
     <row r="35">
       <c r="A35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36">
       <c r="A36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
     </row>
     <row r="37">
       <c r="A37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
     </row>
     <row r="38">
       <c r="A38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
     </row>
     <row r="39">
       <c r="A39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
     </row>
     <row r="40">
       <c r="A40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
     </row>
     <row r="41">
       <c r="A41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
     </row>
     <row r="42">
       <c r="A42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
     </row>
     <row r="43">
       <c r="A43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
     </row>
     <row r="44">
       <c r="A44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
     <row r="45">
       <c r="A45" s="13"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
     </row>
     <row r="46">
       <c r="A46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
     </row>
     <row r="47">
       <c r="A47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
     </row>
     <row r="48">
       <c r="A48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
     </row>
     <row r="49">
       <c r="A49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
     <row r="50">
       <c r="A50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
     <row r="51">
       <c r="A51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
     <row r="52">
       <c r="A52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
     <row r="53">
       <c r="A53" s="13"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
     <row r="54">
       <c r="A54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
     <row r="55">
       <c r="A55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
     <row r="56">
       <c r="A56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
     <row r="57">
       <c r="A57" s="13"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
     </row>
     <row r="58">
       <c r="A58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
     </row>
     <row r="59">
       <c r="A59" s="13"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
     </row>
     <row r="60">
       <c r="A60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
     <row r="61">
       <c r="A61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
     <row r="62">
       <c r="A62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
     <row r="63">
       <c r="A63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
     <row r="64">
       <c r="A64" s="13"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
     <row r="65">
       <c r="A65" s="13"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
     </row>
     <row r="66">
       <c r="A66" s="13"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
     </row>
     <row r="67">
       <c r="A67" s="13"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
     </row>
     <row r="68">
       <c r="A68" s="13"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
     </row>
     <row r="69">
       <c r="A69" s="13"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
     </row>
     <row r="70">
       <c r="A70" s="13"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
     </row>
     <row r="71">
       <c r="A71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
     </row>
     <row r="72">
       <c r="A72" s="13"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
     </row>
     <row r="73">
       <c r="A73" s="13"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
     </row>
     <row r="74">
       <c r="A74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
     </row>
     <row r="75">
       <c r="A75" s="13"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
     </row>
     <row r="76">
       <c r="A76" s="13"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
     </row>
     <row r="77">
       <c r="A77" s="13"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
     </row>
     <row r="78">
       <c r="A78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
     </row>
     <row r="79">
       <c r="A79" s="13"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
     </row>
     <row r="80">
       <c r="A80" s="13"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
     </row>
     <row r="81">
       <c r="A81" s="13"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
     </row>
     <row r="82">
       <c r="A82" s="13"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
     </row>
     <row r="83">
       <c r="A83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
     </row>
     <row r="84">
       <c r="A84" s="13"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
     </row>
     <row r="85">
       <c r="A85" s="13"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
     </row>
     <row r="86">
       <c r="A86" s="13"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
     </row>
     <row r="87">
       <c r="A87" s="13"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
     </row>
     <row r="88">
       <c r="A88" s="13"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
     </row>
     <row r="89">
       <c r="A89" s="13"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
     </row>
     <row r="90">
       <c r="A90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
     </row>
     <row r="91">
       <c r="A91" s="13"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
     </row>
     <row r="92">
       <c r="A92" s="13"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
     </row>
     <row r="93">
       <c r="A93" s="13"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
     </row>
     <row r="94">
       <c r="A94" s="13"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
     </row>
     <row r="95">
       <c r="A95" s="13"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
     </row>
     <row r="96">
       <c r="A96" s="13"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
     </row>
     <row r="97">
       <c r="A97" s="13"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
     </row>
     <row r="98">
       <c r="A98" s="13"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
     </row>
     <row r="99">
       <c r="A99" s="13"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
     </row>
     <row r="100">
       <c r="A100" s="13"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
     </row>
     <row r="101">
       <c r="A101" s="13"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
     </row>
     <row r="102">
       <c r="A102" s="13"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
     </row>
     <row r="103">
       <c r="A103" s="13"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
     </row>
     <row r="104">
       <c r="A104" s="13"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
     </row>
     <row r="105">
       <c r="A105" s="13"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
     </row>
     <row r="106">
       <c r="A106" s="13"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
     </row>
     <row r="107">
       <c r="A107" s="13"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
     </row>
     <row r="108">
       <c r="A108" s="13"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
       <c r="G108" s="13"/>
       <c r="H108" s="13"/>
     </row>
     <row r="109">
       <c r="A109" s="13"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
     </row>
     <row r="110">
       <c r="A110" s="13"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
     </row>
     <row r="111">
       <c r="A111" s="13"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
     </row>
     <row r="112">
       <c r="A112" s="13"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
     </row>
     <row r="113">
       <c r="A113" s="13"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
     </row>
     <row r="114">
       <c r="A114" s="13"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
     </row>
     <row r="115">
       <c r="A115" s="13"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
     </row>
     <row r="116">
       <c r="A116" s="13"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
     </row>
     <row r="117">
       <c r="A117" s="13"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
     </row>
     <row r="118">
       <c r="A118" s="13"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
     </row>
     <row r="119">
       <c r="A119" s="13"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
     </row>
     <row r="120">
       <c r="A120" s="13"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
     </row>
     <row r="121">
       <c r="A121" s="13"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
       <c r="G121" s="13"/>
       <c r="H121" s="13"/>
     </row>
     <row r="122">
       <c r="A122" s="13"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
       <c r="G122" s="13"/>
       <c r="H122" s="13"/>
     </row>
     <row r="123">
       <c r="A123" s="13"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
       <c r="G123" s="13"/>
       <c r="H123" s="13"/>
     </row>
     <row r="124">
       <c r="A124" s="13"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
       <c r="G124" s="13"/>
       <c r="H124" s="13"/>
     </row>
     <row r="125">
       <c r="A125" s="13"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
       <c r="G125" s="13"/>
       <c r="H125" s="13"/>
     </row>
     <row r="126">
       <c r="A126" s="13"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
       <c r="G126" s="13"/>
       <c r="H126" s="13"/>
     </row>
     <row r="127">
       <c r="A127" s="13"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
       <c r="G127" s="13"/>
       <c r="H127" s="13"/>
     </row>
     <row r="128">
       <c r="A128" s="13"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
       <c r="G128" s="13"/>
       <c r="H128" s="13"/>
     </row>
     <row r="129">
       <c r="A129" s="13"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
     </row>
     <row r="130">
       <c r="A130" s="13"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
       <c r="G130" s="13"/>
       <c r="H130" s="13"/>
     </row>
     <row r="131">
       <c r="A131" s="13"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
       <c r="G131" s="13"/>
       <c r="H131" s="13"/>
     </row>
     <row r="132">
       <c r="A132" s="13"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
       <c r="G132" s="13"/>
       <c r="H132" s="13"/>
     </row>
     <row r="133">
       <c r="A133" s="13"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
       <c r="G133" s="13"/>
       <c r="H133" s="13"/>
     </row>
     <row r="134">
       <c r="A134" s="13"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
       <c r="G134" s="13"/>
       <c r="H134" s="13"/>
     </row>
     <row r="135">
       <c r="A135" s="13"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
       <c r="G135" s="13"/>
       <c r="H135" s="13"/>
     </row>
     <row r="136">
       <c r="A136" s="13"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
       <c r="G136" s="13"/>
       <c r="H136" s="13"/>
     </row>
     <row r="137">
       <c r="A137" s="13"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
       <c r="G137" s="13"/>
       <c r="H137" s="13"/>
     </row>
     <row r="138">
       <c r="A138" s="13"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
       <c r="G138" s="13"/>
       <c r="H138" s="13"/>
     </row>
     <row r="139">
       <c r="A139" s="13"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
       <c r="G139" s="13"/>
       <c r="H139" s="13"/>
     </row>
     <row r="140">
       <c r="A140" s="13"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
       <c r="G140" s="13"/>
       <c r="H140" s="13"/>
     </row>
     <row r="141">
       <c r="A141" s="13"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
       <c r="G141" s="13"/>
       <c r="H141" s="13"/>
     </row>
     <row r="142">
       <c r="A142" s="13"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
       <c r="G142" s="13"/>
       <c r="H142" s="13"/>
     </row>
     <row r="143">
       <c r="A143" s="13"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
       <c r="G143" s="13"/>
       <c r="H143" s="13"/>
     </row>
     <row r="144">
       <c r="A144" s="13"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
       <c r="G144" s="13"/>
       <c r="H144" s="13"/>
     </row>
     <row r="145">
       <c r="A145" s="13"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
       <c r="G145" s="13"/>
       <c r="H145" s="13"/>
     </row>
     <row r="146">
       <c r="A146" s="13"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
       <c r="G146" s="13"/>
       <c r="H146" s="13"/>
     </row>
     <row r="147">
       <c r="A147" s="13"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
       <c r="G147" s="13"/>
       <c r="H147" s="13"/>
     </row>
     <row r="148">
       <c r="A148" s="13"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
       <c r="G148" s="13"/>
       <c r="H148" s="13"/>
     </row>
     <row r="149">
       <c r="A149" s="13"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
       <c r="G149" s="13"/>
       <c r="H149" s="13"/>
     </row>
     <row r="150">
       <c r="A150" s="13"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
       <c r="G150" s="13"/>
       <c r="H150" s="13"/>
     </row>
     <row r="151">
       <c r="A151" s="13"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
       <c r="G151" s="13"/>
       <c r="H151" s="13"/>
     </row>
     <row r="152">
       <c r="A152" s="13"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
       <c r="G152" s="13"/>
       <c r="H152" s="13"/>
     </row>
     <row r="153">
       <c r="A153" s="13"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
       <c r="G153" s="13"/>
       <c r="H153" s="13"/>
     </row>
     <row r="154">
       <c r="A154" s="13"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
       <c r="G154" s="13"/>
       <c r="H154" s="13"/>
     </row>
     <row r="155">
       <c r="A155" s="13"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
       <c r="G155" s="13"/>
       <c r="H155" s="13"/>
     </row>
     <row r="156">
       <c r="A156" s="13"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
       <c r="G156" s="13"/>
       <c r="H156" s="13"/>
     </row>
     <row r="157">
       <c r="A157" s="13"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
       <c r="G157" s="13"/>
       <c r="H157" s="13"/>
     </row>
     <row r="158">
       <c r="A158" s="13"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
       <c r="G158" s="13"/>
       <c r="H158" s="13"/>
     </row>
     <row r="159">
       <c r="A159" s="13"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
       <c r="G159" s="13"/>
       <c r="H159" s="13"/>
     </row>
     <row r="160">
       <c r="A160" s="13"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
       <c r="G160" s="13"/>
       <c r="H160" s="13"/>
     </row>
     <row r="161">
       <c r="A161" s="13"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
       <c r="G161" s="13"/>
       <c r="H161" s="13"/>
     </row>
     <row r="162">
       <c r="A162" s="13"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
       <c r="G162" s="13"/>
       <c r="H162" s="13"/>
     </row>
     <row r="163">
       <c r="A163" s="13"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
       <c r="G163" s="13"/>
       <c r="H163" s="13"/>
     </row>
     <row r="164">
       <c r="A164" s="13"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
     </row>
     <row r="165">
       <c r="A165" s="13"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
       <c r="G165" s="13"/>
       <c r="H165" s="13"/>
     </row>
     <row r="166">
       <c r="A166" s="13"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
       <c r="G166" s="13"/>
       <c r="H166" s="13"/>
     </row>
     <row r="167">
       <c r="A167" s="13"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
       <c r="G167" s="13"/>
       <c r="H167" s="13"/>
     </row>
     <row r="168">
       <c r="A168" s="13"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
       <c r="G168" s="13"/>
       <c r="H168" s="13"/>
     </row>
     <row r="169">
       <c r="A169" s="13"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
     </row>
     <row r="170">
       <c r="A170" s="13"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
       <c r="G170" s="13"/>
       <c r="H170" s="13"/>
     </row>
     <row r="171">
       <c r="A171" s="13"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
       <c r="G171" s="13"/>
       <c r="H171" s="13"/>
     </row>
     <row r="172">
       <c r="A172" s="13"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
       <c r="G172" s="13"/>
       <c r="H172" s="13"/>
     </row>
     <row r="173">
       <c r="A173" s="13"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
     </row>
     <row r="174">
       <c r="A174" s="13"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
       <c r="G174" s="13"/>
       <c r="H174" s="13"/>
     </row>
     <row r="175">
       <c r="A175" s="13"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
       <c r="G175" s="13"/>
       <c r="H175" s="13"/>
     </row>
     <row r="176">
       <c r="A176" s="13"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
       <c r="G176" s="13"/>
       <c r="H176" s="13"/>
     </row>
     <row r="177">
       <c r="A177" s="13"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
       <c r="G177" s="13"/>
       <c r="H177" s="13"/>
     </row>
     <row r="178">
       <c r="A178" s="13"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16"/>
       <c r="G178" s="13"/>
       <c r="H178" s="13"/>
     </row>
     <row r="179">
       <c r="A179" s="13"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16"/>
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
     </row>
     <row r="180">
       <c r="A180" s="13"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
     </row>
     <row r="181">
       <c r="A181" s="13"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="16"/>
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
     </row>
     <row r="182">
       <c r="A182" s="13"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
     </row>
     <row r="183">
       <c r="A183" s="13"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
       <c r="G183" s="13"/>
       <c r="H183" s="13"/>
     </row>
     <row r="184">
       <c r="A184" s="13"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
     </row>
     <row r="185">
       <c r="A185" s="13"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
       <c r="G185" s="13"/>
       <c r="H185" s="13"/>
     </row>
     <row r="186">
       <c r="A186" s="13"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
       <c r="G186" s="13"/>
       <c r="H186" s="13"/>
     </row>
     <row r="187">
       <c r="A187" s="13"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
       <c r="G187" s="13"/>
       <c r="H187" s="13"/>
     </row>
     <row r="188">
       <c r="A188" s="13"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
       <c r="G188" s="13"/>
       <c r="H188" s="13"/>
     </row>
     <row r="189">
       <c r="A189" s="13"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="16"/>
       <c r="G189" s="13"/>
       <c r="H189" s="13"/>
     </row>
     <row r="190">
       <c r="A190" s="13"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="16"/>
       <c r="G190" s="13"/>
       <c r="H190" s="13"/>
     </row>
     <row r="191">
       <c r="A191" s="13"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="16"/>
       <c r="G191" s="13"/>
       <c r="H191" s="13"/>
     </row>
     <row r="192">
       <c r="A192" s="13"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16"/>
       <c r="G192" s="13"/>
       <c r="H192" s="13"/>
     </row>
     <row r="193">
       <c r="A193" s="13"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16"/>
       <c r="G193" s="13"/>
       <c r="H193" s="13"/>
     </row>
     <row r="194">
       <c r="A194" s="13"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
       <c r="G194" s="13"/>
       <c r="H194" s="13"/>
     </row>
     <row r="195">
       <c r="A195" s="13"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="16"/>
       <c r="G195" s="13"/>
       <c r="H195" s="13"/>
     </row>
     <row r="196">
       <c r="A196" s="13"/>
-      <c r="E196" s="14"/>
-      <c r="F196" s="14"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="16"/>
       <c r="G196" s="13"/>
       <c r="H196" s="13"/>
     </row>
     <row r="197">
       <c r="A197" s="13"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
       <c r="G197" s="13"/>
       <c r="H197" s="13"/>
     </row>
     <row r="198">
       <c r="A198" s="13"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="16"/>
       <c r="G198" s="13"/>
       <c r="H198" s="13"/>
     </row>
     <row r="199">
       <c r="A199" s="13"/>
-      <c r="E199" s="14"/>
-      <c r="F199" s="14"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="16"/>
       <c r="G199" s="13"/>
       <c r="H199" s="13"/>
     </row>
     <row r="200">
       <c r="A200" s="13"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
       <c r="G200" s="13"/>
       <c r="H200" s="13"/>
     </row>
     <row r="201">
       <c r="A201" s="13"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="14"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="16"/>
       <c r="G201" s="13"/>
       <c r="H201" s="13"/>
     </row>
     <row r="202">
       <c r="A202" s="13"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="16"/>
       <c r="G202" s="13"/>
       <c r="H202" s="13"/>
     </row>
     <row r="203">
       <c r="A203" s="13"/>
-      <c r="E203" s="14"/>
-      <c r="F203" s="14"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="16"/>
       <c r="G203" s="13"/>
       <c r="H203" s="13"/>
     </row>
     <row r="204">
       <c r="A204" s="13"/>
-      <c r="E204" s="14"/>
-      <c r="F204" s="14"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="16"/>
       <c r="G204" s="13"/>
       <c r="H204" s="13"/>
     </row>
     <row r="205">
       <c r="A205" s="13"/>
-      <c r="E205" s="14"/>
-      <c r="F205" s="14"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="16"/>
       <c r="G205" s="13"/>
       <c r="H205" s="13"/>
     </row>
     <row r="206">
       <c r="A206" s="13"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="14"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="16"/>
       <c r="G206" s="13"/>
       <c r="H206" s="13"/>
     </row>
     <row r="207">
       <c r="A207" s="13"/>
-      <c r="E207" s="14"/>
-      <c r="F207" s="14"/>
+      <c r="E207" s="16"/>
+      <c r="F207" s="16"/>
       <c r="G207" s="13"/>
       <c r="H207" s="13"/>
     </row>
     <row r="208">
       <c r="A208" s="13"/>
-      <c r="E208" s="14"/>
-      <c r="F208" s="14"/>
+      <c r="E208" s="16"/>
+      <c r="F208" s="16"/>
       <c r="G208" s="13"/>
       <c r="H208" s="13"/>
     </row>
     <row r="209">
       <c r="A209" s="13"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
+      <c r="E209" s="16"/>
+      <c r="F209" s="16"/>
       <c r="G209" s="13"/>
       <c r="H209" s="13"/>
     </row>
     <row r="210">
       <c r="A210" s="13"/>
-      <c r="E210" s="14"/>
-      <c r="F210" s="14"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="16"/>
       <c r="G210" s="13"/>
       <c r="H210" s="13"/>
     </row>
     <row r="211">
       <c r="A211" s="13"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="14"/>
+      <c r="E211" s="16"/>
+      <c r="F211" s="16"/>
       <c r="G211" s="13"/>
       <c r="H211" s="13"/>
     </row>
     <row r="212">
       <c r="A212" s="13"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
+      <c r="E212" s="16"/>
+      <c r="F212" s="16"/>
       <c r="G212" s="13"/>
       <c r="H212" s="13"/>
     </row>
     <row r="213">
       <c r="A213" s="13"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="14"/>
+      <c r="E213" s="16"/>
+      <c r="F213" s="16"/>
       <c r="G213" s="13"/>
       <c r="H213" s="13"/>
     </row>
     <row r="214">
       <c r="A214" s="13"/>
-      <c r="E214" s="14"/>
-      <c r="F214" s="14"/>
+      <c r="E214" s="16"/>
+      <c r="F214" s="16"/>
       <c r="G214" s="13"/>
       <c r="H214" s="13"/>
     </row>
     <row r="215">
       <c r="A215" s="13"/>
-      <c r="E215" s="14"/>
-      <c r="F215" s="14"/>
+      <c r="E215" s="16"/>
+      <c r="F215" s="16"/>
       <c r="G215" s="13"/>
       <c r="H215" s="13"/>
     </row>
     <row r="216">
       <c r="A216" s="13"/>
-      <c r="E216" s="14"/>
-      <c r="F216" s="14"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="16"/>
       <c r="G216" s="13"/>
       <c r="H216" s="13"/>
     </row>
     <row r="217">
       <c r="A217" s="13"/>
-      <c r="E217" s="14"/>
-      <c r="F217" s="14"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
       <c r="G217" s="13"/>
       <c r="H217" s="13"/>
     </row>
     <row r="218">
       <c r="A218" s="13"/>
-      <c r="E218" s="14"/>
-      <c r="F218" s="14"/>
+      <c r="E218" s="16"/>
+      <c r="F218" s="16"/>
       <c r="G218" s="13"/>
       <c r="H218" s="13"/>
     </row>
     <row r="219">
       <c r="A219" s="13"/>
-      <c r="E219" s="14"/>
-      <c r="F219" s="14"/>
+      <c r="E219" s="16"/>
+      <c r="F219" s="16"/>
       <c r="G219" s="13"/>
       <c r="H219" s="13"/>
     </row>
     <row r="220">
       <c r="A220" s="13"/>
-      <c r="E220" s="14"/>
-      <c r="F220" s="14"/>
+      <c r="E220" s="16"/>
+      <c r="F220" s="16"/>
       <c r="G220" s="13"/>
       <c r="H220" s="13"/>
     </row>
     <row r="221">
       <c r="A221" s="13"/>
-      <c r="E221" s="14"/>
-      <c r="F221" s="14"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="16"/>
       <c r="G221" s="13"/>
       <c r="H221" s="13"/>
     </row>
     <row r="222">
       <c r="A222" s="13"/>
-      <c r="E222" s="14"/>
-      <c r="F222" s="14"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
       <c r="G222" s="13"/>
       <c r="H222" s="13"/>
     </row>
     <row r="223">
       <c r="A223" s="13"/>
-      <c r="E223" s="14"/>
-      <c r="F223" s="14"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="16"/>
       <c r="G223" s="13"/>
       <c r="H223" s="13"/>
     </row>
     <row r="224">
       <c r="A224" s="13"/>
-      <c r="E224" s="14"/>
-      <c r="F224" s="14"/>
+      <c r="E224" s="16"/>
+      <c r="F224" s="16"/>
       <c r="G224" s="13"/>
       <c r="H224" s="13"/>
     </row>
     <row r="225">
       <c r="A225" s="13"/>
-      <c r="E225" s="14"/>
-      <c r="F225" s="14"/>
+      <c r="E225" s="16"/>
+      <c r="F225" s="16"/>
       <c r="G225" s="13"/>
       <c r="H225" s="13"/>
     </row>
     <row r="226">
       <c r="A226" s="13"/>
-      <c r="E226" s="14"/>
-      <c r="F226" s="14"/>
+      <c r="E226" s="16"/>
+      <c r="F226" s="16"/>
       <c r="G226" s="13"/>
       <c r="H226" s="13"/>
     </row>
     <row r="227">
       <c r="A227" s="13"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="14"/>
+      <c r="E227" s="16"/>
+      <c r="F227" s="16"/>
       <c r="G227" s="13"/>
       <c r="H227" s="13"/>
     </row>
     <row r="228">
       <c r="A228" s="13"/>
-      <c r="E228" s="14"/>
-      <c r="F228" s="14"/>
+      <c r="E228" s="16"/>
+      <c r="F228" s="16"/>
       <c r="G228" s="13"/>
       <c r="H228" s="13"/>
     </row>
     <row r="229">
       <c r="A229" s="13"/>
-      <c r="E229" s="14"/>
-      <c r="F229" s="14"/>
+      <c r="E229" s="16"/>
+      <c r="F229" s="16"/>
       <c r="G229" s="13"/>
       <c r="H229" s="13"/>
     </row>
     <row r="230">
       <c r="A230" s="13"/>
-      <c r="E230" s="14"/>
-      <c r="F230" s="14"/>
+      <c r="E230" s="16"/>
+      <c r="F230" s="16"/>
       <c r="G230" s="13"/>
       <c r="H230" s="13"/>
     </row>
     <row r="231">
       <c r="A231" s="13"/>
-      <c r="E231" s="14"/>
-      <c r="F231" s="14"/>
+      <c r="E231" s="16"/>
+      <c r="F231" s="16"/>
       <c r="G231" s="13"/>
       <c r="H231" s="13"/>
     </row>
     <row r="232">
       <c r="A232" s="13"/>
-      <c r="E232" s="14"/>
-      <c r="F232" s="14"/>
+      <c r="E232" s="16"/>
+      <c r="F232" s="16"/>
       <c r="G232" s="13"/>
       <c r="H232" s="13"/>
     </row>
     <row r="233">
       <c r="A233" s="13"/>
-      <c r="E233" s="14"/>
-      <c r="F233" s="14"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="16"/>
       <c r="G233" s="13"/>
       <c r="H233" s="13"/>
     </row>
     <row r="234">
       <c r="A234" s="13"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="14"/>
+      <c r="E234" s="16"/>
+      <c r="F234" s="16"/>
       <c r="G234" s="13"/>
       <c r="H234" s="13"/>
     </row>
     <row r="235">
       <c r="A235" s="13"/>
-      <c r="E235" s="14"/>
-      <c r="F235" s="14"/>
+      <c r="E235" s="16"/>
+      <c r="F235" s="16"/>
       <c r="G235" s="13"/>
       <c r="H235" s="13"/>
     </row>
     <row r="236">
       <c r="A236" s="13"/>
-      <c r="E236" s="14"/>
-      <c r="F236" s="14"/>
+      <c r="E236" s="16"/>
+      <c r="F236" s="16"/>
       <c r="G236" s="13"/>
       <c r="H236" s="13"/>
     </row>
     <row r="237">
       <c r="A237" s="13"/>
-      <c r="E237" s="14"/>
-      <c r="F237" s="14"/>
+      <c r="E237" s="16"/>
+      <c r="F237" s="16"/>
       <c r="G237" s="13"/>
       <c r="H237" s="13"/>
     </row>
     <row r="238">
       <c r="A238" s="13"/>
-      <c r="E238" s="14"/>
-      <c r="F238" s="14"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
       <c r="G238" s="13"/>
       <c r="H238" s="13"/>
     </row>
     <row r="239">
       <c r="A239" s="13"/>
-      <c r="E239" s="14"/>
-      <c r="F239" s="14"/>
+      <c r="E239" s="16"/>
+      <c r="F239" s="16"/>
       <c r="G239" s="13"/>
       <c r="H239" s="13"/>
     </row>
     <row r="240">
       <c r="A240" s="13"/>
-      <c r="E240" s="14"/>
-      <c r="F240" s="14"/>
+      <c r="E240" s="16"/>
+      <c r="F240" s="16"/>
       <c r="G240" s="13"/>
       <c r="H240" s="13"/>
     </row>
     <row r="241">
       <c r="A241" s="13"/>
-      <c r="E241" s="14"/>
-      <c r="F241" s="14"/>
+      <c r="E241" s="16"/>
+      <c r="F241" s="16"/>
       <c r="G241" s="13"/>
       <c r="H241" s="13"/>
     </row>
     <row r="242">
       <c r="A242" s="13"/>
-      <c r="E242" s="14"/>
-      <c r="F242" s="14"/>
+      <c r="E242" s="16"/>
+      <c r="F242" s="16"/>
       <c r="G242" s="13"/>
       <c r="H242" s="13"/>
     </row>
     <row r="243">
       <c r="A243" s="13"/>
-      <c r="E243" s="14"/>
-      <c r="F243" s="14"/>
+      <c r="E243" s="16"/>
+      <c r="F243" s="16"/>
       <c r="G243" s="13"/>
       <c r="H243" s="13"/>
     </row>
     <row r="244">
       <c r="A244" s="13"/>
-      <c r="E244" s="14"/>
-      <c r="F244" s="14"/>
+      <c r="E244" s="16"/>
+      <c r="F244" s="16"/>
       <c r="G244" s="13"/>
       <c r="H244" s="13"/>
     </row>
     <row r="245">
       <c r="A245" s="13"/>
-      <c r="E245" s="14"/>
-      <c r="F245" s="14"/>
+      <c r="E245" s="16"/>
+      <c r="F245" s="16"/>
       <c r="G245" s="13"/>
       <c r="H245" s="13"/>
     </row>
     <row r="246">
       <c r="A246" s="13"/>
-      <c r="E246" s="14"/>
-      <c r="F246" s="14"/>
+      <c r="E246" s="16"/>
+      <c r="F246" s="16"/>
       <c r="G246" s="13"/>
       <c r="H246" s="13"/>
     </row>
     <row r="247">
       <c r="A247" s="13"/>
-      <c r="E247" s="14"/>
-      <c r="F247" s="14"/>
+      <c r="E247" s="16"/>
+      <c r="F247" s="16"/>
       <c r="G247" s="13"/>
       <c r="H247" s="13"/>
     </row>
     <row r="248">
       <c r="A248" s="13"/>
-      <c r="E248" s="14"/>
-      <c r="F248" s="14"/>
+      <c r="E248" s="16"/>
+      <c r="F248" s="16"/>
       <c r="G248" s="13"/>
       <c r="H248" s="13"/>
     </row>
     <row r="249">
       <c r="A249" s="13"/>
-      <c r="E249" s="14"/>
-      <c r="F249" s="14"/>
+      <c r="E249" s="16"/>
+      <c r="F249" s="16"/>
       <c r="G249" s="13"/>
       <c r="H249" s="13"/>
     </row>
     <row r="250">
       <c r="A250" s="13"/>
-      <c r="E250" s="14"/>
-      <c r="F250" s="14"/>
+      <c r="E250" s="16"/>
+      <c r="F250" s="16"/>
       <c r="G250" s="13"/>
       <c r="H250" s="13"/>
     </row>
     <row r="251">
       <c r="A251" s="13"/>
-      <c r="E251" s="14"/>
-      <c r="F251" s="14"/>
+      <c r="E251" s="16"/>
+      <c r="F251" s="16"/>
       <c r="G251" s="13"/>
       <c r="H251" s="13"/>
     </row>
     <row r="252">
       <c r="A252" s="13"/>
-      <c r="E252" s="14"/>
-      <c r="F252" s="14"/>
+      <c r="E252" s="16"/>
+      <c r="F252" s="16"/>
       <c r="G252" s="13"/>
       <c r="H252" s="13"/>
     </row>
     <row r="253">
       <c r="A253" s="13"/>
-      <c r="E253" s="14"/>
-      <c r="F253" s="14"/>
+      <c r="E253" s="16"/>
+      <c r="F253" s="16"/>
       <c r="G253" s="13"/>
       <c r="H253" s="13"/>
     </row>
     <row r="254">
       <c r="A254" s="13"/>
-      <c r="E254" s="14"/>
-      <c r="F254" s="14"/>
+      <c r="E254" s="16"/>
+      <c r="F254" s="16"/>
       <c r="G254" s="13"/>
       <c r="H254" s="13"/>
     </row>
     <row r="255">
       <c r="A255" s="13"/>
-      <c r="E255" s="14"/>
-      <c r="F255" s="14"/>
+      <c r="E255" s="16"/>
+      <c r="F255" s="16"/>
       <c r="G255" s="13"/>
       <c r="H255" s="13"/>
     </row>
     <row r="256">
       <c r="A256" s="13"/>
-      <c r="E256" s="14"/>
-      <c r="F256" s="14"/>
+      <c r="E256" s="16"/>
+      <c r="F256" s="16"/>
       <c r="G256" s="13"/>
       <c r="H256" s="13"/>
     </row>
     <row r="257">
       <c r="A257" s="13"/>
-      <c r="E257" s="14"/>
-      <c r="F257" s="14"/>
+      <c r="E257" s="16"/>
+      <c r="F257" s="16"/>
       <c r="G257" s="13"/>
       <c r="H257" s="13"/>
     </row>
     <row r="258">
       <c r="A258" s="13"/>
-      <c r="E258" s="14"/>
-      <c r="F258" s="14"/>
+      <c r="E258" s="16"/>
+      <c r="F258" s="16"/>
       <c r="G258" s="13"/>
       <c r="H258" s="13"/>
     </row>
     <row r="259">
       <c r="A259" s="13"/>
-      <c r="E259" s="14"/>
-      <c r="F259" s="14"/>
+      <c r="E259" s="16"/>
+      <c r="F259" s="16"/>
       <c r="G259" s="13"/>
       <c r="H259" s="13"/>
     </row>
     <row r="260">
       <c r="A260" s="13"/>
-      <c r="E260" s="14"/>
-      <c r="F260" s="14"/>
+      <c r="E260" s="16"/>
+      <c r="F260" s="16"/>
       <c r="G260" s="13"/>
       <c r="H260" s="13"/>
     </row>
     <row r="261">
       <c r="A261" s="13"/>
-      <c r="E261" s="14"/>
-      <c r="F261" s="14"/>
+      <c r="E261" s="16"/>
+      <c r="F261" s="16"/>
       <c r="G261" s="13"/>
       <c r="H261" s="13"/>
     </row>
     <row r="262">
       <c r="A262" s="13"/>
-      <c r="E262" s="14"/>
-      <c r="F262" s="14"/>
+      <c r="E262" s="16"/>
+      <c r="F262" s="16"/>
       <c r="G262" s="13"/>
       <c r="H262" s="13"/>
     </row>
     <row r="263">
       <c r="A263" s="13"/>
-      <c r="E263" s="14"/>
-      <c r="F263" s="14"/>
+      <c r="E263" s="16"/>
+      <c r="F263" s="16"/>
       <c r="G263" s="13"/>
       <c r="H263" s="13"/>
     </row>
     <row r="264">
       <c r="A264" s="13"/>
-      <c r="E264" s="14"/>
-      <c r="F264" s="14"/>
+      <c r="E264" s="16"/>
+      <c r="F264" s="16"/>
       <c r="G264" s="13"/>
       <c r="H264" s="13"/>
     </row>
     <row r="265">
       <c r="A265" s="13"/>
-      <c r="E265" s="14"/>
-      <c r="F265" s="14"/>
+      <c r="E265" s="16"/>
+      <c r="F265" s="16"/>
       <c r="G265" s="13"/>
       <c r="H265" s="13"/>
     </row>
     <row r="266">
       <c r="A266" s="13"/>
-      <c r="E266" s="14"/>
-      <c r="F266" s="14"/>
+      <c r="E266" s="16"/>
+      <c r="F266" s="16"/>
       <c r="G266" s="13"/>
       <c r="H266" s="13"/>
     </row>
     <row r="267">
       <c r="A267" s="13"/>
-      <c r="E267" s="14"/>
-      <c r="F267" s="14"/>
+      <c r="E267" s="16"/>
+      <c r="F267" s="16"/>
       <c r="G267" s="13"/>
       <c r="H267" s="13"/>
     </row>
     <row r="268">
       <c r="A268" s="13"/>
-      <c r="E268" s="14"/>
-      <c r="F268" s="14"/>
+      <c r="E268" s="16"/>
+      <c r="F268" s="16"/>
       <c r="G268" s="13"/>
       <c r="H268" s="13"/>
     </row>
     <row r="269">
       <c r="A269" s="13"/>
-      <c r="E269" s="14"/>
-      <c r="F269" s="14"/>
+      <c r="E269" s="16"/>
+      <c r="F269" s="16"/>
       <c r="G269" s="13"/>
       <c r="H269" s="13"/>
     </row>
     <row r="270">
       <c r="A270" s="13"/>
-      <c r="E270" s="14"/>
-      <c r="F270" s="14"/>
+      <c r="E270" s="16"/>
+      <c r="F270" s="16"/>
       <c r="G270" s="13"/>
       <c r="H270" s="13"/>
     </row>
     <row r="271">
       <c r="A271" s="13"/>
-      <c r="E271" s="14"/>
-      <c r="F271" s="14"/>
+      <c r="E271" s="16"/>
+      <c r="F271" s="16"/>
       <c r="G271" s="13"/>
       <c r="H271" s="13"/>
     </row>
     <row r="272">
       <c r="A272" s="13"/>
-      <c r="E272" s="14"/>
-      <c r="F272" s="14"/>
+      <c r="E272" s="16"/>
+      <c r="F272" s="16"/>
       <c r="G272" s="13"/>
       <c r="H272" s="13"/>
     </row>
     <row r="273">
       <c r="A273" s="13"/>
-      <c r="E273" s="14"/>
-      <c r="F273" s="14"/>
+      <c r="E273" s="16"/>
+      <c r="F273" s="16"/>
       <c r="G273" s="13"/>
       <c r="H273" s="13"/>
     </row>
     <row r="274">
       <c r="A274" s="13"/>
-      <c r="E274" s="14"/>
-      <c r="F274" s="14"/>
+      <c r="E274" s="16"/>
+      <c r="F274" s="16"/>
       <c r="G274" s="13"/>
       <c r="H274" s="13"/>
     </row>
     <row r="275">
       <c r="A275" s="13"/>
-      <c r="E275" s="14"/>
-      <c r="F275" s="14"/>
+      <c r="E275" s="16"/>
+      <c r="F275" s="16"/>
       <c r="G275" s="13"/>
       <c r="H275" s="13"/>
     </row>
     <row r="276">
       <c r="A276" s="13"/>
-      <c r="E276" s="14"/>
-      <c r="F276" s="14"/>
+      <c r="E276" s="16"/>
+      <c r="F276" s="16"/>
       <c r="G276" s="13"/>
       <c r="H276" s="13"/>
     </row>
     <row r="277">
       <c r="A277" s="13"/>
-      <c r="E277" s="14"/>
-      <c r="F277" s="14"/>
+      <c r="E277" s="16"/>
+      <c r="F277" s="16"/>
       <c r="G277" s="13"/>
       <c r="H277" s="13"/>
     </row>
     <row r="278">
       <c r="A278" s="13"/>
-      <c r="E278" s="14"/>
-      <c r="F278" s="14"/>
+      <c r="E278" s="16"/>
+      <c r="F278" s="16"/>
       <c r="G278" s="13"/>
       <c r="H278" s="13"/>
     </row>
     <row r="279">
       <c r="A279" s="13"/>
-      <c r="E279" s="14"/>
-      <c r="F279" s="14"/>
+      <c r="E279" s="16"/>
+      <c r="F279" s="16"/>
       <c r="G279" s="13"/>
       <c r="H279" s="13"/>
     </row>
     <row r="280">
       <c r="A280" s="13"/>
-      <c r="E280" s="14"/>
-      <c r="F280" s="14"/>
+      <c r="E280" s="16"/>
+      <c r="F280" s="16"/>
       <c r="G280" s="13"/>
       <c r="H280" s="13"/>
     </row>
     <row r="281">
       <c r="A281" s="13"/>
-      <c r="E281" s="14"/>
-      <c r="F281" s="14"/>
+      <c r="E281" s="16"/>
+      <c r="F281" s="16"/>
       <c r="G281" s="13"/>
       <c r="H281" s="13"/>
     </row>
     <row r="282">
       <c r="A282" s="13"/>
-      <c r="E282" s="14"/>
-      <c r="F282" s="14"/>
+      <c r="E282" s="16"/>
+      <c r="F282" s="16"/>
       <c r="G282" s="13"/>
       <c r="H282" s="13"/>
     </row>
     <row r="283">
       <c r="A283" s="13"/>
-      <c r="E283" s="14"/>
-      <c r="F283" s="14"/>
+      <c r="E283" s="16"/>
+      <c r="F283" s="16"/>
       <c r="G283" s="13"/>
       <c r="H283" s="13"/>
     </row>
     <row r="284">
       <c r="A284" s="13"/>
-      <c r="E284" s="14"/>
-      <c r="F284" s="14"/>
+      <c r="E284" s="16"/>
+      <c r="F284" s="16"/>
       <c r="G284" s="13"/>
       <c r="H284" s="13"/>
     </row>
     <row r="285">
       <c r="A285" s="13"/>
-      <c r="E285" s="14"/>
-      <c r="F285" s="14"/>
+      <c r="E285" s="16"/>
+      <c r="F285" s="16"/>
       <c r="G285" s="13"/>
       <c r="H285" s="13"/>
     </row>
     <row r="286">
       <c r="A286" s="13"/>
-      <c r="E286" s="14"/>
-      <c r="F286" s="14"/>
+      <c r="E286" s="16"/>
+      <c r="F286" s="16"/>
       <c r="G286" s="13"/>
       <c r="H286" s="13"/>
     </row>
     <row r="287">
       <c r="A287" s="13"/>
-      <c r="E287" s="14"/>
-      <c r="F287" s="14"/>
+      <c r="E287" s="16"/>
+      <c r="F287" s="16"/>
       <c r="G287" s="13"/>
       <c r="H287" s="13"/>
     </row>
     <row r="288">
       <c r="A288" s="13"/>
-      <c r="E288" s="14"/>
-      <c r="F288" s="14"/>
+      <c r="E288" s="16"/>
+      <c r="F288" s="16"/>
       <c r="G288" s="13"/>
       <c r="H288" s="13"/>
     </row>
     <row r="289">
       <c r="A289" s="13"/>
-      <c r="E289" s="14"/>
-      <c r="F289" s="14"/>
+      <c r="E289" s="16"/>
+      <c r="F289" s="16"/>
       <c r="G289" s="13"/>
       <c r="H289" s="13"/>
     </row>
     <row r="290">
       <c r="A290" s="13"/>
-      <c r="E290" s="14"/>
-      <c r="F290" s="14"/>
+      <c r="E290" s="16"/>
+      <c r="F290" s="16"/>
       <c r="G290" s="13"/>
       <c r="H290" s="13"/>
     </row>
     <row r="291">
       <c r="A291" s="13"/>
-      <c r="E291" s="14"/>
-      <c r="F291" s="14"/>
+      <c r="E291" s="16"/>
+      <c r="F291" s="16"/>
       <c r="G291" s="13"/>
       <c r="H291" s="13"/>
     </row>
     <row r="292">
       <c r="A292" s="13"/>
-      <c r="E292" s="14"/>
-      <c r="F292" s="14"/>
+      <c r="E292" s="16"/>
+      <c r="F292" s="16"/>
       <c r="G292" s="13"/>
       <c r="H292" s="13"/>
     </row>
     <row r="293">
       <c r="A293" s="13"/>
-      <c r="E293" s="14"/>
-      <c r="F293" s="14"/>
+      <c r="E293" s="16"/>
+      <c r="F293" s="16"/>
       <c r="G293" s="13"/>
       <c r="H293" s="13"/>
     </row>
     <row r="294">
       <c r="A294" s="13"/>
-      <c r="E294" s="14"/>
-      <c r="F294" s="14"/>
+      <c r="E294" s="16"/>
+      <c r="F294" s="16"/>
       <c r="G294" s="13"/>
       <c r="H294" s="13"/>
     </row>
     <row r="295">
       <c r="A295" s="13"/>
-      <c r="E295" s="14"/>
-      <c r="F295" s="14"/>
+      <c r="E295" s="16"/>
+      <c r="F295" s="16"/>
       <c r="G295" s="13"/>
       <c r="H295" s="13"/>
     </row>
     <row r="296">
       <c r="A296" s="13"/>
-      <c r="E296" s="14"/>
-      <c r="F296" s="14"/>
+      <c r="E296" s="16"/>
+      <c r="F296" s="16"/>
       <c r="G296" s="13"/>
       <c r="H296" s="13"/>
     </row>
     <row r="297">
       <c r="A297" s="13"/>
-      <c r="E297" s="14"/>
-      <c r="F297" s="14"/>
+      <c r="E297" s="16"/>
+      <c r="F297" s="16"/>
       <c r="G297" s="13"/>
       <c r="H297" s="13"/>
     </row>
     <row r="298">
       <c r="A298" s="13"/>
-      <c r="E298" s="14"/>
-      <c r="F298" s="14"/>
+      <c r="E298" s="16"/>
+      <c r="F298" s="16"/>
       <c r="G298" s="13"/>
       <c r="H298" s="13"/>
     </row>
     <row r="299">
       <c r="A299" s="13"/>
-      <c r="E299" s="14"/>
-      <c r="F299" s="14"/>
+      <c r="E299" s="16"/>
+      <c r="F299" s="16"/>
       <c r="G299" s="13"/>
       <c r="H299" s="13"/>
     </row>
     <row r="300">
       <c r="A300" s="13"/>
-      <c r="E300" s="14"/>
-      <c r="F300" s="14"/>
+      <c r="E300" s="16"/>
+      <c r="F300" s="16"/>
       <c r="G300" s="13"/>
       <c r="H300" s="13"/>
     </row>
     <row r="301">
       <c r="A301" s="13"/>
-      <c r="E301" s="14"/>
-      <c r="F301" s="14"/>
+      <c r="E301" s="16"/>
+      <c r="F301" s="16"/>
       <c r="G301" s="13"/>
       <c r="H301" s="13"/>
     </row>
     <row r="302">
       <c r="A302" s="13"/>
-      <c r="E302" s="14"/>
-      <c r="F302" s="14"/>
+      <c r="E302" s="16"/>
+      <c r="F302" s="16"/>
       <c r="G302" s="13"/>
       <c r="H302" s="13"/>
     </row>
     <row r="303">
       <c r="A303" s="13"/>
-      <c r="E303" s="14"/>
-      <c r="F303" s="14"/>
+      <c r="E303" s="16"/>
+      <c r="F303" s="16"/>
       <c r="G303" s="13"/>
       <c r="H303" s="13"/>
     </row>
     <row r="304">
       <c r="A304" s="13"/>
-      <c r="E304" s="14"/>
-      <c r="F304" s="14"/>
+      <c r="E304" s="16"/>
+      <c r="F304" s="16"/>
       <c r="G304" s="13"/>
       <c r="H304" s="13"/>
     </row>
     <row r="305">
       <c r="A305" s="13"/>
-      <c r="E305" s="14"/>
-      <c r="F305" s="14"/>
+      <c r="E305" s="16"/>
+      <c r="F305" s="16"/>
       <c r="G305" s="13"/>
       <c r="H305" s="13"/>
     </row>
     <row r="306">
       <c r="A306" s="13"/>
-      <c r="E306" s="14"/>
-      <c r="F306" s="14"/>
+      <c r="E306" s="16"/>
+      <c r="F306" s="16"/>
       <c r="G306" s="13"/>
       <c r="H306" s="13"/>
     </row>
     <row r="307">
       <c r="A307" s="13"/>
-      <c r="E307" s="14"/>
-      <c r="F307" s="14"/>
+      <c r="E307" s="16"/>
+      <c r="F307" s="16"/>
       <c r="G307" s="13"/>
       <c r="H307" s="13"/>
     </row>
     <row r="308">
       <c r="A308" s="13"/>
-      <c r="E308" s="14"/>
-      <c r="F308" s="14"/>
+      <c r="E308" s="16"/>
+      <c r="F308" s="16"/>
       <c r="G308" s="13"/>
       <c r="H308" s="13"/>
     </row>
     <row r="309">
       <c r="A309" s="13"/>
-      <c r="E309" s="14"/>
-      <c r="F309" s="14"/>
+      <c r="E309" s="16"/>
+      <c r="F309" s="16"/>
       <c r="G309" s="13"/>
       <c r="H309" s="13"/>
     </row>
     <row r="310">
       <c r="A310" s="13"/>
-      <c r="E310" s="14"/>
-      <c r="F310" s="14"/>
+      <c r="E310" s="16"/>
+      <c r="F310" s="16"/>
       <c r="G310" s="13"/>
       <c r="H310" s="13"/>
     </row>
     <row r="311">
       <c r="A311" s="13"/>
-      <c r="E311" s="14"/>
-      <c r="F311" s="14"/>
+      <c r="E311" s="16"/>
+      <c r="F311" s="16"/>
       <c r="G311" s="13"/>
       <c r="H311" s="13"/>
     </row>
     <row r="312">
       <c r="A312" s="13"/>
-      <c r="E312" s="14"/>
-      <c r="F312" s="14"/>
+      <c r="E312" s="16"/>
+      <c r="F312" s="16"/>
       <c r="G312" s="13"/>
       <c r="H312" s="13"/>
     </row>
     <row r="313">
       <c r="A313" s="13"/>
-      <c r="E313" s="14"/>
-      <c r="F313" s="14"/>
+      <c r="E313" s="16"/>
+      <c r="F313" s="16"/>
       <c r="G313" s="13"/>
       <c r="H313" s="13"/>
     </row>
     <row r="314">
       <c r="A314" s="13"/>
-      <c r="E314" s="14"/>
-      <c r="F314" s="14"/>
+      <c r="E314" s="16"/>
+      <c r="F314" s="16"/>
       <c r="G314" s="13"/>
       <c r="H314" s="13"/>
     </row>
     <row r="315">
       <c r="A315" s="13"/>
-      <c r="E315" s="14"/>
-      <c r="F315" s="14"/>
+      <c r="E315" s="16"/>
+      <c r="F315" s="16"/>
       <c r="G315" s="13"/>
       <c r="H315" s="13"/>
     </row>
     <row r="316">
       <c r="A316" s="13"/>
-      <c r="E316" s="14"/>
-      <c r="F316" s="14"/>
+      <c r="E316" s="16"/>
+      <c r="F316" s="16"/>
       <c r="G316" s="13"/>
       <c r="H316" s="13"/>
     </row>
     <row r="317">
       <c r="A317" s="13"/>
-      <c r="E317" s="14"/>
-      <c r="F317" s="14"/>
+      <c r="E317" s="16"/>
+      <c r="F317" s="16"/>
       <c r="G317" s="13"/>
       <c r="H317" s="13"/>
     </row>
     <row r="318">
       <c r="A318" s="13"/>
-      <c r="E318" s="14"/>
-      <c r="F318" s="14"/>
+      <c r="E318" s="16"/>
+      <c r="F318" s="16"/>
       <c r="G318" s="13"/>
       <c r="H318" s="13"/>
     </row>
     <row r="319">
       <c r="A319" s="13"/>
-      <c r="E319" s="14"/>
-      <c r="F319" s="14"/>
+      <c r="E319" s="16"/>
+      <c r="F319" s="16"/>
       <c r="G319" s="13"/>
       <c r="H319" s="13"/>
     </row>
     <row r="320">
       <c r="A320" s="13"/>
-      <c r="E320" s="14"/>
-      <c r="F320" s="14"/>
+      <c r="E320" s="16"/>
+      <c r="F320" s="16"/>
       <c r="G320" s="13"/>
       <c r="H320" s="13"/>
     </row>
     <row r="321">
       <c r="A321" s="13"/>
-      <c r="E321" s="14"/>
-      <c r="F321" s="14"/>
+      <c r="E321" s="16"/>
+      <c r="F321" s="16"/>
       <c r="G321" s="13"/>
       <c r="H321" s="13"/>
     </row>
     <row r="322">
       <c r="A322" s="13"/>
-      <c r="E322" s="14"/>
-      <c r="F322" s="14"/>
+      <c r="E322" s="16"/>
+      <c r="F322" s="16"/>
       <c r="G322" s="13"/>
       <c r="H322" s="13"/>
     </row>
     <row r="323">
       <c r="A323" s="13"/>
-      <c r="E323" s="14"/>
-      <c r="F323" s="14"/>
+      <c r="E323" s="16"/>
+      <c r="F323" s="16"/>
       <c r="G323" s="13"/>
       <c r="H323" s="13"/>
     </row>
     <row r="324">
       <c r="A324" s="13"/>
-      <c r="E324" s="14"/>
-      <c r="F324" s="14"/>
+      <c r="E324" s="16"/>
+      <c r="F324" s="16"/>
       <c r="G324" s="13"/>
       <c r="H324" s="13"/>
     </row>
     <row r="325">
       <c r="A325" s="13"/>
-      <c r="E325" s="14"/>
-      <c r="F325" s="14"/>
+      <c r="E325" s="16"/>
+      <c r="F325" s="16"/>
       <c r="G325" s="13"/>
       <c r="H325" s="13"/>
     </row>
     <row r="326">
       <c r="A326" s="13"/>
-      <c r="E326" s="14"/>
-      <c r="F326" s="14"/>
+      <c r="E326" s="16"/>
+      <c r="F326" s="16"/>
       <c r="G326" s="13"/>
       <c r="H326" s="13"/>
     </row>
     <row r="327">
       <c r="A327" s="13"/>
-      <c r="E327" s="14"/>
-      <c r="F327" s="14"/>
+      <c r="E327" s="16"/>
+      <c r="F327" s="16"/>
       <c r="G327" s="13"/>
       <c r="H327" s="13"/>
     </row>
     <row r="328">
       <c r="A328" s="13"/>
-      <c r="E328" s="14"/>
-      <c r="F328" s="14"/>
+      <c r="E328" s="16"/>
+      <c r="F328" s="16"/>
       <c r="G328" s="13"/>
       <c r="H328" s="13"/>
     </row>
     <row r="329">
       <c r="A329" s="13"/>
-      <c r="E329" s="14"/>
-      <c r="F329" s="14"/>
+      <c r="E329" s="16"/>
+      <c r="F329" s="16"/>
       <c r="G329" s="13"/>
       <c r="H329" s="13"/>
     </row>
     <row r="330">
       <c r="A330" s="13"/>
-      <c r="E330" s="14"/>
-      <c r="F330" s="14"/>
+      <c r="E330" s="16"/>
+      <c r="F330" s="16"/>
       <c r="G330" s="13"/>
       <c r="H330" s="13"/>
     </row>
     <row r="331">
       <c r="A331" s="13"/>
-      <c r="E331" s="14"/>
-      <c r="F331" s="14"/>
+      <c r="E331" s="16"/>
+      <c r="F331" s="16"/>
       <c r="G331" s="13"/>
       <c r="H331" s="13"/>
     </row>
     <row r="332">
       <c r="A332" s="13"/>
-      <c r="E332" s="14"/>
-      <c r="F332" s="14"/>
+      <c r="E332" s="16"/>
+      <c r="F332" s="16"/>
       <c r="G332" s="13"/>
       <c r="H332" s="13"/>
     </row>
     <row r="333">
       <c r="A333" s="13"/>
-      <c r="E333" s="14"/>
-      <c r="F333" s="14"/>
+      <c r="E333" s="16"/>
+      <c r="F333" s="16"/>
       <c r="G333" s="13"/>
       <c r="H333" s="13"/>
     </row>
     <row r="334">
       <c r="A334" s="13"/>
-      <c r="E334" s="14"/>
-      <c r="F334" s="14"/>
+      <c r="E334" s="16"/>
+      <c r="F334" s="16"/>
       <c r="G334" s="13"/>
       <c r="H334" s="13"/>
     </row>
     <row r="335">
       <c r="A335" s="13"/>
-      <c r="E335" s="14"/>
-      <c r="F335" s="14"/>
+      <c r="E335" s="16"/>
+      <c r="F335" s="16"/>
       <c r="G335" s="13"/>
       <c r="H335" s="13"/>
     </row>
     <row r="336">
       <c r="A336" s="13"/>
-      <c r="E336" s="14"/>
-      <c r="F336" s="14"/>
+      <c r="E336" s="16"/>
+      <c r="F336" s="16"/>
       <c r="G336" s="13"/>
       <c r="H336" s="13"/>
     </row>
     <row r="337">
       <c r="A337" s="13"/>
-      <c r="E337" s="14"/>
-      <c r="F337" s="14"/>
+      <c r="E337" s="16"/>
+      <c r="F337" s="16"/>
       <c r="G337" s="13"/>
       <c r="H337" s="13"/>
     </row>
     <row r="338">
       <c r="A338" s="13"/>
-      <c r="E338" s="14"/>
-      <c r="F338" s="14"/>
+      <c r="E338" s="16"/>
+      <c r="F338" s="16"/>
       <c r="G338" s="13"/>
       <c r="H338" s="13"/>
     </row>
     <row r="339">
       <c r="A339" s="13"/>
-      <c r="E339" s="14"/>
-      <c r="F339" s="14"/>
+      <c r="E339" s="16"/>
+      <c r="F339" s="16"/>
       <c r="G339" s="13"/>
       <c r="H339" s="13"/>
     </row>
     <row r="340">
       <c r="A340" s="13"/>
-      <c r="E340" s="14"/>
-      <c r="F340" s="14"/>
+      <c r="E340" s="16"/>
+      <c r="F340" s="16"/>
       <c r="G340" s="13"/>
       <c r="H340" s="13"/>
     </row>
     <row r="341">
       <c r="A341" s="13"/>
-      <c r="E341" s="14"/>
-      <c r="F341" s="14"/>
+      <c r="E341" s="16"/>
+      <c r="F341" s="16"/>
       <c r="G341" s="13"/>
       <c r="H341" s="13"/>
     </row>
     <row r="342">
       <c r="A342" s="13"/>
-      <c r="E342" s="14"/>
-      <c r="F342" s="14"/>
+      <c r="E342" s="16"/>
+      <c r="F342" s="16"/>
       <c r="G342" s="13"/>
       <c r="H342" s="13"/>
     </row>
     <row r="343">
       <c r="A343" s="13"/>
-      <c r="E343" s="14"/>
-      <c r="F343" s="14"/>
+      <c r="E343" s="16"/>
+      <c r="F343" s="16"/>
       <c r="G343" s="13"/>
       <c r="H343" s="13"/>
     </row>
     <row r="344">
       <c r="A344" s="13"/>
-      <c r="E344" s="14"/>
-      <c r="F344" s="14"/>
+      <c r="E344" s="16"/>
+      <c r="F344" s="16"/>
       <c r="G344" s="13"/>
       <c r="H344" s="13"/>
     </row>
     <row r="345">
       <c r="A345" s="13"/>
-      <c r="E345" s="14"/>
-      <c r="F345" s="14"/>
+      <c r="E345" s="16"/>
+      <c r="F345" s="16"/>
       <c r="G345" s="13"/>
       <c r="H345" s="13"/>
     </row>
     <row r="346">
       <c r="A346" s="13"/>
-      <c r="E346" s="14"/>
-      <c r="F346" s="14"/>
+      <c r="E346" s="16"/>
+      <c r="F346" s="16"/>
       <c r="G346" s="13"/>
       <c r="H346" s="13"/>
     </row>
     <row r="347">
       <c r="A347" s="13"/>
-      <c r="E347" s="14"/>
-      <c r="F347" s="14"/>
+      <c r="E347" s="16"/>
+      <c r="F347" s="16"/>
       <c r="G347" s="13"/>
       <c r="H347" s="13"/>
     </row>
     <row r="348">
       <c r="A348" s="13"/>
-      <c r="E348" s="14"/>
-      <c r="F348" s="14"/>
+      <c r="E348" s="16"/>
+      <c r="F348" s="16"/>
       <c r="G348" s="13"/>
       <c r="H348" s="13"/>
     </row>
     <row r="349">
       <c r="A349" s="13"/>
-      <c r="E349" s="14"/>
-      <c r="F349" s="14"/>
+      <c r="E349" s="16"/>
+      <c r="F349" s="16"/>
       <c r="G349" s="13"/>
       <c r="H349" s="13"/>
     </row>
     <row r="350">
       <c r="A350" s="13"/>
-      <c r="E350" s="14"/>
-      <c r="F350" s="14"/>
+      <c r="E350" s="16"/>
+      <c r="F350" s="16"/>
       <c r="G350" s="13"/>
       <c r="H350" s="13"/>
     </row>
     <row r="351">
       <c r="A351" s="13"/>
-      <c r="E351" s="14"/>
-      <c r="F351" s="14"/>
+      <c r="E351" s="16"/>
+      <c r="F351" s="16"/>
       <c r="G351" s="13"/>
       <c r="H351" s="13"/>
     </row>
     <row r="352">
       <c r="A352" s="13"/>
-      <c r="E352" s="14"/>
-      <c r="F352" s="14"/>
+      <c r="E352" s="16"/>
+      <c r="F352" s="16"/>
       <c r="G352" s="13"/>
       <c r="H352" s="13"/>
     </row>
     <row r="353">
       <c r="A353" s="13"/>
-      <c r="E353" s="14"/>
-      <c r="F353" s="14"/>
+      <c r="E353" s="16"/>
+      <c r="F353" s="16"/>
       <c r="G353" s="13"/>
       <c r="H353" s="13"/>
     </row>
     <row r="354">
       <c r="A354" s="13"/>
-      <c r="E354" s="14"/>
-      <c r="F354" s="14"/>
+      <c r="E354" s="16"/>
+      <c r="F354" s="16"/>
       <c r="G354" s="13"/>
       <c r="H354" s="13"/>
     </row>
     <row r="355">
       <c r="A355" s="13"/>
-      <c r="E355" s="14"/>
-      <c r="F355" s="14"/>
+      <c r="E355" s="16"/>
+      <c r="F355" s="16"/>
       <c r="G355" s="13"/>
       <c r="H355" s="13"/>
     </row>
     <row r="356">
       <c r="A356" s="13"/>
-      <c r="E356" s="14"/>
-      <c r="F356" s="14"/>
+      <c r="E356" s="16"/>
+      <c r="F356" s="16"/>
       <c r="G356" s="13"/>
       <c r="H356" s="13"/>
     </row>
     <row r="357">
       <c r="A357" s="13"/>
-      <c r="E357" s="14"/>
-      <c r="F357" s="14"/>
+      <c r="E357" s="16"/>
+      <c r="F357" s="16"/>
       <c r="G357" s="13"/>
       <c r="H357" s="13"/>
     </row>
     <row r="358">
       <c r="A358" s="13"/>
-      <c r="E358" s="14"/>
-      <c r="F358" s="14"/>
+      <c r="E358" s="16"/>
+      <c r="F358" s="16"/>
       <c r="G358" s="13"/>
       <c r="H358" s="13"/>
     </row>
     <row r="359">
       <c r="A359" s="13"/>
-      <c r="E359" s="14"/>
-      <c r="F359" s="14"/>
+      <c r="E359" s="16"/>
+      <c r="F359" s="16"/>
       <c r="G359" s="13"/>
       <c r="H359" s="13"/>
     </row>
     <row r="360">
       <c r="A360" s="13"/>
-      <c r="E360" s="14"/>
-      <c r="F360" s="14"/>
+      <c r="E360" s="16"/>
+      <c r="F360" s="16"/>
       <c r="G360" s="13"/>
       <c r="H360" s="13"/>
     </row>
     <row r="361">
       <c r="A361" s="13"/>
-      <c r="E361" s="14"/>
-      <c r="F361" s="14"/>
+      <c r="E361" s="16"/>
+      <c r="F361" s="16"/>
       <c r="G361" s="13"/>
       <c r="H361" s="13"/>
     </row>
     <row r="362">
       <c r="A362" s="13"/>
-      <c r="E362" s="14"/>
-      <c r="F362" s="14"/>
+      <c r="E362" s="16"/>
+      <c r="F362" s="16"/>
       <c r="G362" s="13"/>
       <c r="H362" s="13"/>
     </row>
     <row r="363">
       <c r="A363" s="13"/>
-      <c r="E363" s="14"/>
-      <c r="F363" s="14"/>
+      <c r="E363" s="16"/>
+      <c r="F363" s="16"/>
       <c r="G363" s="13"/>
       <c r="H363" s="13"/>
     </row>
     <row r="364">
       <c r="A364" s="13"/>
-      <c r="E364" s="14"/>
-      <c r="F364" s="14"/>
+      <c r="E364" s="16"/>
+      <c r="F364" s="16"/>
       <c r="G364" s="13"/>
       <c r="H364" s="13"/>
     </row>
     <row r="365">
       <c r="A365" s="13"/>
-      <c r="E365" s="14"/>
-      <c r="F365" s="14"/>
+      <c r="E365" s="16"/>
+      <c r="F365" s="16"/>
       <c r="G365" s="13"/>
       <c r="H365" s="13"/>
     </row>
     <row r="366">
       <c r="A366" s="13"/>
-      <c r="E366" s="14"/>
-      <c r="F366" s="14"/>
+      <c r="E366" s="16"/>
+      <c r="F366" s="16"/>
       <c r="G366" s="13"/>
       <c r="H366" s="13"/>
     </row>
     <row r="367">
       <c r="A367" s="13"/>
-      <c r="E367" s="14"/>
-      <c r="F367" s="14"/>
+      <c r="E367" s="16"/>
+      <c r="F367" s="16"/>
       <c r="G367" s="13"/>
       <c r="H367" s="13"/>
     </row>
     <row r="368">
       <c r="A368" s="13"/>
-      <c r="E368" s="14"/>
-      <c r="F368" s="14"/>
+      <c r="E368" s="16"/>
+      <c r="F368" s="16"/>
       <c r="G368" s="13"/>
       <c r="H368" s="13"/>
     </row>
     <row r="369">
       <c r="A369" s="13"/>
-      <c r="E369" s="14"/>
-      <c r="F369" s="14"/>
+      <c r="E369" s="16"/>
+      <c r="F369" s="16"/>
       <c r="G369" s="13"/>
       <c r="H369" s="13"/>
     </row>
     <row r="370">
       <c r="A370" s="13"/>
-      <c r="E370" s="14"/>
-      <c r="F370" s="14"/>
+      <c r="E370" s="16"/>
+      <c r="F370" s="16"/>
       <c r="G370" s="13"/>
       <c r="H370" s="13"/>
     </row>
     <row r="371">
       <c r="A371" s="13"/>
-      <c r="E371" s="14"/>
-      <c r="F371" s="14"/>
+      <c r="E371" s="16"/>
+      <c r="F371" s="16"/>
       <c r="G371" s="13"/>
       <c r="H371" s="13"/>
     </row>
     <row r="372">
       <c r="A372" s="13"/>
-      <c r="E372" s="14"/>
-      <c r="F372" s="14"/>
+      <c r="E372" s="16"/>
+      <c r="F372" s="16"/>
       <c r="G372" s="13"/>
       <c r="H372" s="13"/>
     </row>
     <row r="373">
       <c r="A373" s="13"/>
-      <c r="E373" s="14"/>
-      <c r="F373" s="14"/>
+      <c r="E373" s="16"/>
+      <c r="F373" s="16"/>
       <c r="G373" s="13"/>
       <c r="H373" s="13"/>
     </row>
     <row r="374">
       <c r="A374" s="13"/>
-      <c r="E374" s="14"/>
-      <c r="F374" s="14"/>
+      <c r="E374" s="16"/>
+      <c r="F374" s="16"/>
       <c r="G374" s="13"/>
       <c r="H374" s="13"/>
     </row>
     <row r="375">
       <c r="A375" s="13"/>
-      <c r="E375" s="14"/>
-      <c r="F375" s="14"/>
+      <c r="E375" s="16"/>
+      <c r="F375" s="16"/>
       <c r="G375" s="13"/>
       <c r="H375" s="13"/>
     </row>
     <row r="376">
       <c r="A376" s="13"/>
-      <c r="E376" s="14"/>
-      <c r="F376" s="14"/>
+      <c r="E376" s="16"/>
+      <c r="F376" s="16"/>
       <c r="G376" s="13"/>
       <c r="H376" s="13"/>
     </row>
     <row r="377">
       <c r="A377" s="13"/>
-      <c r="E377" s="14"/>
-      <c r="F377" s="14"/>
+      <c r="E377" s="16"/>
+      <c r="F377" s="16"/>
       <c r="G377" s="13"/>
       <c r="H377" s="13"/>
     </row>
     <row r="378">
       <c r="A378" s="13"/>
-      <c r="E378" s="14"/>
-      <c r="F378" s="14"/>
+      <c r="E378" s="16"/>
+      <c r="F378" s="16"/>
       <c r="G378" s="13"/>
       <c r="H378" s="13"/>
     </row>
     <row r="379">
       <c r="A379" s="13"/>
-      <c r="E379" s="14"/>
-      <c r="F379" s="14"/>
+      <c r="E379" s="16"/>
+      <c r="F379" s="16"/>
       <c r="G379" s="13"/>
       <c r="H379" s="13"/>
     </row>
     <row r="380">
       <c r="A380" s="13"/>
-      <c r="E380" s="14"/>
-      <c r="F380" s="14"/>
+      <c r="E380" s="16"/>
+      <c r="F380" s="16"/>
       <c r="G380" s="13"/>
       <c r="H380" s="13"/>
     </row>
     <row r="381">
       <c r="A381" s="13"/>
-      <c r="E381" s="14"/>
-      <c r="F381" s="14"/>
+      <c r="E381" s="16"/>
+      <c r="F381" s="16"/>
       <c r="G381" s="13"/>
       <c r="H381" s="13"/>
     </row>
     <row r="382">
       <c r="A382" s="13"/>
-      <c r="E382" s="14"/>
-      <c r="F382" s="14"/>
+      <c r="E382" s="16"/>
+      <c r="F382" s="16"/>
       <c r="G382" s="13"/>
       <c r="H382" s="13"/>
     </row>
     <row r="383">
       <c r="A383" s="13"/>
-      <c r="E383" s="14"/>
-      <c r="F383" s="14"/>
+      <c r="E383" s="16"/>
+      <c r="F383" s="16"/>
       <c r="G383" s="13"/>
       <c r="H383" s="13"/>
     </row>
     <row r="384">
       <c r="A384" s="13"/>
-      <c r="E384" s="14"/>
-      <c r="F384" s="14"/>
+      <c r="E384" s="16"/>
+      <c r="F384" s="16"/>
       <c r="G384" s="13"/>
       <c r="H384" s="13"/>
     </row>
     <row r="385">
       <c r="A385" s="13"/>
-      <c r="E385" s="14"/>
-      <c r="F385" s="14"/>
+      <c r="E385" s="16"/>
+      <c r="F385" s="16"/>
       <c r="G385" s="13"/>
       <c r="H385" s="13"/>
     </row>
     <row r="386">
       <c r="A386" s="13"/>
-      <c r="E386" s="14"/>
-      <c r="F386" s="14"/>
+      <c r="E386" s="16"/>
+      <c r="F386" s="16"/>
       <c r="G386" s="13"/>
       <c r="H386" s="13"/>
     </row>
     <row r="387">
       <c r="A387" s="13"/>
-      <c r="E387" s="14"/>
-      <c r="F387" s="14"/>
+      <c r="E387" s="16"/>
+      <c r="F387" s="16"/>
       <c r="G387" s="13"/>
       <c r="H387" s="13"/>
     </row>
     <row r="388">
       <c r="A388" s="13"/>
-      <c r="E388" s="14"/>
-      <c r="F388" s="14"/>
+      <c r="E388" s="16"/>
+      <c r="F388" s="16"/>
       <c r="G388" s="13"/>
       <c r="H388" s="13"/>
     </row>
     <row r="389">
       <c r="A389" s="13"/>
-      <c r="E389" s="14"/>
-      <c r="F389" s="14"/>
+      <c r="E389" s="16"/>
+      <c r="F389" s="16"/>
       <c r="G389" s="13"/>
       <c r="H389" s="13"/>
     </row>
     <row r="390">
       <c r="A390" s="13"/>
-      <c r="E390" s="14"/>
-      <c r="F390" s="14"/>
+      <c r="E390" s="16"/>
+      <c r="F390" s="16"/>
       <c r="G390" s="13"/>
       <c r="H390" s="13"/>
     </row>
     <row r="391">
       <c r="A391" s="13"/>
-      <c r="E391" s="14"/>
-      <c r="F391" s="14"/>
+      <c r="E391" s="16"/>
+      <c r="F391" s="16"/>
       <c r="G391" s="13"/>
       <c r="H391" s="13"/>
     </row>
     <row r="392">
       <c r="A392" s="13"/>
-      <c r="E392" s="14"/>
-      <c r="F392" s="14"/>
+      <c r="E392" s="16"/>
+      <c r="F392" s="16"/>
       <c r="G392" s="13"/>
       <c r="H392" s="13"/>
     </row>
     <row r="393">
       <c r="A393" s="13"/>
-      <c r="E393" s="14"/>
-      <c r="F393" s="14"/>
+      <c r="E393" s="16"/>
+      <c r="F393" s="16"/>
       <c r="G393" s="13"/>
       <c r="H393" s="13"/>
     </row>
     <row r="394">
       <c r="A394" s="13"/>
-      <c r="E394" s="14"/>
-      <c r="F394" s="14"/>
+      <c r="E394" s="16"/>
+      <c r="F394" s="16"/>
       <c r="G394" s="13"/>
       <c r="H394" s="13"/>
     </row>
     <row r="395">
       <c r="A395" s="13"/>
-      <c r="E395" s="14"/>
-      <c r="F395" s="14"/>
+      <c r="E395" s="16"/>
+      <c r="F395" s="16"/>
       <c r="G395" s="13"/>
       <c r="H395" s="13"/>
     </row>
     <row r="396">
       <c r="A396" s="13"/>
-      <c r="E396" s="14"/>
-      <c r="F396" s="14"/>
+      <c r="E396" s="16"/>
+      <c r="F396" s="16"/>
       <c r="G396" s="13"/>
       <c r="H396" s="13"/>
     </row>
     <row r="397">
       <c r="A397" s="13"/>
-      <c r="E397" s="14"/>
-      <c r="F397" s="14"/>
+      <c r="E397" s="16"/>
+      <c r="F397" s="16"/>
       <c r="G397" s="13"/>
       <c r="H397" s="13"/>
     </row>
     <row r="398">
       <c r="A398" s="13"/>
-      <c r="E398" s="14"/>
-      <c r="F398" s="14"/>
+      <c r="E398" s="16"/>
+      <c r="F398" s="16"/>
       <c r="G398" s="13"/>
       <c r="H398" s="13"/>
     </row>
     <row r="399">
       <c r="A399" s="13"/>
-      <c r="E399" s="14"/>
-      <c r="F399" s="14"/>
+      <c r="E399" s="16"/>
+      <c r="F399" s="16"/>
       <c r="G399" s="13"/>
       <c r="H399" s="13"/>
     </row>
     <row r="400">
       <c r="A400" s="13"/>
-      <c r="E400" s="14"/>
-      <c r="F400" s="14"/>
+      <c r="E400" s="16"/>
+      <c r="F400" s="16"/>
       <c r="G400" s="13"/>
       <c r="H400" s="13"/>
     </row>
     <row r="401">
       <c r="A401" s="13"/>
-      <c r="E401" s="14"/>
-      <c r="F401" s="14"/>
+      <c r="E401" s="16"/>
+      <c r="F401" s="16"/>
       <c r="G401" s="13"/>
       <c r="H401" s="13"/>
     </row>
     <row r="402">
       <c r="A402" s="13"/>
-      <c r="E402" s="14"/>
-      <c r="F402" s="14"/>
+      <c r="E402" s="16"/>
+      <c r="F402" s="16"/>
       <c r="G402" s="13"/>
       <c r="H402" s="13"/>
     </row>
     <row r="403">
       <c r="A403" s="13"/>
-      <c r="E403" s="14"/>
-      <c r="F403" s="14"/>
+      <c r="E403" s="16"/>
+      <c r="F403" s="16"/>
       <c r="G403" s="13"/>
       <c r="H403" s="13"/>
     </row>
     <row r="404">
       <c r="A404" s="13"/>
-      <c r="E404" s="14"/>
-      <c r="F404" s="14"/>
+      <c r="E404" s="16"/>
+      <c r="F404" s="16"/>
       <c r="G404" s="13"/>
       <c r="H404" s="13"/>
     </row>
     <row r="405">
       <c r="A405" s="13"/>
-      <c r="E405" s="14"/>
-      <c r="F405" s="14"/>
+      <c r="E405" s="16"/>
+      <c r="F405" s="16"/>
       <c r="G405" s="13"/>
       <c r="H405" s="13"/>
     </row>
     <row r="406">
       <c r="A406" s="13"/>
-      <c r="E406" s="14"/>
-      <c r="F406" s="14"/>
+      <c r="E406" s="16"/>
+      <c r="F406" s="16"/>
       <c r="G406" s="13"/>
       <c r="H406" s="13"/>
     </row>
     <row r="407">
       <c r="A407" s="13"/>
-      <c r="E407" s="14"/>
-      <c r="F407" s="14"/>
+      <c r="E407" s="16"/>
+      <c r="F407" s="16"/>
       <c r="G407" s="13"/>
       <c r="H407" s="13"/>
     </row>
     <row r="408">
       <c r="A408" s="13"/>
-      <c r="E408" s="14"/>
-      <c r="F408" s="14"/>
+      <c r="E408" s="16"/>
+      <c r="F408" s="16"/>
       <c r="G408" s="13"/>
       <c r="H408" s="13"/>
     </row>
     <row r="409">
       <c r="A409" s="13"/>
-      <c r="E409" s="14"/>
-      <c r="F409" s="14"/>
+      <c r="E409" s="16"/>
+      <c r="F409" s="16"/>
       <c r="G409" s="13"/>
       <c r="H409" s="13"/>
     </row>
     <row r="410">
       <c r="A410" s="13"/>
-      <c r="E410" s="14"/>
-      <c r="F410" s="14"/>
+      <c r="E410" s="16"/>
+      <c r="F410" s="16"/>
       <c r="G410" s="13"/>
       <c r="H410" s="13"/>
     </row>
     <row r="411">
       <c r="A411" s="13"/>
-      <c r="E411" s="14"/>
-      <c r="F411" s="14"/>
+      <c r="E411" s="16"/>
+      <c r="F411" s="16"/>
       <c r="G411" s="13"/>
       <c r="H411" s="13"/>
     </row>
     <row r="412">
       <c r="A412" s="13"/>
-      <c r="E412" s="14"/>
-      <c r="F412" s="14"/>
+      <c r="E412" s="16"/>
+      <c r="F412" s="16"/>
       <c r="G412" s="13"/>
       <c r="H412" s="13"/>
     </row>
     <row r="413">
       <c r="A413" s="13"/>
-      <c r="E413" s="14"/>
-      <c r="F413" s="14"/>
+      <c r="E413" s="16"/>
+      <c r="F413" s="16"/>
       <c r="G413" s="13"/>
       <c r="H413" s="13"/>
     </row>
     <row r="414">
       <c r="A414" s="13"/>
-      <c r="E414" s="14"/>
-      <c r="F414" s="14"/>
+      <c r="E414" s="16"/>
+      <c r="F414" s="16"/>
       <c r="G414" s="13"/>
       <c r="H414" s="13"/>
     </row>
     <row r="415">
       <c r="A415" s="13"/>
-      <c r="E415" s="14"/>
-      <c r="F415" s="14"/>
+      <c r="E415" s="16"/>
+      <c r="F415" s="16"/>
       <c r="G415" s="13"/>
       <c r="H415" s="13"/>
     </row>
     <row r="416">
       <c r="A416" s="13"/>
-      <c r="E416" s="14"/>
-      <c r="F416" s="14"/>
+      <c r="E416" s="16"/>
+      <c r="F416" s="16"/>
       <c r="G416" s="13"/>
       <c r="H416" s="13"/>
     </row>
     <row r="417">
       <c r="A417" s="13"/>
-      <c r="E417" s="14"/>
-      <c r="F417" s="14"/>
+      <c r="E417" s="16"/>
+      <c r="F417" s="16"/>
       <c r="G417" s="13"/>
       <c r="H417" s="13"/>
     </row>
     <row r="418">
       <c r="A418" s="13"/>
-      <c r="E418" s="14"/>
-      <c r="F418" s="14"/>
+      <c r="E418" s="16"/>
+      <c r="F418" s="16"/>
       <c r="G418" s="13"/>
       <c r="H418" s="13"/>
     </row>
     <row r="419">
       <c r="A419" s="13"/>
-      <c r="E419" s="14"/>
-      <c r="F419" s="14"/>
+      <c r="E419" s="16"/>
+      <c r="F419" s="16"/>
       <c r="G419" s="13"/>
       <c r="H419" s="13"/>
     </row>
     <row r="420">
       <c r="A420" s="13"/>
-      <c r="E420" s="14"/>
-      <c r="F420" s="14"/>
+      <c r="E420" s="16"/>
+      <c r="F420" s="16"/>
       <c r="G420" s="13"/>
       <c r="H420" s="13"/>
     </row>
     <row r="421">
       <c r="A421" s="13"/>
-      <c r="E421" s="14"/>
-      <c r="F421" s="14"/>
+      <c r="E421" s="16"/>
+      <c r="F421" s="16"/>
       <c r="G421" s="13"/>
       <c r="H421" s="13"/>
     </row>
     <row r="422">
       <c r="A422" s="13"/>
-      <c r="E422" s="14"/>
-      <c r="F422" s="14"/>
+      <c r="E422" s="16"/>
+      <c r="F422" s="16"/>
       <c r="G422" s="13"/>
       <c r="H422" s="13"/>
     </row>
     <row r="423">
       <c r="A423" s="13"/>
-      <c r="E423" s="14"/>
-      <c r="F423" s="14"/>
+      <c r="E423" s="16"/>
+      <c r="F423" s="16"/>
       <c r="G423" s="13"/>
       <c r="H423" s="13"/>
     </row>
     <row r="424">
       <c r="A424" s="13"/>
-      <c r="E424" s="14"/>
-      <c r="F424" s="14"/>
+      <c r="E424" s="16"/>
+      <c r="F424" s="16"/>
       <c r="G424" s="13"/>
       <c r="H424" s="13"/>
     </row>
     <row r="425">
       <c r="A425" s="13"/>
-      <c r="E425" s="14"/>
-      <c r="F425" s="14"/>
+      <c r="E425" s="16"/>
+      <c r="F425" s="16"/>
       <c r="G425" s="13"/>
       <c r="H425" s="13"/>
     </row>
     <row r="426">
       <c r="A426" s="13"/>
-      <c r="E426" s="14"/>
-      <c r="F426" s="14"/>
+      <c r="E426" s="16"/>
+      <c r="F426" s="16"/>
       <c r="G426" s="13"/>
       <c r="H426" s="13"/>
     </row>
     <row r="427">
       <c r="A427" s="13"/>
-      <c r="E427" s="14"/>
-      <c r="F427" s="14"/>
+      <c r="E427" s="16"/>
+      <c r="F427" s="16"/>
       <c r="G427" s="13"/>
       <c r="H427" s="13"/>
     </row>
     <row r="428">
       <c r="A428" s="13"/>
-      <c r="E428" s="14"/>
-      <c r="F428" s="14"/>
+      <c r="E428" s="16"/>
+      <c r="F428" s="16"/>
       <c r="G428" s="13"/>
       <c r="H428" s="13"/>
     </row>
     <row r="429">
       <c r="A429" s="13"/>
-      <c r="E429" s="14"/>
-      <c r="F429" s="14"/>
+      <c r="E429" s="16"/>
+      <c r="F429" s="16"/>
       <c r="G429" s="13"/>
       <c r="H429" s="13"/>
     </row>
     <row r="430">
       <c r="A430" s="13"/>
-      <c r="E430" s="14"/>
-      <c r="F430" s="14"/>
+      <c r="E430" s="16"/>
+      <c r="F430" s="16"/>
       <c r="G430" s="13"/>
       <c r="H430" s="13"/>
     </row>
     <row r="431">
       <c r="A431" s="13"/>
-      <c r="E431" s="14"/>
-      <c r="F431" s="14"/>
+      <c r="E431" s="16"/>
+      <c r="F431" s="16"/>
       <c r="G431" s="13"/>
       <c r="H431" s="13"/>
     </row>
     <row r="432">
       <c r="A432" s="13"/>
-      <c r="E432" s="14"/>
-      <c r="F432" s="14"/>
+      <c r="E432" s="16"/>
+      <c r="F432" s="16"/>
       <c r="G432" s="13"/>
       <c r="H432" s="13"/>
     </row>
     <row r="433">
       <c r="A433" s="13"/>
-      <c r="E433" s="14"/>
-      <c r="F433" s="14"/>
+      <c r="E433" s="16"/>
+      <c r="F433" s="16"/>
       <c r="G433" s="13"/>
       <c r="H433" s="13"/>
     </row>
     <row r="434">
       <c r="A434" s="13"/>
-      <c r="E434" s="14"/>
-      <c r="F434" s="14"/>
+      <c r="E434" s="16"/>
+      <c r="F434" s="16"/>
       <c r="G434" s="13"/>
       <c r="H434" s="13"/>
     </row>
     <row r="435">
       <c r="A435" s="13"/>
-      <c r="E435" s="14"/>
-      <c r="F435" s="14"/>
+      <c r="E435" s="16"/>
+      <c r="F435" s="16"/>
       <c r="G435" s="13"/>
       <c r="H435" s="13"/>
     </row>
     <row r="436">
       <c r="A436" s="13"/>
-      <c r="E436" s="14"/>
-      <c r="F436" s="14"/>
+      <c r="E436" s="16"/>
+      <c r="F436" s="16"/>
       <c r="G436" s="13"/>
       <c r="H436" s="13"/>
     </row>
     <row r="437">
       <c r="A437" s="13"/>
-      <c r="E437" s="14"/>
-      <c r="F437" s="14"/>
+      <c r="E437" s="16"/>
+      <c r="F437" s="16"/>
       <c r="G437" s="13"/>
       <c r="H437" s="13"/>
     </row>
     <row r="438">
       <c r="A438" s="13"/>
-      <c r="E438" s="14"/>
-      <c r="F438" s="14"/>
+      <c r="E438" s="16"/>
+      <c r="F438" s="16"/>
       <c r="G438" s="13"/>
       <c r="H438" s="13"/>
     </row>
     <row r="439">
       <c r="A439" s="13"/>
-      <c r="E439" s="14"/>
-      <c r="F439" s="14"/>
+      <c r="E439" s="16"/>
+      <c r="F439" s="16"/>
       <c r="G439" s="13"/>
       <c r="H439" s="13"/>
     </row>
     <row r="440">
       <c r="A440" s="13"/>
-      <c r="E440" s="14"/>
-      <c r="F440" s="14"/>
+      <c r="E440" s="16"/>
+      <c r="F440" s="16"/>
       <c r="G440" s="13"/>
       <c r="H440" s="13"/>
     </row>
     <row r="441">
       <c r="A441" s="13"/>
-      <c r="E441" s="14"/>
-      <c r="F441" s="14"/>
+      <c r="E441" s="16"/>
+      <c r="F441" s="16"/>
       <c r="G441" s="13"/>
       <c r="H441" s="13"/>
     </row>
     <row r="442">
       <c r="A442" s="13"/>
-      <c r="E442" s="14"/>
-      <c r="F442" s="14"/>
+      <c r="E442" s="16"/>
+      <c r="F442" s="16"/>
       <c r="G442" s="13"/>
       <c r="H442" s="13"/>
     </row>
     <row r="443">
       <c r="A443" s="13"/>
-      <c r="E443" s="14"/>
-      <c r="F443" s="14"/>
+      <c r="E443" s="16"/>
+      <c r="F443" s="16"/>
       <c r="G443" s="13"/>
       <c r="H443" s="13"/>
     </row>
     <row r="444">
       <c r="A444" s="13"/>
-      <c r="E444" s="14"/>
-      <c r="F444" s="14"/>
+      <c r="E444" s="16"/>
+      <c r="F444" s="16"/>
       <c r="G444" s="13"/>
       <c r="H444" s="13"/>
     </row>
     <row r="445">
       <c r="A445" s="13"/>
-      <c r="E445" s="14"/>
-      <c r="F445" s="14"/>
+      <c r="E445" s="16"/>
+      <c r="F445" s="16"/>
       <c r="G445" s="13"/>
       <c r="H445" s="13"/>
     </row>
     <row r="446">
       <c r="A446" s="13"/>
-      <c r="E446" s="14"/>
-      <c r="F446" s="14"/>
+      <c r="E446" s="16"/>
+      <c r="F446" s="16"/>
       <c r="G446" s="13"/>
       <c r="H446" s="13"/>
     </row>
     <row r="447">
       <c r="A447" s="13"/>
-      <c r="E447" s="14"/>
-      <c r="F447" s="14"/>
+      <c r="E447" s="16"/>
+      <c r="F447" s="16"/>
       <c r="G447" s="13"/>
       <c r="H447" s="13"/>
     </row>
     <row r="448">
       <c r="A448" s="13"/>
-      <c r="E448" s="14"/>
-      <c r="F448" s="14"/>
+      <c r="E448" s="16"/>
+      <c r="F448" s="16"/>
       <c r="G448" s="13"/>
       <c r="H448" s="13"/>
     </row>
     <row r="449">
       <c r="A449" s="13"/>
-      <c r="E449" s="14"/>
-      <c r="F449" s="14"/>
+      <c r="E449" s="16"/>
+      <c r="F449" s="16"/>
       <c r="G449" s="13"/>
       <c r="H449" s="13"/>
     </row>
     <row r="450">
       <c r="A450" s="13"/>
-      <c r="E450" s="14"/>
-      <c r="F450" s="14"/>
+      <c r="E450" s="16"/>
+      <c r="F450" s="16"/>
       <c r="G450" s="13"/>
       <c r="H450" s="13"/>
     </row>
     <row r="451">
       <c r="A451" s="13"/>
-      <c r="E451" s="14"/>
-      <c r="F451" s="14"/>
+      <c r="E451" s="16"/>
+      <c r="F451" s="16"/>
       <c r="G451" s="13"/>
       <c r="H451" s="13"/>
     </row>
     <row r="452">
       <c r="A452" s="13"/>
-      <c r="E452" s="14"/>
-      <c r="F452" s="14"/>
+      <c r="E452" s="16"/>
+      <c r="F452" s="16"/>
       <c r="G452" s="13"/>
       <c r="H452" s="13"/>
     </row>
     <row r="453">
       <c r="A453" s="13"/>
-      <c r="E453" s="14"/>
-      <c r="F453" s="14"/>
+      <c r="E453" s="16"/>
+      <c r="F453" s="16"/>
       <c r="G453" s="13"/>
       <c r="H453" s="13"/>
     </row>
     <row r="454">
       <c r="A454" s="13"/>
-      <c r="E454" s="14"/>
-      <c r="F454" s="14"/>
+      <c r="E454" s="16"/>
+      <c r="F454" s="16"/>
       <c r="G454" s="13"/>
       <c r="H454" s="13"/>
     </row>
     <row r="455">
       <c r="A455" s="13"/>
-      <c r="E455" s="14"/>
-      <c r="F455" s="14"/>
+      <c r="E455" s="16"/>
+      <c r="F455" s="16"/>
       <c r="G455" s="13"/>
       <c r="H455" s="13"/>
     </row>
     <row r="456">
       <c r="A456" s="13"/>
-      <c r="E456" s="14"/>
-      <c r="F456" s="14"/>
+      <c r="E456" s="16"/>
+      <c r="F456" s="16"/>
       <c r="G456" s="13"/>
       <c r="H456" s="13"/>
     </row>
     <row r="457">
       <c r="A457" s="13"/>
-      <c r="E457" s="14"/>
-      <c r="F457" s="14"/>
+      <c r="E457" s="16"/>
+      <c r="F457" s="16"/>
       <c r="G457" s="13"/>
       <c r="H457" s="13"/>
     </row>
     <row r="458">
       <c r="A458" s="13"/>
-      <c r="E458" s="14"/>
-      <c r="F458" s="14"/>
+      <c r="E458" s="16"/>
+      <c r="F458" s="16"/>
       <c r="G458" s="13"/>
       <c r="H458" s="13"/>
     </row>
     <row r="459">
       <c r="A459" s="13"/>
-      <c r="E459" s="14"/>
-      <c r="F459" s="14"/>
+      <c r="E459" s="16"/>
+      <c r="F459" s="16"/>
       <c r="G459" s="13"/>
       <c r="H459" s="13"/>
     </row>
     <row r="460">
       <c r="A460" s="13"/>
-      <c r="E460" s="14"/>
-      <c r="F460" s="14"/>
+      <c r="E460" s="16"/>
+      <c r="F460" s="16"/>
       <c r="G460" s="13"/>
       <c r="H460" s="13"/>
     </row>
     <row r="461">
       <c r="A461" s="13"/>
-      <c r="E461" s="14"/>
-      <c r="F461" s="14"/>
+      <c r="E461" s="16"/>
+      <c r="F461" s="16"/>
       <c r="G461" s="13"/>
       <c r="H461" s="13"/>
     </row>
     <row r="462">
       <c r="A462" s="13"/>
-      <c r="E462" s="14"/>
-      <c r="F462" s="14"/>
+      <c r="E462" s="16"/>
+      <c r="F462" s="16"/>
       <c r="G462" s="13"/>
       <c r="H462" s="13"/>
     </row>
     <row r="463">
       <c r="A463" s="13"/>
-      <c r="E463" s="14"/>
-      <c r="F463" s="14"/>
+      <c r="E463" s="16"/>
+      <c r="F463" s="16"/>
       <c r="G463" s="13"/>
       <c r="H463" s="13"/>
     </row>
     <row r="464">
       <c r="A464" s="13"/>
-      <c r="E464" s="14"/>
-      <c r="F464" s="14"/>
+      <c r="E464" s="16"/>
+      <c r="F464" s="16"/>
       <c r="G464" s="13"/>
       <c r="H464" s="13"/>
     </row>
     <row r="465">
       <c r="A465" s="13"/>
-      <c r="E465" s="14"/>
-      <c r="F465" s="14"/>
+      <c r="E465" s="16"/>
+      <c r="F465" s="16"/>
       <c r="G465" s="13"/>
       <c r="H465" s="13"/>
     </row>
     <row r="466">
       <c r="A466" s="13"/>
-      <c r="E466" s="14"/>
-      <c r="F466" s="14"/>
+      <c r="E466" s="16"/>
+      <c r="F466" s="16"/>
       <c r="G466" s="13"/>
       <c r="H466" s="13"/>
     </row>
     <row r="467">
       <c r="A467" s="13"/>
-      <c r="E467" s="14"/>
-      <c r="F467" s="14"/>
+      <c r="E467" s="16"/>
+      <c r="F467" s="16"/>
       <c r="G467" s="13"/>
       <c r="H467" s="13"/>
     </row>
     <row r="468">
       <c r="A468" s="13"/>
-      <c r="E468" s="14"/>
-      <c r="F468" s="14"/>
+      <c r="E468" s="16"/>
+      <c r="F468" s="16"/>
       <c r="G468" s="13"/>
       <c r="H468" s="13"/>
     </row>
     <row r="469">
       <c r="A469" s="13"/>
-      <c r="E469" s="14"/>
-      <c r="F469" s="14"/>
+      <c r="E469" s="16"/>
+      <c r="F469" s="16"/>
       <c r="G469" s="13"/>
       <c r="H469" s="13"/>
     </row>
     <row r="470">
       <c r="A470" s="13"/>
-      <c r="E470" s="14"/>
-      <c r="F470" s="14"/>
+      <c r="E470" s="16"/>
+      <c r="F470" s="16"/>
       <c r="G470" s="13"/>
       <c r="H470" s="13"/>
     </row>
     <row r="471">
       <c r="A471" s="13"/>
-      <c r="E471" s="14"/>
-      <c r="F471" s="14"/>
+      <c r="E471" s="16"/>
+      <c r="F471" s="16"/>
       <c r="G471" s="13"/>
       <c r="H471" s="13"/>
     </row>
     <row r="472">
       <c r="A472" s="13"/>
-      <c r="E472" s="14"/>
-      <c r="F472" s="14"/>
+      <c r="E472" s="16"/>
+      <c r="F472" s="16"/>
       <c r="G472" s="13"/>
       <c r="H472" s="13"/>
     </row>
     <row r="473">
       <c r="A473" s="13"/>
-      <c r="E473" s="14"/>
-      <c r="F473" s="14"/>
+      <c r="E473" s="16"/>
+      <c r="F473" s="16"/>
       <c r="G473" s="13"/>
       <c r="H473" s="13"/>
     </row>
     <row r="474">
       <c r="A474" s="13"/>
-      <c r="E474" s="14"/>
-      <c r="F474" s="14"/>
+      <c r="E474" s="16"/>
+      <c r="F474" s="16"/>
       <c r="G474" s="13"/>
       <c r="H474" s="13"/>
     </row>
     <row r="475">
       <c r="A475" s="13"/>
-      <c r="E475" s="14"/>
-      <c r="F475" s="14"/>
+      <c r="E475" s="16"/>
+      <c r="F475" s="16"/>
       <c r="G475" s="13"/>
       <c r="H475" s="13"/>
     </row>
     <row r="476">
       <c r="A476" s="13"/>
-      <c r="E476" s="14"/>
-      <c r="F476" s="14"/>
+      <c r="E476" s="16"/>
+      <c r="F476" s="16"/>
       <c r="G476" s="13"/>
       <c r="H476" s="13"/>
     </row>
     <row r="477">
       <c r="A477" s="13"/>
-      <c r="E477" s="14"/>
-      <c r="F477" s="14"/>
+      <c r="E477" s="16"/>
+      <c r="F477" s="16"/>
       <c r="G477" s="13"/>
       <c r="H477" s="13"/>
     </row>
     <row r="478">
       <c r="A478" s="13"/>
-      <c r="E478" s="14"/>
-      <c r="F478" s="14"/>
+      <c r="E478" s="16"/>
+      <c r="F478" s="16"/>
       <c r="G478" s="13"/>
       <c r="H478" s="13"/>
     </row>
     <row r="479">
       <c r="A479" s="13"/>
-      <c r="E479" s="14"/>
-      <c r="F479" s="14"/>
+      <c r="E479" s="16"/>
+      <c r="F479" s="16"/>
       <c r="G479" s="13"/>
       <c r="H479" s="13"/>
     </row>
     <row r="480">
       <c r="A480" s="13"/>
-      <c r="E480" s="14"/>
-      <c r="F480" s="14"/>
+      <c r="E480" s="16"/>
+      <c r="F480" s="16"/>
       <c r="G480" s="13"/>
       <c r="H480" s="13"/>
     </row>
     <row r="481">
       <c r="A481" s="13"/>
-      <c r="E481" s="14"/>
-      <c r="F481" s="14"/>
+      <c r="E481" s="16"/>
+      <c r="F481" s="16"/>
       <c r="G481" s="13"/>
       <c r="H481" s="13"/>
     </row>
     <row r="482">
       <c r="A482" s="13"/>
-      <c r="E482" s="14"/>
-      <c r="F482" s="14"/>
+      <c r="E482" s="16"/>
+      <c r="F482" s="16"/>
       <c r="G482" s="13"/>
       <c r="H482" s="13"/>
     </row>
     <row r="483">
       <c r="A483" s="13"/>
-      <c r="E483" s="14"/>
-      <c r="F483" s="14"/>
+      <c r="E483" s="16"/>
+      <c r="F483" s="16"/>
       <c r="G483" s="13"/>
       <c r="H483" s="13"/>
     </row>
     <row r="484">
       <c r="A484" s="13"/>
-      <c r="E484" s="14"/>
-      <c r="F484" s="14"/>
+      <c r="E484" s="16"/>
+      <c r="F484" s="16"/>
       <c r="G484" s="13"/>
       <c r="H484" s="13"/>
     </row>
     <row r="485">
       <c r="A485" s="13"/>
-      <c r="E485" s="14"/>
-      <c r="F485" s="14"/>
+      <c r="E485" s="16"/>
+      <c r="F485" s="16"/>
       <c r="G485" s="13"/>
       <c r="H485" s="13"/>
     </row>
     <row r="486">
       <c r="A486" s="13"/>
-      <c r="E486" s="14"/>
-      <c r="F486" s="14"/>
+      <c r="E486" s="16"/>
+      <c r="F486" s="16"/>
       <c r="G486" s="13"/>
       <c r="H486" s="13"/>
     </row>
     <row r="487">
       <c r="A487" s="13"/>
-      <c r="E487" s="14"/>
-      <c r="F487" s="14"/>
+      <c r="E487" s="16"/>
+      <c r="F487" s="16"/>
       <c r="G487" s="13"/>
       <c r="H487" s="13"/>
     </row>
     <row r="488">
       <c r="A488" s="13"/>
-      <c r="E488" s="14"/>
-      <c r="F488" s="14"/>
+      <c r="E488" s="16"/>
+      <c r="F488" s="16"/>
       <c r="G488" s="13"/>
       <c r="H488" s="13"/>
     </row>
     <row r="489">
       <c r="A489" s="13"/>
-      <c r="E489" s="14"/>
-      <c r="F489" s="14"/>
+      <c r="E489" s="16"/>
+      <c r="F489" s="16"/>
       <c r="G489" s="13"/>
       <c r="H489" s="13"/>
     </row>
     <row r="490">
       <c r="A490" s="13"/>
-      <c r="E490" s="14"/>
-      <c r="F490" s="14"/>
+      <c r="E490" s="16"/>
+      <c r="F490" s="16"/>
       <c r="G490" s="13"/>
       <c r="H490" s="13"/>
     </row>
     <row r="491">
       <c r="A491" s="13"/>
-      <c r="E491" s="14"/>
-      <c r="F491" s="14"/>
+      <c r="E491" s="16"/>
+      <c r="F491" s="16"/>
       <c r="G491" s="13"/>
       <c r="H491" s="13"/>
     </row>
     <row r="492">
       <c r="A492" s="13"/>
-      <c r="E492" s="14"/>
-      <c r="F492" s="14"/>
+      <c r="E492" s="16"/>
+      <c r="F492" s="16"/>
       <c r="G492" s="13"/>
       <c r="H492" s="13"/>
     </row>
     <row r="493">
       <c r="A493" s="13"/>
-      <c r="E493" s="14"/>
-      <c r="F493" s="14"/>
+      <c r="E493" s="16"/>
+      <c r="F493" s="16"/>
       <c r="G493" s="13"/>
       <c r="H493" s="13"/>
     </row>
     <row r="494">
       <c r="A494" s="13"/>
-      <c r="E494" s="14"/>
-      <c r="F494" s="14"/>
+      <c r="E494" s="16"/>
+      <c r="F494" s="16"/>
       <c r="G494" s="13"/>
       <c r="H494" s="13"/>
     </row>
     <row r="495">
       <c r="A495" s="13"/>
-      <c r="E495" s="14"/>
-      <c r="F495" s="14"/>
+      <c r="E495" s="16"/>
+      <c r="F495" s="16"/>
       <c r="G495" s="13"/>
       <c r="H495" s="13"/>
     </row>
     <row r="496">
       <c r="A496" s="13"/>
-      <c r="E496" s="14"/>
-      <c r="F496" s="14"/>
+      <c r="E496" s="16"/>
+      <c r="F496" s="16"/>
       <c r="G496" s="13"/>
       <c r="H496" s="13"/>
     </row>
     <row r="497">
       <c r="A497" s="13"/>
-      <c r="E497" s="14"/>
-      <c r="F497" s="14"/>
+      <c r="E497" s="16"/>
+      <c r="F497" s="16"/>
       <c r="G497" s="13"/>
       <c r="H497" s="13"/>
     </row>
     <row r="498">
       <c r="A498" s="13"/>
-      <c r="E498" s="14"/>
-      <c r="F498" s="14"/>
+      <c r="E498" s="16"/>
+      <c r="F498" s="16"/>
       <c r="G498" s="13"/>
       <c r="H498" s="13"/>
     </row>
     <row r="499">
       <c r="A499" s="13"/>
-      <c r="E499" s="14"/>
-      <c r="F499" s="14"/>
+      <c r="E499" s="16"/>
+      <c r="F499" s="16"/>
       <c r="G499" s="13"/>
       <c r="H499" s="13"/>
     </row>
     <row r="500">
       <c r="A500" s="13"/>
-      <c r="E500" s="14"/>
-      <c r="F500" s="14"/>
+      <c r="E500" s="16"/>
+      <c r="F500" s="16"/>
       <c r="G500" s="13"/>
       <c r="H500" s="13"/>
     </row>
     <row r="501">
       <c r="A501" s="13"/>
-      <c r="E501" s="14"/>
-      <c r="F501" s="14"/>
+      <c r="E501" s="16"/>
+      <c r="F501" s="16"/>
       <c r="G501" s="13"/>
       <c r="H501" s="13"/>
     </row>
     <row r="502">
       <c r="A502" s="13"/>
-      <c r="E502" s="14"/>
-      <c r="F502" s="14"/>
+      <c r="E502" s="16"/>
+      <c r="F502" s="16"/>
       <c r="G502" s="13"/>
       <c r="H502" s="13"/>
     </row>
     <row r="503">
       <c r="A503" s="13"/>
-      <c r="E503" s="14"/>
-      <c r="F503" s="14"/>
+      <c r="E503" s="16"/>
+      <c r="F503" s="16"/>
       <c r="G503" s="13"/>
       <c r="H503" s="13"/>
     </row>
     <row r="504">
       <c r="A504" s="13"/>
-      <c r="E504" s="14"/>
-      <c r="F504" s="14"/>
+      <c r="E504" s="16"/>
+      <c r="F504" s="16"/>
       <c r="G504" s="13"/>
       <c r="H504" s="13"/>
     </row>
     <row r="505">
       <c r="A505" s="13"/>
-      <c r="E505" s="14"/>
-      <c r="F505" s="14"/>
+      <c r="E505" s="16"/>
+      <c r="F505" s="16"/>
       <c r="G505" s="13"/>
       <c r="H505" s="13"/>
     </row>
     <row r="506">
       <c r="A506" s="13"/>
-      <c r="E506" s="14"/>
-      <c r="F506" s="14"/>
+      <c r="E506" s="16"/>
+      <c r="F506" s="16"/>
       <c r="G506" s="13"/>
       <c r="H506" s="13"/>
     </row>
     <row r="507">
       <c r="A507" s="13"/>
-      <c r="E507" s="14"/>
-      <c r="F507" s="14"/>
+      <c r="E507" s="16"/>
+      <c r="F507" s="16"/>
       <c r="G507" s="13"/>
       <c r="H507" s="13"/>
     </row>
     <row r="508">
       <c r="A508" s="13"/>
-      <c r="E508" s="14"/>
-      <c r="F508" s="14"/>
+      <c r="E508" s="16"/>
+      <c r="F508" s="16"/>
       <c r="G508" s="13"/>
       <c r="H508" s="13"/>
     </row>
     <row r="509">
       <c r="A509" s="13"/>
-      <c r="E509" s="14"/>
-      <c r="F509" s="14"/>
+      <c r="E509" s="16"/>
+      <c r="F509" s="16"/>
       <c r="G509" s="13"/>
       <c r="H509" s="13"/>
     </row>
     <row r="510">
       <c r="A510" s="13"/>
-      <c r="E510" s="14"/>
-      <c r="F510" s="14"/>
+      <c r="E510" s="16"/>
+      <c r="F510" s="16"/>
       <c r="G510" s="13"/>
       <c r="H510" s="13"/>
     </row>
     <row r="511">
       <c r="A511" s="13"/>
-      <c r="E511" s="14"/>
-      <c r="F511" s="14"/>
+      <c r="E511" s="16"/>
+      <c r="F511" s="16"/>
       <c r="G511" s="13"/>
       <c r="H511" s="13"/>
     </row>
     <row r="512">
       <c r="A512" s="13"/>
-      <c r="E512" s="14"/>
-      <c r="F512" s="14"/>
+      <c r="E512" s="16"/>
+      <c r="F512" s="16"/>
       <c r="G512" s="13"/>
       <c r="H512" s="13"/>
     </row>
     <row r="513">
       <c r="A513" s="13"/>
-      <c r="E513" s="14"/>
-      <c r="F513" s="14"/>
+      <c r="E513" s="16"/>
+      <c r="F513" s="16"/>
       <c r="G513" s="13"/>
       <c r="H513" s="13"/>
     </row>
     <row r="514">
       <c r="A514" s="13"/>
-      <c r="E514" s="14"/>
-      <c r="F514" s="14"/>
+      <c r="E514" s="16"/>
+      <c r="F514" s="16"/>
       <c r="G514" s="13"/>
       <c r="H514" s="13"/>
     </row>
     <row r="515">
       <c r="A515" s="13"/>
-      <c r="E515" s="14"/>
-      <c r="F515" s="14"/>
+      <c r="E515" s="16"/>
+      <c r="F515" s="16"/>
       <c r="G515" s="13"/>
       <c r="H515" s="13"/>
     </row>
     <row r="516">
       <c r="A516" s="13"/>
-      <c r="E516" s="14"/>
-      <c r="F516" s="14"/>
+      <c r="E516" s="16"/>
+      <c r="F516" s="16"/>
       <c r="G516" s="13"/>
       <c r="H516" s="13"/>
     </row>
     <row r="517">
       <c r="A517" s="13"/>
-      <c r="E517" s="14"/>
-      <c r="F517" s="14"/>
+      <c r="E517" s="16"/>
+      <c r="F517" s="16"/>
       <c r="G517" s="13"/>
       <c r="H517" s="13"/>
     </row>
     <row r="518">
       <c r="A518" s="13"/>
-      <c r="E518" s="14"/>
-      <c r="F518" s="14"/>
+      <c r="E518" s="16"/>
+      <c r="F518" s="16"/>
       <c r="G518" s="13"/>
       <c r="H518" s="13"/>
     </row>
     <row r="519">
       <c r="A519" s="13"/>
-      <c r="E519" s="14"/>
-      <c r="F519" s="14"/>
+      <c r="E519" s="16"/>
+      <c r="F519" s="16"/>
       <c r="G519" s="13"/>
       <c r="H519" s="13"/>
     </row>
     <row r="520">
       <c r="A520" s="13"/>
-      <c r="E520" s="14"/>
-      <c r="F520" s="14"/>
+      <c r="E520" s="16"/>
+      <c r="F520" s="16"/>
       <c r="G520" s="13"/>
       <c r="H520" s="13"/>
     </row>
     <row r="521">
       <c r="A521" s="13"/>
-      <c r="E521" s="14"/>
-      <c r="F521" s="14"/>
+      <c r="E521" s="16"/>
+      <c r="F521" s="16"/>
       <c r="G521" s="13"/>
       <c r="H521" s="13"/>
     </row>
     <row r="522">
       <c r="A522" s="13"/>
-      <c r="E522" s="14"/>
-      <c r="F522" s="14"/>
+      <c r="E522" s="16"/>
+      <c r="F522" s="16"/>
       <c r="G522" s="13"/>
       <c r="H522" s="13"/>
     </row>
     <row r="523">
       <c r="A523" s="13"/>
-      <c r="E523" s="14"/>
-      <c r="F523" s="14"/>
+      <c r="E523" s="16"/>
+      <c r="F523" s="16"/>
       <c r="G523" s="13"/>
       <c r="H523" s="13"/>
     </row>
     <row r="524">
       <c r="A524" s="13"/>
-      <c r="E524" s="14"/>
-      <c r="F524" s="14"/>
+      <c r="E524" s="16"/>
+      <c r="F524" s="16"/>
       <c r="G524" s="13"/>
       <c r="H524" s="13"/>
     </row>
     <row r="525">
       <c r="A525" s="13"/>
-      <c r="E525" s="14"/>
-      <c r="F525" s="14"/>
+      <c r="E525" s="16"/>
+      <c r="F525" s="16"/>
       <c r="G525" s="13"/>
       <c r="H525" s="13"/>
     </row>
     <row r="526">
       <c r="A526" s="13"/>
-      <c r="E526" s="14"/>
-      <c r="F526" s="14"/>
+      <c r="E526" s="16"/>
+      <c r="F526" s="16"/>
       <c r="G526" s="13"/>
       <c r="H526" s="13"/>
     </row>
     <row r="527">
       <c r="A527" s="13"/>
-      <c r="E527" s="14"/>
-      <c r="F527" s="14"/>
+      <c r="E527" s="16"/>
+      <c r="F527" s="16"/>
       <c r="G527" s="13"/>
       <c r="H527" s="13"/>
     </row>
     <row r="528">
       <c r="A528" s="13"/>
-      <c r="E528" s="14"/>
-      <c r="F528" s="14"/>
+      <c r="E528" s="16"/>
+      <c r="F528" s="16"/>
       <c r="G528" s="13"/>
       <c r="H528" s="13"/>
     </row>
     <row r="529">
       <c r="A529" s="13"/>
-      <c r="E529" s="14"/>
-      <c r="F529" s="14"/>
+      <c r="E529" s="16"/>
+      <c r="F529" s="16"/>
       <c r="G529" s="13"/>
       <c r="H529" s="13"/>
     </row>
     <row r="530">
       <c r="A530" s="13"/>
-      <c r="E530" s="14"/>
-      <c r="F530" s="14"/>
+      <c r="E530" s="16"/>
+      <c r="F530" s="16"/>
       <c r="G530" s="13"/>
       <c r="H530" s="13"/>
     </row>
     <row r="531">
       <c r="A531" s="13"/>
-      <c r="E531" s="14"/>
-      <c r="F531" s="14"/>
+      <c r="E531" s="16"/>
+      <c r="F531" s="16"/>
       <c r="G531" s="13"/>
       <c r="H531" s="13"/>
     </row>
     <row r="532">
       <c r="A532" s="13"/>
-      <c r="E532" s="14"/>
-      <c r="F532" s="14"/>
+      <c r="E532" s="16"/>
+      <c r="F532" s="16"/>
       <c r="G532" s="13"/>
       <c r="H532" s="13"/>
     </row>
     <row r="533">
       <c r="A533" s="13"/>
-      <c r="E533" s="14"/>
-      <c r="F533" s="14"/>
+      <c r="E533" s="16"/>
+      <c r="F533" s="16"/>
       <c r="G533" s="13"/>
       <c r="H533" s="13"/>
     </row>
     <row r="534">
       <c r="A534" s="13"/>
-      <c r="E534" s="14"/>
-      <c r="F534" s="14"/>
+      <c r="E534" s="16"/>
+      <c r="F534" s="16"/>
       <c r="G534" s="13"/>
       <c r="H534" s="13"/>
     </row>
     <row r="535">
       <c r="A535" s="13"/>
-      <c r="E535" s="14"/>
-      <c r="F535" s="14"/>
+      <c r="E535" s="16"/>
+      <c r="F535" s="16"/>
       <c r="G535" s="13"/>
       <c r="H535" s="13"/>
     </row>
     <row r="536">
       <c r="A536" s="13"/>
-      <c r="E536" s="14"/>
-      <c r="F536" s="14"/>
+      <c r="E536" s="16"/>
+      <c r="F536" s="16"/>
       <c r="G536" s="13"/>
       <c r="H536" s="13"/>
     </row>
     <row r="537">
       <c r="A537" s="13"/>
-      <c r="E537" s="14"/>
-      <c r="F537" s="14"/>
+      <c r="E537" s="16"/>
+      <c r="F537" s="16"/>
       <c r="G537" s="13"/>
       <c r="H537" s="13"/>
     </row>
     <row r="538">
       <c r="A538" s="13"/>
-      <c r="E538" s="14"/>
-      <c r="F538" s="14"/>
+      <c r="E538" s="16"/>
+      <c r="F538" s="16"/>
       <c r="G538" s="13"/>
       <c r="H538" s="13"/>
     </row>
     <row r="539">
       <c r="A539" s="13"/>
-      <c r="E539" s="14"/>
-      <c r="F539" s="14"/>
+      <c r="E539" s="16"/>
+      <c r="F539" s="16"/>
       <c r="G539" s="13"/>
       <c r="H539" s="13"/>
     </row>
     <row r="540">
       <c r="A540" s="13"/>
-      <c r="E540" s="14"/>
-      <c r="F540" s="14"/>
+      <c r="E540" s="16"/>
+      <c r="F540" s="16"/>
       <c r="G540" s="13"/>
       <c r="H540" s="13"/>
     </row>
     <row r="541">
       <c r="A541" s="13"/>
-      <c r="E541" s="14"/>
-      <c r="F541" s="14"/>
+      <c r="E541" s="16"/>
+      <c r="F541" s="16"/>
       <c r="G541" s="13"/>
       <c r="H541" s="13"/>
     </row>
     <row r="542">
       <c r="A542" s="13"/>
-      <c r="E542" s="14"/>
-      <c r="F542" s="14"/>
+      <c r="E542" s="16"/>
+      <c r="F542" s="16"/>
       <c r="G542" s="13"/>
       <c r="H542" s="13"/>
     </row>
     <row r="543">
       <c r="A543" s="13"/>
-      <c r="E543" s="14"/>
-      <c r="F543" s="14"/>
+      <c r="E543" s="16"/>
+      <c r="F543" s="16"/>
       <c r="G543" s="13"/>
       <c r="H543" s="13"/>
     </row>
     <row r="544">
       <c r="A544" s="13"/>
-      <c r="E544" s="14"/>
-      <c r="F544" s="14"/>
+      <c r="E544" s="16"/>
+      <c r="F544" s="16"/>
       <c r="G544" s="13"/>
       <c r="H544" s="13"/>
     </row>
     <row r="545">
       <c r="A545" s="13"/>
-      <c r="E545" s="14"/>
-      <c r="F545" s="14"/>
+      <c r="E545" s="16"/>
+      <c r="F545" s="16"/>
       <c r="G545" s="13"/>
       <c r="H545" s="13"/>
     </row>
     <row r="546">
       <c r="A546" s="13"/>
-      <c r="E546" s="14"/>
-      <c r="F546" s="14"/>
+      <c r="E546" s="16"/>
+      <c r="F546" s="16"/>
       <c r="G546" s="13"/>
       <c r="H546" s="13"/>
     </row>
     <row r="547">
       <c r="A547" s="13"/>
-      <c r="E547" s="14"/>
-      <c r="F547" s="14"/>
+      <c r="E547" s="16"/>
+      <c r="F547" s="16"/>
       <c r="G547" s="13"/>
       <c r="H547" s="13"/>
     </row>
     <row r="548">
       <c r="A548" s="13"/>
-      <c r="E548" s="14"/>
-      <c r="F548" s="14"/>
+      <c r="E548" s="16"/>
+      <c r="F548" s="16"/>
       <c r="G548" s="13"/>
       <c r="H548" s="13"/>
     </row>
     <row r="549">
       <c r="A549" s="13"/>
-      <c r="E549" s="14"/>
-      <c r="F549" s="14"/>
+      <c r="E549" s="16"/>
+      <c r="F549" s="16"/>
       <c r="G549" s="13"/>
       <c r="H549" s="13"/>
     </row>
     <row r="550">
       <c r="A550" s="13"/>
-      <c r="E550" s="14"/>
-      <c r="F550" s="14"/>
+      <c r="E550" s="16"/>
+      <c r="F550" s="16"/>
       <c r="G550" s="13"/>
       <c r="H550" s="13"/>
     </row>
     <row r="551">
       <c r="A551" s="13"/>
-      <c r="E551" s="14"/>
-      <c r="F551" s="14"/>
+      <c r="E551" s="16"/>
+      <c r="F551" s="16"/>
       <c r="G551" s="13"/>
       <c r="H551" s="13"/>
     </row>
     <row r="552">
       <c r="A552" s="13"/>
-      <c r="E552" s="14"/>
-      <c r="F552" s="14"/>
+      <c r="E552" s="16"/>
+      <c r="F552" s="16"/>
       <c r="G552" s="13"/>
       <c r="H552" s="13"/>
     </row>
     <row r="553">
       <c r="A553" s="13"/>
-      <c r="E553" s="14"/>
-      <c r="F553" s="14"/>
+      <c r="E553" s="16"/>
+      <c r="F553" s="16"/>
       <c r="G553" s="13"/>
       <c r="H553" s="13"/>
     </row>
     <row r="554">
       <c r="A554" s="13"/>
-      <c r="E554" s="14"/>
-      <c r="F554" s="14"/>
+      <c r="E554" s="16"/>
+      <c r="F554" s="16"/>
       <c r="G554" s="13"/>
       <c r="H554" s="13"/>
     </row>
     <row r="555">
       <c r="A555" s="13"/>
-      <c r="E555" s="14"/>
-      <c r="F555" s="14"/>
+      <c r="E555" s="16"/>
+      <c r="F555" s="16"/>
       <c r="G555" s="13"/>
       <c r="H555" s="13"/>
     </row>
     <row r="556">
       <c r="A556" s="13"/>
-      <c r="E556" s="14"/>
-      <c r="F556" s="14"/>
+      <c r="E556" s="16"/>
+      <c r="F556" s="16"/>
       <c r="G556" s="13"/>
       <c r="H556" s="13"/>
     </row>
     <row r="557">
       <c r="A557" s="13"/>
-      <c r="E557" s="14"/>
-      <c r="F557" s="14"/>
+      <c r="E557" s="16"/>
+      <c r="F557" s="16"/>
       <c r="G557" s="13"/>
       <c r="H557" s="13"/>
     </row>
     <row r="558">
       <c r="A558" s="13"/>
-      <c r="E558" s="14"/>
-      <c r="F558" s="14"/>
+      <c r="E558" s="16"/>
+      <c r="F558" s="16"/>
       <c r="G558" s="13"/>
       <c r="H558" s="13"/>
     </row>
     <row r="559">
       <c r="A559" s="13"/>
-      <c r="E559" s="14"/>
-      <c r="F559" s="14"/>
+      <c r="E559" s="16"/>
+      <c r="F559" s="16"/>
       <c r="G559" s="13"/>
       <c r="H559" s="13"/>
     </row>
     <row r="560">
       <c r="A560" s="13"/>
-      <c r="E560" s="14"/>
-      <c r="F560" s="14"/>
+      <c r="E560" s="16"/>
+      <c r="F560" s="16"/>
       <c r="G560" s="13"/>
       <c r="H560" s="13"/>
     </row>
     <row r="561">
       <c r="A561" s="13"/>
-      <c r="E561" s="14"/>
-      <c r="F561" s="14"/>
+      <c r="E561" s="16"/>
+      <c r="F561" s="16"/>
       <c r="G561" s="13"/>
       <c r="H561" s="13"/>
     </row>
     <row r="562">
       <c r="A562" s="13"/>
-      <c r="E562" s="14"/>
-      <c r="F562" s="14"/>
+      <c r="E562" s="16"/>
+      <c r="F562" s="16"/>
       <c r="G562" s="13"/>
       <c r="H562" s="13"/>
     </row>
     <row r="563">
       <c r="A563" s="13"/>
-      <c r="E563" s="14"/>
-      <c r="F563" s="14"/>
+      <c r="E563" s="16"/>
+      <c r="F563" s="16"/>
       <c r="G563" s="13"/>
       <c r="H563" s="13"/>
     </row>
     <row r="564">
       <c r="A564" s="13"/>
-      <c r="E564" s="14"/>
-      <c r="F564" s="14"/>
+      <c r="E564" s="16"/>
+      <c r="F564" s="16"/>
       <c r="G564" s="13"/>
       <c r="H564" s="13"/>
     </row>
     <row r="565">
       <c r="A565" s="13"/>
-      <c r="E565" s="14"/>
-      <c r="F565" s="14"/>
+      <c r="E565" s="16"/>
+      <c r="F565" s="16"/>
       <c r="G565" s="13"/>
       <c r="H565" s="13"/>
     </row>
     <row r="566">
       <c r="A566" s="13"/>
-      <c r="E566" s="14"/>
-      <c r="F566" s="14"/>
+      <c r="E566" s="16"/>
+      <c r="F566" s="16"/>
       <c r="G566" s="13"/>
       <c r="H566" s="13"/>
     </row>
     <row r="567">
       <c r="A567" s="13"/>
-      <c r="E567" s="14"/>
-      <c r="F567" s="14"/>
+      <c r="E567" s="16"/>
+      <c r="F567" s="16"/>
       <c r="G567" s="13"/>
       <c r="H567" s="13"/>
     </row>
     <row r="568">
       <c r="A568" s="13"/>
-      <c r="E568" s="14"/>
-      <c r="F568" s="14"/>
+      <c r="E568" s="16"/>
+      <c r="F568" s="16"/>
       <c r="G568" s="13"/>
       <c r="H568" s="13"/>
     </row>
     <row r="569">
       <c r="A569" s="13"/>
-      <c r="E569" s="14"/>
-      <c r="F569" s="14"/>
+      <c r="E569" s="16"/>
+      <c r="F569" s="16"/>
       <c r="G569" s="13"/>
       <c r="H569" s="13"/>
     </row>
     <row r="570">
       <c r="A570" s="13"/>
-      <c r="E570" s="14"/>
-      <c r="F570" s="14"/>
+      <c r="E570" s="16"/>
+      <c r="F570" s="16"/>
       <c r="G570" s="13"/>
       <c r="H570" s="13"/>
     </row>
     <row r="571">
       <c r="A571" s="13"/>
-      <c r="E571" s="14"/>
-      <c r="F571" s="14"/>
+      <c r="E571" s="16"/>
+      <c r="F571" s="16"/>
       <c r="G571" s="13"/>
       <c r="H571" s="13"/>
     </row>
     <row r="572">
       <c r="A572" s="13"/>
-      <c r="E572" s="14"/>
-      <c r="F572" s="14"/>
+      <c r="E572" s="16"/>
+      <c r="F572" s="16"/>
       <c r="G572" s="13"/>
       <c r="H572" s="13"/>
     </row>
     <row r="573">
       <c r="A573" s="13"/>
-      <c r="E573" s="14"/>
-      <c r="F573" s="14"/>
+      <c r="E573" s="16"/>
+      <c r="F573" s="16"/>
       <c r="G573" s="13"/>
       <c r="H573" s="13"/>
     </row>
     <row r="574">
       <c r="A574" s="13"/>
-      <c r="E574" s="14"/>
-      <c r="F574" s="14"/>
+      <c r="E574" s="16"/>
+      <c r="F574" s="16"/>
       <c r="G574" s="13"/>
       <c r="H574" s="13"/>
     </row>
     <row r="575">
       <c r="A575" s="13"/>
-      <c r="E575" s="14"/>
-      <c r="F575" s="14"/>
+      <c r="E575" s="16"/>
+      <c r="F575" s="16"/>
       <c r="G575" s="13"/>
       <c r="H575" s="13"/>
     </row>
     <row r="576">
       <c r="A576" s="13"/>
-      <c r="E576" s="14"/>
-      <c r="F576" s="14"/>
+      <c r="E576" s="16"/>
+      <c r="F576" s="16"/>
       <c r="G576" s="13"/>
       <c r="H576" s="13"/>
     </row>
     <row r="577">
       <c r="A577" s="13"/>
-      <c r="E577" s="14"/>
-      <c r="F577" s="14"/>
+      <c r="E577" s="16"/>
+      <c r="F577" s="16"/>
       <c r="G577" s="13"/>
       <c r="H577" s="13"/>
     </row>
     <row r="578">
       <c r="A578" s="13"/>
-      <c r="E578" s="14"/>
-      <c r="F578" s="14"/>
+      <c r="E578" s="16"/>
+      <c r="F578" s="16"/>
       <c r="G578" s="13"/>
       <c r="H578" s="13"/>
     </row>
     <row r="579">
       <c r="A579" s="13"/>
-      <c r="E579" s="14"/>
-      <c r="F579" s="14"/>
+      <c r="E579" s="16"/>
+      <c r="F579" s="16"/>
       <c r="G579" s="13"/>
       <c r="H579" s="13"/>
     </row>
     <row r="580">
       <c r="A580" s="13"/>
-      <c r="E580" s="14"/>
-      <c r="F580" s="14"/>
+      <c r="E580" s="16"/>
+      <c r="F580" s="16"/>
       <c r="G580" s="13"/>
       <c r="H580" s="13"/>
     </row>
     <row r="581">
       <c r="A581" s="13"/>
-      <c r="E581" s="14"/>
-      <c r="F581" s="14"/>
+      <c r="E581" s="16"/>
+      <c r="F581" s="16"/>
       <c r="G581" s="13"/>
       <c r="H581" s="13"/>
     </row>
     <row r="582">
       <c r="A582" s="13"/>
-      <c r="E582" s="14"/>
-      <c r="F582" s="14"/>
+      <c r="E582" s="16"/>
+      <c r="F582" s="16"/>
       <c r="G582" s="13"/>
       <c r="H582" s="13"/>
     </row>
     <row r="583">
       <c r="A583" s="13"/>
-      <c r="E583" s="14"/>
-      <c r="F583" s="14"/>
+      <c r="E583" s="16"/>
+      <c r="F583" s="16"/>
       <c r="G583" s="13"/>
       <c r="H583" s="13"/>
     </row>
     <row r="584">
       <c r="A584" s="13"/>
-      <c r="E584" s="14"/>
-      <c r="F584" s="14"/>
+      <c r="E584" s="16"/>
+      <c r="F584" s="16"/>
       <c r="G584" s="13"/>
       <c r="H584" s="13"/>
     </row>
     <row r="585">
       <c r="A585" s="13"/>
-      <c r="E585" s="14"/>
-      <c r="F585" s="14"/>
+      <c r="E585" s="16"/>
+      <c r="F585" s="16"/>
       <c r="G585" s="13"/>
       <c r="H585" s="13"/>
     </row>
     <row r="586">
       <c r="A586" s="13"/>
-      <c r="E586" s="14"/>
-      <c r="F586" s="14"/>
+      <c r="E586" s="16"/>
+      <c r="F586" s="16"/>
       <c r="G586" s="13"/>
       <c r="H586" s="13"/>
     </row>
     <row r="587">
       <c r="A587" s="13"/>
-      <c r="E587" s="14"/>
-      <c r="F587" s="14"/>
+      <c r="E587" s="16"/>
+      <c r="F587" s="16"/>
       <c r="G587" s="13"/>
       <c r="H587" s="13"/>
     </row>
     <row r="588">
       <c r="A588" s="13"/>
-      <c r="E588" s="14"/>
-      <c r="F588" s="14"/>
+      <c r="E588" s="16"/>
+      <c r="F588" s="16"/>
       <c r="G588" s="13"/>
       <c r="H588" s="13"/>
     </row>
     <row r="589">
       <c r="A589" s="13"/>
-      <c r="E589" s="14"/>
-      <c r="F589" s="14"/>
+      <c r="E589" s="16"/>
+      <c r="F589" s="16"/>
       <c r="G589" s="13"/>
       <c r="H589" s="13"/>
     </row>
     <row r="590">
       <c r="A590" s="13"/>
-      <c r="E590" s="14"/>
-      <c r="F590" s="14"/>
+      <c r="E590" s="16"/>
+      <c r="F590" s="16"/>
       <c r="G590" s="13"/>
       <c r="H590" s="13"/>
     </row>
     <row r="591">
       <c r="A591" s="13"/>
-      <c r="E591" s="14"/>
-      <c r="F591" s="14"/>
+      <c r="E591" s="16"/>
+      <c r="F591" s="16"/>
       <c r="G591" s="13"/>
       <c r="H591" s="13"/>
     </row>
     <row r="592">
       <c r="A592" s="13"/>
-      <c r="E592" s="14"/>
-      <c r="F592" s="14"/>
+      <c r="E592" s="16"/>
+      <c r="F592" s="16"/>
       <c r="G592" s="13"/>
       <c r="H592" s="13"/>
     </row>
     <row r="593">
       <c r="A593" s="13"/>
-      <c r="E593" s="14"/>
-      <c r="F593" s="14"/>
+      <c r="E593" s="16"/>
+      <c r="F593" s="16"/>
       <c r="G593" s="13"/>
       <c r="H593" s="13"/>
     </row>
     <row r="594">
       <c r="A594" s="13"/>
-      <c r="E594" s="14"/>
-      <c r="F594" s="14"/>
+      <c r="E594" s="16"/>
+      <c r="F594" s="16"/>
       <c r="G594" s="13"/>
       <c r="H594" s="13"/>
     </row>
     <row r="595">
       <c r="A595" s="13"/>
-      <c r="E595" s="14"/>
-      <c r="F595" s="14"/>
+      <c r="E595" s="16"/>
+      <c r="F595" s="16"/>
       <c r="G595" s="13"/>
       <c r="H595" s="13"/>
     </row>
     <row r="596">
       <c r="A596" s="13"/>
-      <c r="E596" s="14"/>
-      <c r="F596" s="14"/>
+      <c r="E596" s="16"/>
+      <c r="F596" s="16"/>
       <c r="G596" s="13"/>
       <c r="H596" s="13"/>
     </row>
     <row r="597">
       <c r="A597" s="13"/>
-      <c r="E597" s="14"/>
-      <c r="F597" s="14"/>
+      <c r="E597" s="16"/>
+      <c r="F597" s="16"/>
       <c r="G597" s="13"/>
       <c r="H597" s="13"/>
     </row>
     <row r="598">
       <c r="A598" s="13"/>
-      <c r="E598" s="14"/>
-      <c r="F598" s="14"/>
+      <c r="E598" s="16"/>
+      <c r="F598" s="16"/>
       <c r="G598" s="13"/>
       <c r="H598" s="13"/>
     </row>
     <row r="599">
       <c r="A599" s="13"/>
-      <c r="E599" s="14"/>
-      <c r="F599" s="14"/>
+      <c r="E599" s="16"/>
+      <c r="F599" s="16"/>
       <c r="G599" s="13"/>
       <c r="H599" s="13"/>
     </row>
     <row r="600">
       <c r="A600" s="13"/>
-      <c r="E600" s="14"/>
-      <c r="F600" s="14"/>
+      <c r="E600" s="16"/>
+      <c r="F600" s="16"/>
       <c r="G600" s="13"/>
       <c r="H600" s="13"/>
     </row>
     <row r="601">
       <c r="A601" s="13"/>
-      <c r="E601" s="14"/>
-      <c r="F601" s="14"/>
+      <c r="E601" s="16"/>
+      <c r="F601" s="16"/>
       <c r="G601" s="13"/>
       <c r="H601" s="13"/>
     </row>
     <row r="602">
       <c r="A602" s="13"/>
-      <c r="E602" s="14"/>
-      <c r="F602" s="14"/>
+      <c r="E602" s="16"/>
+      <c r="F602" s="16"/>
       <c r="G602" s="13"/>
       <c r="H602" s="13"/>
     </row>
     <row r="603">
       <c r="A603" s="13"/>
-      <c r="E603" s="14"/>
-      <c r="F603" s="14"/>
+      <c r="E603" s="16"/>
+      <c r="F603" s="16"/>
       <c r="G603" s="13"/>
       <c r="H603" s="13"/>
     </row>
     <row r="604">
       <c r="A604" s="13"/>
-      <c r="E604" s="14"/>
-      <c r="F604" s="14"/>
+      <c r="E604" s="16"/>
+      <c r="F604" s="16"/>
       <c r="G604" s="13"/>
       <c r="H604" s="13"/>
     </row>
     <row r="605">
       <c r="A605" s="13"/>
-      <c r="E605" s="14"/>
-      <c r="F605" s="14"/>
+      <c r="E605" s="16"/>
+      <c r="F605" s="16"/>
       <c r="G605" s="13"/>
       <c r="H605" s="13"/>
     </row>
     <row r="606">
       <c r="A606" s="13"/>
-      <c r="E606" s="14"/>
-      <c r="F606" s="14"/>
+      <c r="E606" s="16"/>
+      <c r="F606" s="16"/>
       <c r="G606" s="13"/>
       <c r="H606" s="13"/>
     </row>
     <row r="607">
       <c r="A607" s="13"/>
-      <c r="E607" s="14"/>
-      <c r="F607" s="14"/>
+      <c r="E607" s="16"/>
+      <c r="F607" s="16"/>
       <c r="G607" s="13"/>
       <c r="H607" s="13"/>
     </row>
     <row r="608">
       <c r="A608" s="13"/>
-      <c r="E608" s="14"/>
-      <c r="F608" s="14"/>
+      <c r="E608" s="16"/>
+      <c r="F608" s="16"/>
       <c r="G608" s="13"/>
       <c r="H608" s="13"/>
     </row>
     <row r="609">
       <c r="A609" s="13"/>
-      <c r="E609" s="14"/>
-      <c r="F609" s="14"/>
+      <c r="E609" s="16"/>
+      <c r="F609" s="16"/>
       <c r="G609" s="13"/>
       <c r="H609" s="13"/>
     </row>
     <row r="610">
       <c r="A610" s="13"/>
-      <c r="E610" s="14"/>
-      <c r="F610" s="14"/>
+      <c r="E610" s="16"/>
+      <c r="F610" s="16"/>
       <c r="G610" s="13"/>
       <c r="H610" s="13"/>
     </row>
     <row r="611">
       <c r="A611" s="13"/>
-      <c r="E611" s="14"/>
-      <c r="F611" s="14"/>
+      <c r="E611" s="16"/>
+      <c r="F611" s="16"/>
       <c r="G611" s="13"/>
       <c r="H611" s="13"/>
     </row>
     <row r="612">
       <c r="A612" s="13"/>
-      <c r="E612" s="14"/>
-      <c r="F612" s="14"/>
+      <c r="E612" s="16"/>
+      <c r="F612" s="16"/>
       <c r="G612" s="13"/>
       <c r="H612" s="13"/>
     </row>
     <row r="613">
       <c r="A613" s="13"/>
-      <c r="E613" s="14"/>
-      <c r="F613" s="14"/>
+      <c r="E613" s="16"/>
+      <c r="F613" s="16"/>
       <c r="G613" s="13"/>
       <c r="H613" s="13"/>
     </row>
     <row r="614">
       <c r="A614" s="13"/>
-      <c r="E614" s="14"/>
-      <c r="F614" s="14"/>
+      <c r="E614" s="16"/>
+      <c r="F614" s="16"/>
       <c r="G614" s="13"/>
       <c r="H614" s="13"/>
     </row>
     <row r="615">
       <c r="A615" s="13"/>
-      <c r="E615" s="14"/>
-      <c r="F615" s="14"/>
+      <c r="E615" s="16"/>
+      <c r="F615" s="16"/>
       <c r="G615" s="13"/>
       <c r="H615" s="13"/>
     </row>
     <row r="616">
       <c r="A616" s="13"/>
-      <c r="E616" s="14"/>
-      <c r="F616" s="14"/>
+      <c r="E616" s="16"/>
+      <c r="F616" s="16"/>
       <c r="G616" s="13"/>
       <c r="H616" s="13"/>
     </row>
     <row r="617">
       <c r="A617" s="13"/>
-      <c r="E617" s="14"/>
-      <c r="F617" s="14"/>
+      <c r="E617" s="16"/>
+      <c r="F617" s="16"/>
       <c r="G617" s="13"/>
       <c r="H617" s="13"/>
     </row>
     <row r="618">
       <c r="A618" s="13"/>
-      <c r="E618" s="14"/>
-      <c r="F618" s="14"/>
+      <c r="E618" s="16"/>
+      <c r="F618" s="16"/>
       <c r="G618" s="13"/>
       <c r="H618" s="13"/>
     </row>
     <row r="619">
       <c r="A619" s="13"/>
-      <c r="E619" s="14"/>
-      <c r="F619" s="14"/>
+      <c r="E619" s="16"/>
+      <c r="F619" s="16"/>
       <c r="G619" s="13"/>
       <c r="H619" s="13"/>
     </row>
     <row r="620">
       <c r="A620" s="13"/>
-      <c r="E620" s="14"/>
-      <c r="F620" s="14"/>
+      <c r="E620" s="16"/>
+      <c r="F620" s="16"/>
       <c r="G620" s="13"/>
       <c r="H620" s="13"/>
     </row>
     <row r="621">
       <c r="A621" s="13"/>
-      <c r="E621" s="14"/>
-      <c r="F621" s="14"/>
+      <c r="E621" s="16"/>
+      <c r="F621" s="16"/>
       <c r="G621" s="13"/>
       <c r="H621" s="13"/>
     </row>
     <row r="622">
       <c r="A622" s="13"/>
-      <c r="E622" s="14"/>
-      <c r="F622" s="14"/>
+      <c r="E622" s="16"/>
+      <c r="F622" s="16"/>
       <c r="G622" s="13"/>
       <c r="H622" s="13"/>
     </row>
     <row r="623">
       <c r="A623" s="13"/>
-      <c r="E623" s="14"/>
-      <c r="F623" s="14"/>
+      <c r="E623" s="16"/>
+      <c r="F623" s="16"/>
       <c r="G623" s="13"/>
       <c r="H623" s="13"/>
     </row>
     <row r="624">
       <c r="A624" s="13"/>
-      <c r="E624" s="14"/>
-      <c r="F624" s="14"/>
+      <c r="E624" s="16"/>
+      <c r="F624" s="16"/>
       <c r="G624" s="13"/>
       <c r="H624" s="13"/>
     </row>
     <row r="625">
       <c r="A625" s="13"/>
-      <c r="E625" s="14"/>
-      <c r="F625" s="14"/>
+      <c r="E625" s="16"/>
+      <c r="F625" s="16"/>
       <c r="G625" s="13"/>
       <c r="H625" s="13"/>
     </row>
     <row r="626">
       <c r="A626" s="13"/>
-      <c r="E626" s="14"/>
-      <c r="F626" s="14"/>
+      <c r="E626" s="16"/>
+      <c r="F626" s="16"/>
       <c r="G626" s="13"/>
       <c r="H626" s="13"/>
     </row>
     <row r="627">
       <c r="A627" s="13"/>
-      <c r="E627" s="14"/>
-      <c r="F627" s="14"/>
+      <c r="E627" s="16"/>
+      <c r="F627" s="16"/>
       <c r="G627" s="13"/>
       <c r="H627" s="13"/>
     </row>
     <row r="628">
       <c r="A628" s="13"/>
-      <c r="E628" s="14"/>
-      <c r="F628" s="14"/>
+      <c r="E628" s="16"/>
+      <c r="F628" s="16"/>
       <c r="G628" s="13"/>
       <c r="H628" s="13"/>
     </row>
     <row r="629">
       <c r="A629" s="13"/>
-      <c r="E629" s="14"/>
-      <c r="F629" s="14"/>
+      <c r="E629" s="16"/>
+      <c r="F629" s="16"/>
       <c r="G629" s="13"/>
       <c r="H629" s="13"/>
     </row>
     <row r="630">
       <c r="A630" s="13"/>
-      <c r="E630" s="14"/>
-      <c r="F630" s="14"/>
+      <c r="E630" s="16"/>
+      <c r="F630" s="16"/>
       <c r="G630" s="13"/>
       <c r="H630" s="13"/>
     </row>
     <row r="631">
       <c r="A631" s="13"/>
-      <c r="E631" s="14"/>
-      <c r="F631" s="14"/>
+      <c r="E631" s="16"/>
+      <c r="F631" s="16"/>
       <c r="G631" s="13"/>
       <c r="H631" s="13"/>
     </row>
     <row r="632">
       <c r="A632" s="13"/>
-      <c r="E632" s="14"/>
-      <c r="F632" s="14"/>
+      <c r="E632" s="16"/>
+      <c r="F632" s="16"/>
       <c r="G632" s="13"/>
       <c r="H632" s="13"/>
     </row>
     <row r="633">
       <c r="A633" s="13"/>
-      <c r="E633" s="14"/>
-      <c r="F633" s="14"/>
+      <c r="E633" s="16"/>
+      <c r="F633" s="16"/>
       <c r="G633" s="13"/>
       <c r="H633" s="13"/>
     </row>
     <row r="634">
       <c r="A634" s="13"/>
-      <c r="E634" s="14"/>
-      <c r="F634" s="14"/>
+      <c r="E634" s="16"/>
+      <c r="F634" s="16"/>
       <c r="G634" s="13"/>
       <c r="H634" s="13"/>
     </row>
     <row r="635">
       <c r="A635" s="13"/>
-      <c r="E635" s="14"/>
-      <c r="F635" s="14"/>
+      <c r="E635" s="16"/>
+      <c r="F635" s="16"/>
       <c r="G635" s="13"/>
       <c r="H635" s="13"/>
     </row>
     <row r="636">
       <c r="A636" s="13"/>
-      <c r="E636" s="14"/>
-      <c r="F636" s="14"/>
+      <c r="E636" s="16"/>
+      <c r="F636" s="16"/>
       <c r="G636" s="13"/>
       <c r="H636" s="13"/>
     </row>
     <row r="637">
       <c r="A637" s="13"/>
-      <c r="E637" s="14"/>
-      <c r="F637" s="14"/>
+      <c r="E637" s="16"/>
+      <c r="F637" s="16"/>
       <c r="G637" s="13"/>
       <c r="H637" s="13"/>
     </row>
     <row r="638">
       <c r="A638" s="13"/>
-      <c r="E638" s="14"/>
-      <c r="F638" s="14"/>
+      <c r="E638" s="16"/>
+      <c r="F638" s="16"/>
       <c r="G638" s="13"/>
       <c r="H638" s="13"/>
     </row>
     <row r="639">
       <c r="A639" s="13"/>
-      <c r="E639" s="14"/>
-      <c r="F639" s="14"/>
+      <c r="E639" s="16"/>
+      <c r="F639" s="16"/>
       <c r="G639" s="13"/>
       <c r="H639" s="13"/>
     </row>
     <row r="640">
       <c r="A640" s="13"/>
-      <c r="E640" s="14"/>
-      <c r="F640" s="14"/>
+      <c r="E640" s="16"/>
+      <c r="F640" s="16"/>
       <c r="G640" s="13"/>
       <c r="H640" s="13"/>
     </row>
     <row r="641">
       <c r="A641" s="13"/>
-      <c r="E641" s="14"/>
-      <c r="F641" s="14"/>
+      <c r="E641" s="16"/>
+      <c r="F641" s="16"/>
       <c r="G641" s="13"/>
       <c r="H641" s="13"/>
     </row>
     <row r="642">
       <c r="A642" s="13"/>
-      <c r="E642" s="14"/>
-      <c r="F642" s="14"/>
+      <c r="E642" s="16"/>
+      <c r="F642" s="16"/>
       <c r="G642" s="13"/>
       <c r="H642" s="13"/>
     </row>
     <row r="643">
       <c r="A643" s="13"/>
-      <c r="E643" s="14"/>
-      <c r="F643" s="14"/>
+      <c r="E643" s="16"/>
+      <c r="F643" s="16"/>
       <c r="G643" s="13"/>
       <c r="H643" s="13"/>
     </row>
     <row r="644">
       <c r="A644" s="13"/>
-      <c r="E644" s="14"/>
-      <c r="F644" s="14"/>
+      <c r="E644" s="16"/>
+      <c r="F644" s="16"/>
       <c r="G644" s="13"/>
       <c r="H644" s="13"/>
     </row>
     <row r="645">
       <c r="A645" s="13"/>
-      <c r="E645" s="14"/>
-      <c r="F645" s="14"/>
+      <c r="E645" s="16"/>
+      <c r="F645" s="16"/>
       <c r="G645" s="13"/>
       <c r="H645" s="13"/>
     </row>
     <row r="646">
       <c r="A646" s="13"/>
-      <c r="E646" s="14"/>
-      <c r="F646" s="14"/>
+      <c r="E646" s="16"/>
+      <c r="F646" s="16"/>
       <c r="G646" s="13"/>
       <c r="H646" s="13"/>
     </row>
     <row r="647">
       <c r="A647" s="13"/>
-      <c r="E647" s="14"/>
-      <c r="F647" s="14"/>
+      <c r="E647" s="16"/>
+      <c r="F647" s="16"/>
       <c r="G647" s="13"/>
       <c r="H647" s="13"/>
     </row>
     <row r="648">
       <c r="A648" s="13"/>
-      <c r="E648" s="14"/>
-      <c r="F648" s="14"/>
+      <c r="E648" s="16"/>
+      <c r="F648" s="16"/>
       <c r="G648" s="13"/>
       <c r="H648" s="13"/>
     </row>
     <row r="649">
       <c r="A649" s="13"/>
-      <c r="E649" s="14"/>
-      <c r="F649" s="14"/>
+      <c r="E649" s="16"/>
+      <c r="F649" s="16"/>
       <c r="G649" s="13"/>
       <c r="H649" s="13"/>
     </row>
     <row r="650">
       <c r="A650" s="13"/>
-      <c r="E650" s="14"/>
-      <c r="F650" s="14"/>
+      <c r="E650" s="16"/>
+      <c r="F650" s="16"/>
       <c r="G650" s="13"/>
       <c r="H650" s="13"/>
     </row>
     <row r="651">
       <c r="A651" s="13"/>
-      <c r="E651" s="14"/>
-      <c r="F651" s="14"/>
+      <c r="E651" s="16"/>
+      <c r="F651" s="16"/>
       <c r="G651" s="13"/>
       <c r="H651" s="13"/>
     </row>
     <row r="652">
       <c r="A652" s="13"/>
-      <c r="E652" s="14"/>
-      <c r="F652" s="14"/>
+      <c r="E652" s="16"/>
+      <c r="F652" s="16"/>
       <c r="G652" s="13"/>
       <c r="H652" s="13"/>
     </row>
     <row r="653">
       <c r="A653" s="13"/>
-      <c r="E653" s="14"/>
-      <c r="F653" s="14"/>
+      <c r="E653" s="16"/>
+      <c r="F653" s="16"/>
       <c r="G653" s="13"/>
       <c r="H653" s="13"/>
     </row>
     <row r="654">
       <c r="A654" s="13"/>
-      <c r="E654" s="14"/>
-      <c r="F654" s="14"/>
+      <c r="E654" s="16"/>
+      <c r="F654" s="16"/>
       <c r="G654" s="13"/>
       <c r="H654" s="13"/>
     </row>
     <row r="655">
       <c r="A655" s="13"/>
-      <c r="E655" s="14"/>
-      <c r="F655" s="14"/>
+      <c r="E655" s="16"/>
+      <c r="F655" s="16"/>
       <c r="G655" s="13"/>
       <c r="H655" s="13"/>
     </row>
     <row r="656">
       <c r="A656" s="13"/>
-      <c r="E656" s="14"/>
-      <c r="F656" s="14"/>
+      <c r="E656" s="16"/>
+      <c r="F656" s="16"/>
       <c r="G656" s="13"/>
       <c r="H656" s="13"/>
     </row>
     <row r="657">
       <c r="A657" s="13"/>
-      <c r="E657" s="14"/>
-      <c r="F657" s="14"/>
+      <c r="E657" s="16"/>
+      <c r="F657" s="16"/>
       <c r="G657" s="13"/>
       <c r="H657" s="13"/>
     </row>
     <row r="658">
       <c r="A658" s="13"/>
-      <c r="E658" s="14"/>
-      <c r="F658" s="14"/>
+      <c r="E658" s="16"/>
+      <c r="F658" s="16"/>
       <c r="G658" s="13"/>
       <c r="H658" s="13"/>
     </row>
     <row r="659">
       <c r="A659" s="13"/>
-      <c r="E659" s="14"/>
-      <c r="F659" s="14"/>
+      <c r="E659" s="16"/>
+      <c r="F659" s="16"/>
       <c r="G659" s="13"/>
       <c r="H659" s="13"/>
     </row>
     <row r="660">
       <c r="A660" s="13"/>
-      <c r="E660" s="14"/>
-      <c r="F660" s="14"/>
+      <c r="E660" s="16"/>
+      <c r="F660" s="16"/>
       <c r="G660" s="13"/>
       <c r="H660" s="13"/>
     </row>
     <row r="661">
       <c r="A661" s="13"/>
-      <c r="E661" s="14"/>
-      <c r="F661" s="14"/>
+      <c r="E661" s="16"/>
+      <c r="F661" s="16"/>
       <c r="G661" s="13"/>
       <c r="H661" s="13"/>
     </row>
     <row r="662">
       <c r="A662" s="13"/>
-      <c r="E662" s="14"/>
-      <c r="F662" s="14"/>
+      <c r="E662" s="16"/>
+      <c r="F662" s="16"/>
       <c r="G662" s="13"/>
       <c r="H662" s="13"/>
     </row>
     <row r="663">
       <c r="A663" s="13"/>
-      <c r="E663" s="14"/>
-      <c r="F663" s="14"/>
+      <c r="E663" s="16"/>
+      <c r="F663" s="16"/>
       <c r="G663" s="13"/>
       <c r="H663" s="13"/>
     </row>
     <row r="664">
       <c r="A664" s="13"/>
-      <c r="E664" s="14"/>
-      <c r="F664" s="14"/>
+      <c r="E664" s="16"/>
+      <c r="F664" s="16"/>
       <c r="G664" s="13"/>
       <c r="H664" s="13"/>
     </row>
     <row r="665">
       <c r="A665" s="13"/>
-      <c r="E665" s="14"/>
-      <c r="F665" s="14"/>
+      <c r="E665" s="16"/>
+      <c r="F665" s="16"/>
       <c r="G665" s="13"/>
       <c r="H665" s="13"/>
     </row>
     <row r="666">
       <c r="A666" s="13"/>
-      <c r="E666" s="14"/>
-      <c r="F666" s="14"/>
+      <c r="E666" s="16"/>
+      <c r="F666" s="16"/>
       <c r="G666" s="13"/>
       <c r="H666" s="13"/>
     </row>
     <row r="667">
       <c r="A667" s="13"/>
-      <c r="E667" s="14"/>
-      <c r="F667" s="14"/>
+      <c r="E667" s="16"/>
+      <c r="F667" s="16"/>
       <c r="G667" s="13"/>
       <c r="H667" s="13"/>
     </row>
     <row r="668">
       <c r="A668" s="13"/>
-      <c r="E668" s="14"/>
-      <c r="F668" s="14"/>
+      <c r="E668" s="16"/>
+      <c r="F668" s="16"/>
       <c r="G668" s="13"/>
       <c r="H668" s="13"/>
     </row>
     <row r="669">
       <c r="A669" s="13"/>
-      <c r="E669" s="14"/>
-      <c r="F669" s="14"/>
+      <c r="E669" s="16"/>
+      <c r="F669" s="16"/>
       <c r="G669" s="13"/>
       <c r="H669" s="13"/>
     </row>
     <row r="670">
       <c r="A670" s="13"/>
-      <c r="E670" s="14"/>
-      <c r="F670" s="14"/>
+      <c r="E670" s="16"/>
+      <c r="F670" s="16"/>
       <c r="G670" s="13"/>
       <c r="H670" s="13"/>
     </row>
     <row r="671">
       <c r="A671" s="13"/>
-      <c r="E671" s="14"/>
-      <c r="F671" s="14"/>
+      <c r="E671" s="16"/>
+      <c r="F671" s="16"/>
       <c r="G671" s="13"/>
       <c r="H671" s="13"/>
     </row>
     <row r="672">
       <c r="A672" s="13"/>
-      <c r="E672" s="14"/>
-      <c r="F672" s="14"/>
+      <c r="E672" s="16"/>
+      <c r="F672" s="16"/>
       <c r="G672" s="13"/>
       <c r="H672" s="13"/>
     </row>
     <row r="673">
       <c r="A673" s="13"/>
-      <c r="E673" s="14"/>
-      <c r="F673" s="14"/>
+      <c r="E673" s="16"/>
+      <c r="F673" s="16"/>
       <c r="G673" s="13"/>
       <c r="H673" s="13"/>
     </row>
     <row r="674">
       <c r="A674" s="13"/>
-      <c r="E674" s="14"/>
-      <c r="F674" s="14"/>
+      <c r="E674" s="16"/>
+      <c r="F674" s="16"/>
       <c r="G674" s="13"/>
       <c r="H674" s="13"/>
     </row>
     <row r="675">
       <c r="A675" s="13"/>
-      <c r="E675" s="14"/>
-      <c r="F675" s="14"/>
+      <c r="E675" s="16"/>
+      <c r="F675" s="16"/>
       <c r="G675" s="13"/>
       <c r="H675" s="13"/>
     </row>
     <row r="676">
       <c r="A676" s="13"/>
-      <c r="E676" s="14"/>
-      <c r="F676" s="14"/>
+      <c r="E676" s="16"/>
+      <c r="F676" s="16"/>
       <c r="G676" s="13"/>
       <c r="H676" s="13"/>
     </row>
     <row r="677">
       <c r="A677" s="13"/>
-      <c r="E677" s="14"/>
-      <c r="F677" s="14"/>
+      <c r="E677" s="16"/>
+      <c r="F677" s="16"/>
       <c r="G677" s="13"/>
       <c r="H677" s="13"/>
     </row>
     <row r="678">
       <c r="A678" s="13"/>
-      <c r="E678" s="14"/>
-      <c r="F678" s="14"/>
+      <c r="E678" s="16"/>
+      <c r="F678" s="16"/>
       <c r="G678" s="13"/>
       <c r="H678" s="13"/>
     </row>
     <row r="679">
       <c r="A679" s="13"/>
-      <c r="E679" s="14"/>
-      <c r="F679" s="14"/>
+      <c r="E679" s="16"/>
+      <c r="F679" s="16"/>
       <c r="G679" s="13"/>
       <c r="H679" s="13"/>
     </row>
     <row r="680">
       <c r="A680" s="13"/>
-      <c r="E680" s="14"/>
-      <c r="F680" s="14"/>
+      <c r="E680" s="16"/>
+      <c r="F680" s="16"/>
       <c r="G680" s="13"/>
       <c r="H680" s="13"/>
     </row>
     <row r="681">
       <c r="A681" s="13"/>
-      <c r="E681" s="14"/>
-      <c r="F681" s="14"/>
+      <c r="E681" s="16"/>
+      <c r="F681" s="16"/>
       <c r="G681" s="13"/>
       <c r="H681" s="13"/>
     </row>
     <row r="682">
       <c r="A682" s="13"/>
-      <c r="E682" s="14"/>
-      <c r="F682" s="14"/>
+      <c r="E682" s="16"/>
+      <c r="F682" s="16"/>
       <c r="G682" s="13"/>
       <c r="H682" s="13"/>
     </row>
     <row r="683">
       <c r="A683" s="13"/>
-      <c r="E683" s="14"/>
-      <c r="F683" s="14"/>
+      <c r="E683" s="16"/>
+      <c r="F683" s="16"/>
       <c r="G683" s="13"/>
       <c r="H683" s="13"/>
     </row>
     <row r="684">
       <c r="A684" s="13"/>
-      <c r="E684" s="14"/>
-      <c r="F684" s="14"/>
+      <c r="E684" s="16"/>
+      <c r="F684" s="16"/>
       <c r="G684" s="13"/>
       <c r="H684" s="13"/>
     </row>
     <row r="685">
       <c r="A685" s="13"/>
-      <c r="E685" s="14"/>
-      <c r="F685" s="14"/>
+      <c r="E685" s="16"/>
+      <c r="F685" s="16"/>
       <c r="G685" s="13"/>
       <c r="H685" s="13"/>
     </row>
     <row r="686">
       <c r="A686" s="13"/>
-      <c r="E686" s="14"/>
-      <c r="F686" s="14"/>
+      <c r="E686" s="16"/>
+      <c r="F686" s="16"/>
       <c r="G686" s="13"/>
       <c r="H686" s="13"/>
     </row>
     <row r="687">
       <c r="A687" s="13"/>
-      <c r="E687" s="14"/>
-      <c r="F687" s="14"/>
+      <c r="E687" s="16"/>
+      <c r="F687" s="16"/>
       <c r="G687" s="13"/>
       <c r="H687" s="13"/>
     </row>
     <row r="688">
       <c r="A688" s="13"/>
-      <c r="E688" s="14"/>
-      <c r="F688" s="14"/>
+      <c r="E688" s="16"/>
+      <c r="F688" s="16"/>
       <c r="G688" s="13"/>
       <c r="H688" s="13"/>
     </row>
     <row r="689">
       <c r="A689" s="13"/>
-      <c r="E689" s="14"/>
-      <c r="F689" s="14"/>
+      <c r="E689" s="16"/>
+      <c r="F689" s="16"/>
       <c r="G689" s="13"/>
       <c r="H689" s="13"/>
     </row>
     <row r="690">
       <c r="A690" s="13"/>
-      <c r="E690" s="14"/>
-      <c r="F690" s="14"/>
+      <c r="E690" s="16"/>
+      <c r="F690" s="16"/>
       <c r="G690" s="13"/>
       <c r="H690" s="13"/>
     </row>
     <row r="691">
       <c r="A691" s="13"/>
-      <c r="E691" s="14"/>
-      <c r="F691" s="14"/>
+      <c r="E691" s="16"/>
+      <c r="F691" s="16"/>
       <c r="G691" s="13"/>
       <c r="H691" s="13"/>
     </row>
     <row r="692">
       <c r="A692" s="13"/>
-      <c r="E692" s="14"/>
-      <c r="F692" s="14"/>
+      <c r="E692" s="16"/>
+      <c r="F692" s="16"/>
       <c r="G692" s="13"/>
       <c r="H692" s="13"/>
     </row>
     <row r="693">
       <c r="A693" s="13"/>
-      <c r="E693" s="14"/>
-      <c r="F693" s="14"/>
+      <c r="E693" s="16"/>
+      <c r="F693" s="16"/>
       <c r="G693" s="13"/>
       <c r="H693" s="13"/>
     </row>
     <row r="694">
       <c r="A694" s="13"/>
-      <c r="E694" s="14"/>
-      <c r="F694" s="14"/>
+      <c r="E694" s="16"/>
+      <c r="F694" s="16"/>
       <c r="G694" s="13"/>
       <c r="H694" s="13"/>
     </row>
     <row r="695">
       <c r="A695" s="13"/>
-      <c r="E695" s="14"/>
-      <c r="F695" s="14"/>
+      <c r="E695" s="16"/>
+      <c r="F695" s="16"/>
       <c r="G695" s="13"/>
       <c r="H695" s="13"/>
     </row>
     <row r="696">
       <c r="A696" s="13"/>
-      <c r="E696" s="14"/>
-      <c r="F696" s="14"/>
+      <c r="E696" s="16"/>
+      <c r="F696" s="16"/>
       <c r="G696" s="13"/>
       <c r="H696" s="13"/>
     </row>
     <row r="697">
       <c r="A697" s="13"/>
-      <c r="E697" s="14"/>
-      <c r="F697" s="14"/>
+      <c r="E697" s="16"/>
+      <c r="F697" s="16"/>
       <c r="G697" s="13"/>
       <c r="H697" s="13"/>
     </row>
     <row r="698">
       <c r="A698" s="13"/>
-      <c r="E698" s="14"/>
-      <c r="F698" s="14"/>
+      <c r="E698" s="16"/>
+      <c r="F698" s="16"/>
       <c r="G698" s="13"/>
       <c r="H698" s="13"/>
     </row>
     <row r="699">
       <c r="A699" s="13"/>
-      <c r="E699" s="14"/>
-      <c r="F699" s="14"/>
+      <c r="E699" s="16"/>
+      <c r="F699" s="16"/>
       <c r="G699" s="13"/>
       <c r="H699" s="13"/>
     </row>
     <row r="700">
       <c r="A700" s="13"/>
-      <c r="E700" s="14"/>
-      <c r="F700" s="14"/>
+      <c r="E700" s="16"/>
+      <c r="F700" s="16"/>
       <c r="G700" s="13"/>
       <c r="H700" s="13"/>
     </row>
     <row r="701">
       <c r="A701" s="13"/>
-      <c r="E701" s="14"/>
-      <c r="F701" s="14"/>
+      <c r="E701" s="16"/>
+      <c r="F701" s="16"/>
       <c r="G701" s="13"/>
       <c r="H701" s="13"/>
     </row>
     <row r="702">
       <c r="A702" s="13"/>
-      <c r="E702" s="14"/>
-      <c r="F702" s="14"/>
+      <c r="E702" s="16"/>
+      <c r="F702" s="16"/>
       <c r="G702" s="13"/>
       <c r="H702" s="13"/>
     </row>
     <row r="703">
       <c r="A703" s="13"/>
-      <c r="E703" s="14"/>
-      <c r="F703" s="14"/>
+      <c r="E703" s="16"/>
+      <c r="F703" s="16"/>
       <c r="G703" s="13"/>
       <c r="H703" s="13"/>
     </row>
     <row r="704">
       <c r="A704" s="13"/>
-      <c r="E704" s="14"/>
-      <c r="F704" s="14"/>
+      <c r="E704" s="16"/>
+      <c r="F704" s="16"/>
       <c r="G704" s="13"/>
       <c r="H704" s="13"/>
     </row>
     <row r="705">
       <c r="A705" s="13"/>
-      <c r="E705" s="14"/>
-      <c r="F705" s="14"/>
+      <c r="E705" s="16"/>
+      <c r="F705" s="16"/>
       <c r="G705" s="13"/>
       <c r="H705" s="13"/>
     </row>
     <row r="706">
       <c r="A706" s="13"/>
-      <c r="E706" s="14"/>
-      <c r="F706" s="14"/>
+      <c r="E706" s="16"/>
+      <c r="F706" s="16"/>
       <c r="G706" s="13"/>
       <c r="H706" s="13"/>
     </row>
     <row r="707">
       <c r="A707" s="13"/>
-      <c r="E707" s="14"/>
-      <c r="F707" s="14"/>
+      <c r="E707" s="16"/>
+      <c r="F707" s="16"/>
       <c r="G707" s="13"/>
       <c r="H707" s="13"/>
     </row>
     <row r="708">
       <c r="A708" s="13"/>
-      <c r="E708" s="14"/>
-      <c r="F708" s="14"/>
+      <c r="E708" s="16"/>
+      <c r="F708" s="16"/>
       <c r="G708" s="13"/>
       <c r="H708" s="13"/>
     </row>
     <row r="709">
       <c r="A709" s="13"/>
-      <c r="E709" s="14"/>
-      <c r="F709" s="14"/>
+      <c r="E709" s="16"/>
+      <c r="F709" s="16"/>
       <c r="G709" s="13"/>
       <c r="H709" s="13"/>
     </row>
     <row r="710">
       <c r="A710" s="13"/>
-      <c r="E710" s="14"/>
-      <c r="F710" s="14"/>
+      <c r="E710" s="16"/>
+      <c r="F710" s="16"/>
       <c r="G710" s="13"/>
       <c r="H710" s="13"/>
     </row>
     <row r="711">
       <c r="A711" s="13"/>
-      <c r="E711" s="14"/>
-      <c r="F711" s="14"/>
+      <c r="E711" s="16"/>
+      <c r="F711" s="16"/>
       <c r="G711" s="13"/>
       <c r="H711" s="13"/>
     </row>
     <row r="712">
       <c r="A712" s="13"/>
-      <c r="E712" s="14"/>
-      <c r="F712" s="14"/>
+      <c r="E712" s="16"/>
+      <c r="F712" s="16"/>
       <c r="G712" s="13"/>
       <c r="H712" s="13"/>
     </row>
     <row r="713">
       <c r="A713" s="13"/>
-      <c r="E713" s="14"/>
-      <c r="F713" s="14"/>
+      <c r="E713" s="16"/>
+      <c r="F713" s="16"/>
       <c r="G713" s="13"/>
       <c r="H713" s="13"/>
     </row>
     <row r="714">
       <c r="A714" s="13"/>
-      <c r="E714" s="14"/>
-      <c r="F714" s="14"/>
+      <c r="E714" s="16"/>
+      <c r="F714" s="16"/>
       <c r="G714" s="13"/>
       <c r="H714" s="13"/>
     </row>
     <row r="715">
       <c r="A715" s="13"/>
-      <c r="E715" s="14"/>
-      <c r="F715" s="14"/>
+      <c r="E715" s="16"/>
+      <c r="F715" s="16"/>
       <c r="G715" s="13"/>
       <c r="H715" s="13"/>
     </row>
     <row r="716">
       <c r="A716" s="13"/>
-      <c r="E716" s="14"/>
-      <c r="F716" s="14"/>
+      <c r="E716" s="16"/>
+      <c r="F716" s="16"/>
       <c r="G716" s="13"/>
       <c r="H716" s="13"/>
     </row>
     <row r="717">
       <c r="A717" s="13"/>
-      <c r="E717" s="14"/>
-      <c r="F717" s="14"/>
+      <c r="E717" s="16"/>
+      <c r="F717" s="16"/>
       <c r="G717" s="13"/>
       <c r="H717" s="13"/>
     </row>
     <row r="718">
       <c r="A718" s="13"/>
-      <c r="E718" s="14"/>
-      <c r="F718" s="14"/>
+      <c r="E718" s="16"/>
+      <c r="F718" s="16"/>
       <c r="G718" s="13"/>
       <c r="H718" s="13"/>
     </row>
     <row r="719">
       <c r="A719" s="13"/>
-      <c r="E719" s="14"/>
-      <c r="F719" s="14"/>
+      <c r="E719" s="16"/>
+      <c r="F719" s="16"/>
       <c r="G719" s="13"/>
       <c r="H719" s="13"/>
     </row>
     <row r="720">
       <c r="A720" s="13"/>
-      <c r="E720" s="14"/>
-      <c r="F720" s="14"/>
+      <c r="E720" s="16"/>
+      <c r="F720" s="16"/>
       <c r="G720" s="13"/>
       <c r="H720" s="13"/>
     </row>
     <row r="721">
       <c r="A721" s="13"/>
-      <c r="E721" s="14"/>
-      <c r="F721" s="14"/>
+      <c r="E721" s="16"/>
+      <c r="F721" s="16"/>
       <c r="G721" s="13"/>
       <c r="H721" s="13"/>
     </row>
     <row r="722">
       <c r="A722" s="13"/>
-      <c r="E722" s="14"/>
-      <c r="F722" s="14"/>
+      <c r="E722" s="16"/>
+      <c r="F722" s="16"/>
       <c r="G722" s="13"/>
       <c r="H722" s="13"/>
     </row>
     <row r="723">
       <c r="A723" s="13"/>
-      <c r="E723" s="14"/>
-      <c r="F723" s="14"/>
+      <c r="E723" s="16"/>
+      <c r="F723" s="16"/>
       <c r="G723" s="13"/>
       <c r="H723" s="13"/>
     </row>
     <row r="724">
       <c r="A724" s="13"/>
-      <c r="E724" s="14"/>
-      <c r="F724" s="14"/>
+      <c r="E724" s="16"/>
+      <c r="F724" s="16"/>
       <c r="G724" s="13"/>
       <c r="H724" s="13"/>
     </row>
     <row r="725">
       <c r="A725" s="13"/>
-      <c r="E725" s="14"/>
-      <c r="F725" s="14"/>
+      <c r="E725" s="16"/>
+      <c r="F725" s="16"/>
       <c r="G725" s="13"/>
       <c r="H725" s="13"/>
     </row>
     <row r="726">
       <c r="A726" s="13"/>
-      <c r="E726" s="14"/>
-      <c r="F726" s="14"/>
+      <c r="E726" s="16"/>
+      <c r="F726" s="16"/>
       <c r="G726" s="13"/>
       <c r="H726" s="13"/>
     </row>
     <row r="727">
       <c r="A727" s="13"/>
-      <c r="E727" s="14"/>
-      <c r="F727" s="14"/>
+      <c r="E727" s="16"/>
+      <c r="F727" s="16"/>
       <c r="G727" s="13"/>
       <c r="H727" s="13"/>
     </row>
     <row r="728">
       <c r="A728" s="13"/>
-      <c r="E728" s="14"/>
-      <c r="F728" s="14"/>
+      <c r="E728" s="16"/>
+      <c r="F728" s="16"/>
       <c r="G728" s="13"/>
       <c r="H728" s="13"/>
     </row>
     <row r="729">
       <c r="A729" s="13"/>
-      <c r="E729" s="14"/>
-      <c r="F729" s="14"/>
+      <c r="E729" s="16"/>
+      <c r="F729" s="16"/>
       <c r="G729" s="13"/>
       <c r="H729" s="13"/>
     </row>
     <row r="730">
       <c r="A730" s="13"/>
-      <c r="E730" s="14"/>
-      <c r="F730" s="14"/>
+      <c r="E730" s="16"/>
+      <c r="F730" s="16"/>
       <c r="G730" s="13"/>
       <c r="H730" s="13"/>
     </row>
     <row r="731">
       <c r="A731" s="13"/>
-      <c r="E731" s="14"/>
-      <c r="F731" s="14"/>
+      <c r="E731" s="16"/>
+      <c r="F731" s="16"/>
       <c r="G731" s="13"/>
       <c r="H731" s="13"/>
     </row>
     <row r="732">
       <c r="A732" s="13"/>
-      <c r="E732" s="14"/>
-      <c r="F732" s="14"/>
+      <c r="E732" s="16"/>
+      <c r="F732" s="16"/>
       <c r="G732" s="13"/>
       <c r="H732" s="13"/>
     </row>
     <row r="733">
       <c r="A733" s="13"/>
-      <c r="E733" s="14"/>
-      <c r="F733" s="14"/>
+      <c r="E733" s="16"/>
+      <c r="F733" s="16"/>
       <c r="G733" s="13"/>
       <c r="H733" s="13"/>
     </row>
     <row r="734">
       <c r="A734" s="13"/>
-      <c r="E734" s="14"/>
-      <c r="F734" s="14"/>
+      <c r="E734" s="16"/>
+      <c r="F734" s="16"/>
       <c r="G734" s="13"/>
       <c r="H734" s="13"/>
     </row>
     <row r="735">
       <c r="A735" s="13"/>
-      <c r="E735" s="14"/>
-      <c r="F735" s="14"/>
+      <c r="E735" s="16"/>
+      <c r="F735" s="16"/>
       <c r="G735" s="13"/>
       <c r="H735" s="13"/>
     </row>
     <row r="736">
       <c r="A736" s="13"/>
-      <c r="E736" s="14"/>
-      <c r="F736" s="14"/>
+      <c r="E736" s="16"/>
+      <c r="F736" s="16"/>
       <c r="G736" s="13"/>
       <c r="H736" s="13"/>
     </row>
     <row r="737">
       <c r="A737" s="13"/>
-      <c r="E737" s="14"/>
-      <c r="F737" s="14"/>
+      <c r="E737" s="16"/>
+      <c r="F737" s="16"/>
       <c r="G737" s="13"/>
       <c r="H737" s="13"/>
     </row>
     <row r="738">
       <c r="A738" s="13"/>
-      <c r="E738" s="14"/>
-      <c r="F738" s="14"/>
+      <c r="E738" s="16"/>
+      <c r="F738" s="16"/>
       <c r="G738" s="13"/>
       <c r="H738" s="13"/>
     </row>
     <row r="739">
       <c r="A739" s="13"/>
-      <c r="E739" s="14"/>
-      <c r="F739" s="14"/>
+      <c r="E739" s="16"/>
+      <c r="F739" s="16"/>
       <c r="G739" s="13"/>
       <c r="H739" s="13"/>
     </row>
     <row r="740">
       <c r="A740" s="13"/>
-      <c r="E740" s="14"/>
-      <c r="F740" s="14"/>
+      <c r="E740" s="16"/>
+      <c r="F740" s="16"/>
       <c r="G740" s="13"/>
       <c r="H740" s="13"/>
     </row>
     <row r="741">
       <c r="A741" s="13"/>
-      <c r="E741" s="14"/>
-      <c r="F741" s="14"/>
+      <c r="E741" s="16"/>
+      <c r="F741" s="16"/>
       <c r="G741" s="13"/>
       <c r="H741" s="13"/>
     </row>
     <row r="742">
       <c r="A742" s="13"/>
-      <c r="E742" s="14"/>
-      <c r="F742" s="14"/>
+      <c r="E742" s="16"/>
+      <c r="F742" s="16"/>
       <c r="G742" s="13"/>
       <c r="H742" s="13"/>
     </row>
     <row r="743">
       <c r="A743" s="13"/>
-      <c r="E743" s="14"/>
-      <c r="F743" s="14"/>
+      <c r="E743" s="16"/>
+      <c r="F743" s="16"/>
       <c r="G743" s="13"/>
       <c r="H743" s="13"/>
     </row>
     <row r="744">
       <c r="A744" s="13"/>
-      <c r="E744" s="14"/>
-      <c r="F744" s="14"/>
+      <c r="E744" s="16"/>
+      <c r="F744" s="16"/>
       <c r="G744" s="13"/>
       <c r="H744" s="13"/>
     </row>
     <row r="745">
       <c r="A745" s="13"/>
-      <c r="E745" s="14"/>
-      <c r="F745" s="14"/>
+      <c r="E745" s="16"/>
+      <c r="F745" s="16"/>
       <c r="G745" s="13"/>
       <c r="H745" s="13"/>
     </row>
     <row r="746">
       <c r="A746" s="13"/>
-      <c r="E746" s="14"/>
-      <c r="F746" s="14"/>
+      <c r="E746" s="16"/>
+      <c r="F746" s="16"/>
       <c r="G746" s="13"/>
       <c r="H746" s="13"/>
     </row>
     <row r="747">
       <c r="A747" s="13"/>
-      <c r="E747" s="14"/>
-      <c r="F747" s="14"/>
+      <c r="E747" s="16"/>
+      <c r="F747" s="16"/>
       <c r="G747" s="13"/>
       <c r="H747" s="13"/>
     </row>
     <row r="748">
       <c r="A748" s="13"/>
-      <c r="E748" s="14"/>
-      <c r="F748" s="14"/>
+      <c r="E748" s="16"/>
+      <c r="F748" s="16"/>
       <c r="G748" s="13"/>
       <c r="H748" s="13"/>
     </row>
     <row r="749">
       <c r="A749" s="13"/>
-      <c r="E749" s="14"/>
-      <c r="F749" s="14"/>
+      <c r="E749" s="16"/>
+      <c r="F749" s="16"/>
       <c r="G749" s="13"/>
       <c r="H749" s="13"/>
     </row>
     <row r="750">
       <c r="A750" s="13"/>
-      <c r="E750" s="14"/>
-      <c r="F750" s="14"/>
+      <c r="E750" s="16"/>
+      <c r="F750" s="16"/>
       <c r="G750" s="13"/>
       <c r="H750" s="13"/>
     </row>
     <row r="751">
       <c r="A751" s="13"/>
-      <c r="E751" s="14"/>
-      <c r="F751" s="14"/>
+      <c r="E751" s="16"/>
+      <c r="F751" s="16"/>
       <c r="G751" s="13"/>
       <c r="H751" s="13"/>
     </row>
     <row r="752">
       <c r="A752" s="13"/>
-      <c r="E752" s="14"/>
-      <c r="F752" s="14"/>
+      <c r="E752" s="16"/>
+      <c r="F752" s="16"/>
       <c r="G752" s="13"/>
       <c r="H752" s="13"/>
     </row>
     <row r="753">
       <c r="A753" s="13"/>
-      <c r="E753" s="14"/>
-      <c r="F753" s="14"/>
+      <c r="E753" s="16"/>
+      <c r="F753" s="16"/>
       <c r="G753" s="13"/>
       <c r="H753" s="13"/>
     </row>
     <row r="754">
       <c r="A754" s="13"/>
-      <c r="E754" s="14"/>
-      <c r="F754" s="14"/>
+      <c r="E754" s="16"/>
+      <c r="F754" s="16"/>
       <c r="G754" s="13"/>
       <c r="H754" s="13"/>
     </row>
     <row r="755">
       <c r="A755" s="13"/>
-      <c r="E755" s="14"/>
-      <c r="F755" s="14"/>
+      <c r="E755" s="16"/>
+      <c r="F755" s="16"/>
       <c r="G755" s="13"/>
       <c r="H755" s="13"/>
     </row>
     <row r="756">
       <c r="A756" s="13"/>
-      <c r="E756" s="14"/>
-      <c r="F756" s="14"/>
+      <c r="E756" s="16"/>
+      <c r="F756" s="16"/>
       <c r="G756" s="13"/>
       <c r="H756" s="13"/>
     </row>
     <row r="757">
       <c r="A757" s="13"/>
-      <c r="E757" s="14"/>
-      <c r="F757" s="14"/>
+      <c r="E757" s="16"/>
+      <c r="F757" s="16"/>
       <c r="G757" s="13"/>
       <c r="H757" s="13"/>
     </row>
     <row r="758">
       <c r="A758" s="13"/>
-      <c r="E758" s="14"/>
-      <c r="F758" s="14"/>
+      <c r="E758" s="16"/>
+      <c r="F758" s="16"/>
       <c r="G758" s="13"/>
       <c r="H758" s="13"/>
     </row>
     <row r="759">
       <c r="A759" s="13"/>
-      <c r="E759" s="14"/>
-      <c r="F759" s="14"/>
+      <c r="E759" s="16"/>
+      <c r="F759" s="16"/>
       <c r="G759" s="13"/>
       <c r="H759" s="13"/>
     </row>
     <row r="760">
       <c r="A760" s="13"/>
-      <c r="E760" s="14"/>
-      <c r="F760" s="14"/>
+      <c r="E760" s="16"/>
+      <c r="F760" s="16"/>
       <c r="G760" s="13"/>
       <c r="H760" s="13"/>
     </row>
     <row r="761">
       <c r="A761" s="13"/>
-      <c r="E761" s="14"/>
-      <c r="F761" s="14"/>
+      <c r="E761" s="16"/>
+      <c r="F761" s="16"/>
       <c r="G761" s="13"/>
       <c r="H761" s="13"/>
     </row>
     <row r="762">
       <c r="A762" s="13"/>
-      <c r="E762" s="14"/>
-      <c r="F762" s="14"/>
+      <c r="E762" s="16"/>
+      <c r="F762" s="16"/>
       <c r="G762" s="13"/>
       <c r="H762" s="13"/>
     </row>
     <row r="763">
       <c r="A763" s="13"/>
-      <c r="E763" s="14"/>
-      <c r="F763" s="14"/>
+      <c r="E763" s="16"/>
+      <c r="F763" s="16"/>
       <c r="G763" s="13"/>
       <c r="H763" s="13"/>
     </row>
     <row r="764">
       <c r="A764" s="13"/>
-      <c r="E764" s="14"/>
-      <c r="F764" s="14"/>
+      <c r="E764" s="16"/>
+      <c r="F764" s="16"/>
       <c r="G764" s="13"/>
       <c r="H764" s="13"/>
     </row>
     <row r="765">
       <c r="A765" s="13"/>
-      <c r="E765" s="14"/>
-      <c r="F765" s="14"/>
+      <c r="E765" s="16"/>
+      <c r="F765" s="16"/>
       <c r="G765" s="13"/>
       <c r="H765" s="13"/>
     </row>
     <row r="766">
       <c r="A766" s="13"/>
-      <c r="E766" s="14"/>
-      <c r="F766" s="14"/>
+      <c r="E766" s="16"/>
+      <c r="F766" s="16"/>
       <c r="G766" s="13"/>
       <c r="H766" s="13"/>
     </row>
     <row r="767">
       <c r="A767" s="13"/>
-      <c r="E767" s="14"/>
-      <c r="F767" s="14"/>
+      <c r="E767" s="16"/>
+      <c r="F767" s="16"/>
       <c r="G767" s="13"/>
       <c r="H767" s="13"/>
     </row>
     <row r="768">
       <c r="A768" s="13"/>
-      <c r="E768" s="14"/>
-      <c r="F768" s="14"/>
+      <c r="E768" s="16"/>
+      <c r="F768" s="16"/>
       <c r="G768" s="13"/>
       <c r="H768" s="13"/>
     </row>
     <row r="769">
       <c r="A769" s="13"/>
-      <c r="E769" s="14"/>
-      <c r="F769" s="14"/>
+      <c r="E769" s="16"/>
+      <c r="F769" s="16"/>
       <c r="G769" s="13"/>
       <c r="H769" s="13"/>
     </row>
     <row r="770">
       <c r="A770" s="13"/>
-      <c r="E770" s="14"/>
-      <c r="F770" s="14"/>
+      <c r="E770" s="16"/>
+      <c r="F770" s="16"/>
       <c r="G770" s="13"/>
       <c r="H770" s="13"/>
     </row>
     <row r="771">
       <c r="A771" s="13"/>
-      <c r="E771" s="14"/>
-      <c r="F771" s="14"/>
+      <c r="E771" s="16"/>
+      <c r="F771" s="16"/>
       <c r="G771" s="13"/>
       <c r="H771" s="13"/>
     </row>
     <row r="772">
       <c r="A772" s="13"/>
-      <c r="E772" s="14"/>
-      <c r="F772" s="14"/>
+      <c r="E772" s="16"/>
+      <c r="F772" s="16"/>
       <c r="G772" s="13"/>
       <c r="H772" s="13"/>
     </row>
     <row r="773">
       <c r="A773" s="13"/>
-      <c r="E773" s="14"/>
-      <c r="F773" s="14"/>
+      <c r="E773" s="16"/>
+      <c r="F773" s="16"/>
       <c r="G773" s="13"/>
       <c r="H773" s="13"/>
     </row>
     <row r="774">
       <c r="A774" s="13"/>
-      <c r="E774" s="14"/>
-      <c r="F774" s="14"/>
+      <c r="E774" s="16"/>
+      <c r="F774" s="16"/>
       <c r="G774" s="13"/>
       <c r="H774" s="13"/>
     </row>
     <row r="775">
       <c r="A775" s="13"/>
-      <c r="E775" s="14"/>
-      <c r="F775" s="14"/>
+      <c r="E775" s="16"/>
+      <c r="F775" s="16"/>
       <c r="G775" s="13"/>
       <c r="H775" s="13"/>
     </row>
     <row r="776">
       <c r="A776" s="13"/>
-      <c r="E776" s="14"/>
-      <c r="F776" s="14"/>
+      <c r="E776" s="16"/>
+      <c r="F776" s="16"/>
       <c r="G776" s="13"/>
       <c r="H776" s="13"/>
     </row>
     <row r="777">
       <c r="A777" s="13"/>
-      <c r="E777" s="14"/>
-      <c r="F777" s="14"/>
+      <c r="E777" s="16"/>
+      <c r="F777" s="16"/>
       <c r="G777" s="13"/>
       <c r="H777" s="13"/>
     </row>
     <row r="778">
       <c r="A778" s="13"/>
-      <c r="E778" s="14"/>
-      <c r="F778" s="14"/>
+      <c r="E778" s="16"/>
+      <c r="F778" s="16"/>
       <c r="G778" s="13"/>
       <c r="H778" s="13"/>
     </row>
     <row r="779">
       <c r="A779" s="13"/>
-      <c r="E779" s="14"/>
-      <c r="F779" s="14"/>
+      <c r="E779" s="16"/>
+      <c r="F779" s="16"/>
       <c r="G779" s="13"/>
       <c r="H779" s="13"/>
     </row>
     <row r="780">
       <c r="A780" s="13"/>
-      <c r="E780" s="14"/>
-      <c r="F780" s="14"/>
+      <c r="E780" s="16"/>
+      <c r="F780" s="16"/>
       <c r="G780" s="13"/>
       <c r="H780" s="13"/>
     </row>
     <row r="781">
       <c r="A781" s="13"/>
-      <c r="E781" s="14"/>
-      <c r="F781" s="14"/>
+      <c r="E781" s="16"/>
+      <c r="F781" s="16"/>
       <c r="G781" s="13"/>
       <c r="H781" s="13"/>
     </row>
     <row r="782">
       <c r="A782" s="13"/>
-      <c r="E782" s="14"/>
-      <c r="F782" s="14"/>
+      <c r="E782" s="16"/>
+      <c r="F782" s="16"/>
       <c r="G782" s="13"/>
       <c r="H782" s="13"/>
     </row>
     <row r="783">
       <c r="A783" s="13"/>
-      <c r="E783" s="14"/>
-      <c r="F783" s="14"/>
+      <c r="E783" s="16"/>
+      <c r="F783" s="16"/>
       <c r="G783" s="13"/>
       <c r="H783" s="13"/>
     </row>
     <row r="784">
       <c r="A784" s="13"/>
-      <c r="E784" s="14"/>
-      <c r="F784" s="14"/>
+      <c r="E784" s="16"/>
+      <c r="F784" s="16"/>
       <c r="G784" s="13"/>
       <c r="H784" s="13"/>
     </row>
     <row r="785">
       <c r="A785" s="13"/>
-      <c r="E785" s="14"/>
-      <c r="F785" s="14"/>
+      <c r="E785" s="16"/>
+      <c r="F785" s="16"/>
       <c r="G785" s="13"/>
       <c r="H785" s="13"/>
     </row>
     <row r="786">
       <c r="A786" s="13"/>
-      <c r="E786" s="14"/>
-      <c r="F786" s="14"/>
+      <c r="E786" s="16"/>
+      <c r="F786" s="16"/>
       <c r="G786" s="13"/>
       <c r="H786" s="13"/>
     </row>
     <row r="787">
       <c r="A787" s="13"/>
-      <c r="E787" s="14"/>
-      <c r="F787" s="14"/>
+      <c r="E787" s="16"/>
+      <c r="F787" s="16"/>
       <c r="G787" s="13"/>
       <c r="H787" s="13"/>
     </row>
     <row r="788">
       <c r="A788" s="13"/>
-      <c r="E788" s="14"/>
-      <c r="F788" s="14"/>
+      <c r="E788" s="16"/>
+      <c r="F788" s="16"/>
       <c r="G788" s="13"/>
       <c r="H788" s="13"/>
     </row>
     <row r="789">
       <c r="A789" s="13"/>
-      <c r="E789" s="14"/>
-      <c r="F789" s="14"/>
+      <c r="E789" s="16"/>
+      <c r="F789" s="16"/>
       <c r="G789" s="13"/>
       <c r="H789" s="13"/>
     </row>
     <row r="790">
       <c r="A790" s="13"/>
-      <c r="E790" s="14"/>
-      <c r="F790" s="14"/>
+      <c r="E790" s="16"/>
+      <c r="F790" s="16"/>
       <c r="G790" s="13"/>
       <c r="H790" s="13"/>
     </row>
     <row r="791">
       <c r="A791" s="13"/>
-      <c r="E791" s="14"/>
-      <c r="F791" s="14"/>
+      <c r="E791" s="16"/>
+      <c r="F791" s="16"/>
       <c r="G791" s="13"/>
       <c r="H791" s="13"/>
     </row>
     <row r="792">
       <c r="A792" s="13"/>
-      <c r="E792" s="14"/>
-      <c r="F792" s="14"/>
+      <c r="E792" s="16"/>
+      <c r="F792" s="16"/>
       <c r="G792" s="13"/>
       <c r="H792" s="13"/>
     </row>
     <row r="793">
       <c r="A793" s="13"/>
-      <c r="E793" s="14"/>
-      <c r="F793" s="14"/>
+      <c r="E793" s="16"/>
+      <c r="F793" s="16"/>
       <c r="G793" s="13"/>
       <c r="H793" s="13"/>
     </row>
     <row r="794">
       <c r="A794" s="13"/>
-      <c r="E794" s="14"/>
-      <c r="F794" s="14"/>
+      <c r="E794" s="16"/>
+      <c r="F794" s="16"/>
       <c r="G794" s="13"/>
       <c r="H794" s="13"/>
     </row>
     <row r="795">
       <c r="A795" s="13"/>
-      <c r="E795" s="14"/>
-      <c r="F795" s="14"/>
+      <c r="E795" s="16"/>
+      <c r="F795" s="16"/>
       <c r="G795" s="13"/>
       <c r="H795" s="13"/>
     </row>
     <row r="796">
       <c r="A796" s="13"/>
-      <c r="E796" s="14"/>
-      <c r="F796" s="14"/>
+      <c r="E796" s="16"/>
+      <c r="F796" s="16"/>
       <c r="G796" s="13"/>
       <c r="H796" s="13"/>
     </row>
     <row r="797">
       <c r="A797" s="13"/>
-      <c r="E797" s="14"/>
-      <c r="F797" s="14"/>
+      <c r="E797" s="16"/>
+      <c r="F797" s="16"/>
       <c r="G797" s="13"/>
       <c r="H797" s="13"/>
     </row>
     <row r="798">
       <c r="A798" s="13"/>
-      <c r="E798" s="14"/>
-      <c r="F798" s="14"/>
+      <c r="E798" s="16"/>
+      <c r="F798" s="16"/>
       <c r="G798" s="13"/>
       <c r="H798" s="13"/>
     </row>
     <row r="799">
       <c r="A799" s="13"/>
-      <c r="E799" s="14"/>
-      <c r="F799" s="14"/>
+      <c r="E799" s="16"/>
+      <c r="F799" s="16"/>
       <c r="G799" s="13"/>
       <c r="H799" s="13"/>
     </row>
     <row r="800">
       <c r="A800" s="13"/>
-      <c r="E800" s="14"/>
-      <c r="F800" s="14"/>
+      <c r="E800" s="16"/>
+      <c r="F800" s="16"/>
       <c r="G800" s="13"/>
       <c r="H800" s="13"/>
     </row>
     <row r="801">
       <c r="A801" s="13"/>
-      <c r="E801" s="14"/>
-      <c r="F801" s="14"/>
+      <c r="E801" s="16"/>
+      <c r="F801" s="16"/>
       <c r="G801" s="13"/>
       <c r="H801" s="13"/>
     </row>
     <row r="802">
       <c r="A802" s="13"/>
-      <c r="E802" s="14"/>
-      <c r="F802" s="14"/>
+      <c r="E802" s="16"/>
+      <c r="F802" s="16"/>
       <c r="G802" s="13"/>
       <c r="H802" s="13"/>
     </row>
     <row r="803">
       <c r="A803" s="13"/>
-      <c r="E803" s="14"/>
-      <c r="F803" s="14"/>
+      <c r="E803" s="16"/>
+      <c r="F803" s="16"/>
       <c r="G803" s="13"/>
       <c r="H803" s="13"/>
     </row>
     <row r="804">
       <c r="A804" s="13"/>
-      <c r="E804" s="14"/>
-      <c r="F804" s="14"/>
+      <c r="E804" s="16"/>
+      <c r="F804" s="16"/>
       <c r="G804" s="13"/>
       <c r="H804" s="13"/>
     </row>
     <row r="805">
       <c r="A805" s="13"/>
-      <c r="E805" s="14"/>
-      <c r="F805" s="14"/>
+      <c r="E805" s="16"/>
+      <c r="F805" s="16"/>
       <c r="G805" s="13"/>
       <c r="H805" s="13"/>
     </row>
     <row r="806">
       <c r="A806" s="13"/>
-      <c r="E806" s="14"/>
-      <c r="F806" s="14"/>
+      <c r="E806" s="16"/>
+      <c r="F806" s="16"/>
       <c r="G806" s="13"/>
       <c r="H806" s="13"/>
     </row>
     <row r="807">
       <c r="A807" s="13"/>
-      <c r="E807" s="14"/>
-      <c r="F807" s="14"/>
+      <c r="E807" s="16"/>
+      <c r="F807" s="16"/>
       <c r="G807" s="13"/>
       <c r="H807" s="13"/>
     </row>
     <row r="808">
       <c r="A808" s="13"/>
-      <c r="E808" s="14"/>
-      <c r="F808" s="14"/>
+      <c r="E808" s="16"/>
+      <c r="F808" s="16"/>
       <c r="G808" s="13"/>
       <c r="H808" s="13"/>
     </row>
     <row r="809">
       <c r="A809" s="13"/>
-      <c r="E809" s="14"/>
-      <c r="F809" s="14"/>
+      <c r="E809" s="16"/>
+      <c r="F809" s="16"/>
       <c r="G809" s="13"/>
       <c r="H809" s="13"/>
     </row>
     <row r="810">
       <c r="A810" s="13"/>
-      <c r="E810" s="14"/>
-      <c r="F810" s="14"/>
+      <c r="E810" s="16"/>
+      <c r="F810" s="16"/>
       <c r="G810" s="13"/>
       <c r="H810" s="13"/>
     </row>
     <row r="811">
       <c r="A811" s="13"/>
-      <c r="E811" s="14"/>
-      <c r="F811" s="14"/>
+      <c r="E811" s="16"/>
+      <c r="F811" s="16"/>
       <c r="G811" s="13"/>
       <c r="H811" s="13"/>
     </row>
     <row r="812">
       <c r="A812" s="13"/>
-      <c r="E812" s="14"/>
-      <c r="F812" s="14"/>
+      <c r="E812" s="16"/>
+      <c r="F812" s="16"/>
       <c r="G812" s="13"/>
       <c r="H812" s="13"/>
     </row>
     <row r="813">
       <c r="A813" s="13"/>
-      <c r="E813" s="14"/>
-      <c r="F813" s="14"/>
+      <c r="E813" s="16"/>
+      <c r="F813" s="16"/>
       <c r="G813" s="13"/>
       <c r="H813" s="13"/>
     </row>
     <row r="814">
       <c r="A814" s="13"/>
-      <c r="E814" s="14"/>
-      <c r="F814" s="14"/>
+      <c r="E814" s="16"/>
+      <c r="F814" s="16"/>
       <c r="G814" s="13"/>
       <c r="H814" s="13"/>
     </row>
     <row r="815">
       <c r="A815" s="13"/>
-      <c r="E815" s="14"/>
-      <c r="F815" s="14"/>
+      <c r="E815" s="16"/>
+      <c r="F815" s="16"/>
       <c r="G815" s="13"/>
       <c r="H815" s="13"/>
     </row>
     <row r="816">
       <c r="A816" s="13"/>
-      <c r="E816" s="14"/>
-      <c r="F816" s="14"/>
+      <c r="E816" s="16"/>
+      <c r="F816" s="16"/>
       <c r="G816" s="13"/>
       <c r="H816" s="13"/>
     </row>
     <row r="817">
       <c r="A817" s="13"/>
-      <c r="E817" s="14"/>
-      <c r="F817" s="14"/>
+      <c r="E817" s="16"/>
+      <c r="F817" s="16"/>
       <c r="G817" s="13"/>
       <c r="H817" s="13"/>
     </row>
     <row r="818">
       <c r="A818" s="13"/>
-      <c r="E818" s="14"/>
-      <c r="F818" s="14"/>
+      <c r="E818" s="16"/>
+      <c r="F818" s="16"/>
       <c r="G818" s="13"/>
       <c r="H818" s="13"/>
     </row>
     <row r="819">
       <c r="A819" s="13"/>
-      <c r="E819" s="14"/>
-      <c r="F819" s="14"/>
+      <c r="E819" s="16"/>
+      <c r="F819" s="16"/>
       <c r="G819" s="13"/>
       <c r="H819" s="13"/>
     </row>
     <row r="820">
       <c r="A820" s="13"/>
-      <c r="E820" s="14"/>
-      <c r="F820" s="14"/>
+      <c r="E820" s="16"/>
+      <c r="F820" s="16"/>
       <c r="G820" s="13"/>
       <c r="H820" s="13"/>
     </row>
     <row r="821">
       <c r="A821" s="13"/>
-      <c r="E821" s="14"/>
-      <c r="F821" s="14"/>
+      <c r="E821" s="16"/>
+      <c r="F821" s="16"/>
       <c r="G821" s="13"/>
       <c r="H821" s="13"/>
     </row>
     <row r="822">
       <c r="A822" s="13"/>
-      <c r="E822" s="14"/>
-      <c r="F822" s="14"/>
+      <c r="E822" s="16"/>
+      <c r="F822" s="16"/>
       <c r="G822" s="13"/>
       <c r="H822" s="13"/>
     </row>
     <row r="823">
       <c r="A823" s="13"/>
-      <c r="E823" s="14"/>
-      <c r="F823" s="14"/>
+      <c r="E823" s="16"/>
+      <c r="F823" s="16"/>
       <c r="G823" s="13"/>
       <c r="H823" s="13"/>
     </row>
     <row r="824">
       <c r="A824" s="13"/>
-      <c r="E824" s="14"/>
-      <c r="F824" s="14"/>
+      <c r="E824" s="16"/>
+      <c r="F824" s="16"/>
       <c r="G824" s="13"/>
       <c r="H824" s="13"/>
     </row>
     <row r="825">
       <c r="A825" s="13"/>
-      <c r="E825" s="14"/>
-      <c r="F825" s="14"/>
+      <c r="E825" s="16"/>
+      <c r="F825" s="16"/>
       <c r="G825" s="13"/>
       <c r="H825" s="13"/>
     </row>
     <row r="826">
       <c r="A826" s="13"/>
-      <c r="E826" s="14"/>
-      <c r="F826" s="14"/>
+      <c r="E826" s="16"/>
+      <c r="F826" s="16"/>
       <c r="G826" s="13"/>
       <c r="H826" s="13"/>
     </row>
     <row r="827">
       <c r="A827" s="13"/>
-      <c r="E827" s="14"/>
-      <c r="F827" s="14"/>
+      <c r="E827" s="16"/>
+      <c r="F827" s="16"/>
       <c r="G827" s="13"/>
       <c r="H827" s="13"/>
     </row>
     <row r="828">
       <c r="A828" s="13"/>
-      <c r="E828" s="14"/>
-      <c r="F828" s="14"/>
+      <c r="E828" s="16"/>
+      <c r="F828" s="16"/>
       <c r="G828" s="13"/>
       <c r="H828" s="13"/>
     </row>
     <row r="829">
       <c r="A829" s="13"/>
-      <c r="E829" s="14"/>
-      <c r="F829" s="14"/>
+      <c r="E829" s="16"/>
+      <c r="F829" s="16"/>
       <c r="G829" s="13"/>
       <c r="H829" s="13"/>
     </row>
     <row r="830">
       <c r="A830" s="13"/>
-      <c r="E830" s="14"/>
-      <c r="F830" s="14"/>
+      <c r="E830" s="16"/>
+      <c r="F830" s="16"/>
       <c r="G830" s="13"/>
       <c r="H830" s="13"/>
     </row>
     <row r="831">
       <c r="A831" s="13"/>
-      <c r="E831" s="14"/>
-      <c r="F831" s="14"/>
+      <c r="E831" s="16"/>
+      <c r="F831" s="16"/>
       <c r="G831" s="13"/>
       <c r="H831" s="13"/>
     </row>
     <row r="832">
       <c r="A832" s="13"/>
-      <c r="E832" s="14"/>
-      <c r="F832" s="14"/>
+      <c r="E832" s="16"/>
+      <c r="F832" s="16"/>
       <c r="G832" s="13"/>
       <c r="H832" s="13"/>
     </row>
     <row r="833">
       <c r="A833" s="13"/>
-      <c r="E833" s="14"/>
-      <c r="F833" s="14"/>
+      <c r="E833" s="16"/>
+      <c r="F833" s="16"/>
       <c r="G833" s="13"/>
       <c r="H833" s="13"/>
     </row>
     <row r="834">
       <c r="A834" s="13"/>
-      <c r="E834" s="14"/>
-      <c r="F834" s="14"/>
+      <c r="E834" s="16"/>
+      <c r="F834" s="16"/>
       <c r="G834" s="13"/>
       <c r="H834" s="13"/>
     </row>
     <row r="835">
       <c r="A835" s="13"/>
-      <c r="E835" s="14"/>
-      <c r="F835" s="14"/>
+      <c r="E835" s="16"/>
+      <c r="F835" s="16"/>
       <c r="G835" s="13"/>
       <c r="H835" s="13"/>
     </row>
     <row r="836">
       <c r="A836" s="13"/>
-      <c r="E836" s="14"/>
-      <c r="F836" s="14"/>
+      <c r="E836" s="16"/>
+      <c r="F836" s="16"/>
       <c r="G836" s="13"/>
       <c r="H836" s="13"/>
     </row>
     <row r="837">
       <c r="A837" s="13"/>
-      <c r="E837" s="14"/>
-      <c r="F837" s="14"/>
+      <c r="E837" s="16"/>
+      <c r="F837" s="16"/>
       <c r="G837" s="13"/>
       <c r="H837" s="13"/>
     </row>
     <row r="838">
       <c r="A838" s="13"/>
-      <c r="E838" s="14"/>
-      <c r="F838" s="14"/>
+      <c r="E838" s="16"/>
+      <c r="F838" s="16"/>
       <c r="G838" s="13"/>
       <c r="H838" s="13"/>
     </row>
     <row r="839">
       <c r="A839" s="13"/>
-      <c r="E839" s="14"/>
-      <c r="F839" s="14"/>
+      <c r="E839" s="16"/>
+      <c r="F839" s="16"/>
       <c r="G839" s="13"/>
       <c r="H839" s="13"/>
     </row>
     <row r="840">
       <c r="A840" s="13"/>
-      <c r="E840" s="14"/>
-      <c r="F840" s="14"/>
+      <c r="E840" s="16"/>
+      <c r="F840" s="16"/>
       <c r="G840" s="13"/>
       <c r="H840" s="13"/>
     </row>
     <row r="841">
       <c r="A841" s="13"/>
-      <c r="E841" s="14"/>
-      <c r="F841" s="14"/>
+      <c r="E841" s="16"/>
+      <c r="F841" s="16"/>
       <c r="G841" s="13"/>
       <c r="H841" s="13"/>
     </row>
     <row r="842">
       <c r="A842" s="13"/>
-      <c r="E842" s="14"/>
-      <c r="F842" s="14"/>
+      <c r="E842" s="16"/>
+      <c r="F842" s="16"/>
       <c r="G842" s="13"/>
       <c r="H842" s="13"/>
     </row>
     <row r="843">
       <c r="A843" s="13"/>
-      <c r="E843" s="14"/>
-      <c r="F843" s="14"/>
+      <c r="E843" s="16"/>
+      <c r="F843" s="16"/>
       <c r="G843" s="13"/>
       <c r="H843" s="13"/>
     </row>
     <row r="844">
       <c r="A844" s="13"/>
-      <c r="E844" s="14"/>
-      <c r="F844" s="14"/>
+      <c r="E844" s="16"/>
+      <c r="F844" s="16"/>
       <c r="G844" s="13"/>
       <c r="H844" s="13"/>
     </row>
     <row r="845">
       <c r="A845" s="13"/>
-      <c r="E845" s="14"/>
-      <c r="F845" s="14"/>
+      <c r="E845" s="16"/>
+      <c r="F845" s="16"/>
       <c r="G845" s="13"/>
       <c r="H845" s="13"/>
     </row>
     <row r="846">
       <c r="A846" s="13"/>
-      <c r="E846" s="14"/>
-      <c r="F846" s="14"/>
+      <c r="E846" s="16"/>
+      <c r="F846" s="16"/>
       <c r="G846" s="13"/>
       <c r="H846" s="13"/>
     </row>
     <row r="847">
       <c r="A847" s="13"/>
-      <c r="E847" s="14"/>
-      <c r="F847" s="14"/>
+      <c r="E847" s="16"/>
+      <c r="F847" s="16"/>
       <c r="G847" s="13"/>
       <c r="H847" s="13"/>
     </row>
     <row r="848">
       <c r="A848" s="13"/>
-      <c r="E848" s="14"/>
-      <c r="F848" s="14"/>
+      <c r="E848" s="16"/>
+      <c r="F848" s="16"/>
       <c r="G848" s="13"/>
       <c r="H848" s="13"/>
     </row>
     <row r="849">
       <c r="A849" s="13"/>
-      <c r="E849" s="14"/>
-      <c r="F849" s="14"/>
+      <c r="E849" s="16"/>
+      <c r="F849" s="16"/>
       <c r="G849" s="13"/>
       <c r="H849" s="13"/>
     </row>
     <row r="850">
       <c r="A850" s="13"/>
-      <c r="E850" s="14"/>
-      <c r="F850" s="14"/>
+      <c r="E850" s="16"/>
+      <c r="F850" s="16"/>
       <c r="G850" s="13"/>
       <c r="H850" s="13"/>
     </row>
     <row r="851">
       <c r="A851" s="13"/>
-      <c r="E851" s="14"/>
-      <c r="F851" s="14"/>
+      <c r="E851" s="16"/>
+      <c r="F851" s="16"/>
       <c r="G851" s="13"/>
       <c r="H851" s="13"/>
     </row>
     <row r="852">
       <c r="A852" s="13"/>
-      <c r="E852" s="14"/>
-      <c r="F852" s="14"/>
+      <c r="E852" s="16"/>
+      <c r="F852" s="16"/>
       <c r="G852" s="13"/>
       <c r="H852" s="13"/>
     </row>
     <row r="853">
       <c r="A853" s="13"/>
-      <c r="E853" s="14"/>
-      <c r="F853" s="14"/>
+      <c r="E853" s="16"/>
+      <c r="F853" s="16"/>
       <c r="G853" s="13"/>
       <c r="H853" s="13"/>
     </row>
     <row r="854">
       <c r="A854" s="13"/>
-      <c r="E854" s="14"/>
-      <c r="F854" s="14"/>
+      <c r="E854" s="16"/>
+      <c r="F854" s="16"/>
       <c r="G854" s="13"/>
       <c r="H854" s="13"/>
     </row>
     <row r="855">
       <c r="A855" s="13"/>
-      <c r="E855" s="14"/>
-      <c r="F855" s="14"/>
+      <c r="E855" s="16"/>
+      <c r="F855" s="16"/>
       <c r="G855" s="13"/>
       <c r="H855" s="13"/>
     </row>
     <row r="856">
       <c r="A856" s="13"/>
-      <c r="E856" s="14"/>
-      <c r="F856" s="14"/>
+      <c r="E856" s="16"/>
+      <c r="F856" s="16"/>
       <c r="G856" s="13"/>
       <c r="H856" s="13"/>
     </row>
     <row r="857">
       <c r="A857" s="13"/>
-      <c r="E857" s="14"/>
-      <c r="F857" s="14"/>
+      <c r="E857" s="16"/>
+      <c r="F857" s="16"/>
       <c r="G857" s="13"/>
       <c r="H857" s="13"/>
     </row>
     <row r="858">
       <c r="A858" s="13"/>
-      <c r="E858" s="14"/>
-      <c r="F858" s="14"/>
+      <c r="E858" s="16"/>
+      <c r="F858" s="16"/>
       <c r="G858" s="13"/>
       <c r="H858" s="13"/>
     </row>
     <row r="859">
       <c r="A859" s="13"/>
-      <c r="E859" s="14"/>
-      <c r="F859" s="14"/>
+      <c r="E859" s="16"/>
+      <c r="F859" s="16"/>
       <c r="G859" s="13"/>
       <c r="H859" s="13"/>
     </row>
     <row r="860">
       <c r="A860" s="13"/>
-      <c r="E860" s="14"/>
-      <c r="F860" s="14"/>
+      <c r="E860" s="16"/>
+      <c r="F860" s="16"/>
       <c r="G860" s="13"/>
       <c r="H860" s="13"/>
     </row>
     <row r="861">
       <c r="A861" s="13"/>
-      <c r="E861" s="14"/>
-      <c r="F861" s="14"/>
+      <c r="E861" s="16"/>
+      <c r="F861" s="16"/>
       <c r="G861" s="13"/>
       <c r="H861" s="13"/>
     </row>
     <row r="862">
       <c r="A862" s="13"/>
-      <c r="E862" s="14"/>
-      <c r="F862" s="14"/>
+      <c r="E862" s="16"/>
+      <c r="F862" s="16"/>
       <c r="G862" s="13"/>
       <c r="H862" s="13"/>
     </row>
     <row r="863">
       <c r="A863" s="13"/>
-      <c r="E863" s="14"/>
-      <c r="F863" s="14"/>
+      <c r="E863" s="16"/>
+      <c r="F863" s="16"/>
       <c r="G863" s="13"/>
       <c r="H863" s="13"/>
     </row>
     <row r="864">
       <c r="A864" s="13"/>
-      <c r="E864" s="14"/>
-      <c r="F864" s="14"/>
+      <c r="E864" s="16"/>
+      <c r="F864" s="16"/>
       <c r="G864" s="13"/>
       <c r="H864" s="13"/>
     </row>
     <row r="865">
       <c r="A865" s="13"/>
-      <c r="E865" s="14"/>
-      <c r="F865" s="14"/>
+      <c r="E865" s="16"/>
+      <c r="F865" s="16"/>
       <c r="G865" s="13"/>
       <c r="H865" s="13"/>
     </row>
     <row r="866">
       <c r="A866" s="13"/>
-      <c r="E866" s="14"/>
-      <c r="F866" s="14"/>
+      <c r="E866" s="16"/>
+      <c r="F866" s="16"/>
       <c r="G866" s="13"/>
       <c r="H866" s="13"/>
     </row>
     <row r="867">
       <c r="A867" s="13"/>
-      <c r="E867" s="14"/>
-      <c r="F867" s="14"/>
+      <c r="E867" s="16"/>
+      <c r="F867" s="16"/>
       <c r="G867" s="13"/>
       <c r="H867" s="13"/>
     </row>
     <row r="868">
       <c r="A868" s="13"/>
-      <c r="E868" s="14"/>
-      <c r="F868" s="14"/>
+      <c r="E868" s="16"/>
+      <c r="F868" s="16"/>
       <c r="G868" s="13"/>
       <c r="H868" s="13"/>
     </row>
     <row r="869">
       <c r="A869" s="13"/>
-      <c r="E869" s="14"/>
-      <c r="F869" s="14"/>
+      <c r="E869" s="16"/>
+      <c r="F869" s="16"/>
       <c r="G869" s="13"/>
       <c r="H869" s="13"/>
     </row>
     <row r="870">
       <c r="A870" s="13"/>
-      <c r="E870" s="14"/>
-      <c r="F870" s="14"/>
+      <c r="E870" s="16"/>
+      <c r="F870" s="16"/>
       <c r="G870" s="13"/>
       <c r="H870" s="13"/>
     </row>
     <row r="871">
       <c r="A871" s="13"/>
-      <c r="E871" s="14"/>
-      <c r="F871" s="14"/>
+      <c r="E871" s="16"/>
+      <c r="F871" s="16"/>
       <c r="G871" s="13"/>
       <c r="H871" s="13"/>
     </row>
     <row r="872">
       <c r="A872" s="13"/>
-      <c r="E872" s="14"/>
-      <c r="F872" s="14"/>
+      <c r="E872" s="16"/>
+      <c r="F872" s="16"/>
       <c r="G872" s="13"/>
       <c r="H872" s="13"/>
     </row>
     <row r="873">
       <c r="A873" s="13"/>
-      <c r="E873" s="14"/>
-      <c r="F873" s="14"/>
+      <c r="E873" s="16"/>
+      <c r="F873" s="16"/>
       <c r="G873" s="13"/>
       <c r="H873" s="13"/>
     </row>
     <row r="874">
       <c r="A874" s="13"/>
-      <c r="E874" s="14"/>
-      <c r="F874" s="14"/>
+      <c r="E874" s="16"/>
+      <c r="F874" s="16"/>
       <c r="G874" s="13"/>
       <c r="H874" s="13"/>
     </row>
     <row r="875">
       <c r="A875" s="13"/>
-      <c r="E875" s="14"/>
-      <c r="F875" s="14"/>
+      <c r="E875" s="16"/>
+      <c r="F875" s="16"/>
       <c r="G875" s="13"/>
       <c r="H875" s="13"/>
     </row>
     <row r="876">
       <c r="A876" s="13"/>
-      <c r="E876" s="14"/>
-      <c r="F876" s="14"/>
+      <c r="E876" s="16"/>
+      <c r="F876" s="16"/>
       <c r="G876" s="13"/>
       <c r="H876" s="13"/>
     </row>
     <row r="877">
       <c r="A877" s="13"/>
-      <c r="E877" s="14"/>
-      <c r="F877" s="14"/>
+      <c r="E877" s="16"/>
+      <c r="F877" s="16"/>
       <c r="G877" s="13"/>
       <c r="H877" s="13"/>
     </row>
     <row r="878">
       <c r="A878" s="13"/>
-      <c r="E878" s="14"/>
-      <c r="F878" s="14"/>
+      <c r="E878" s="16"/>
+      <c r="F878" s="16"/>
       <c r="G878" s="13"/>
       <c r="H878" s="13"/>
     </row>
     <row r="879">
       <c r="A879" s="13"/>
-      <c r="E879" s="14"/>
-      <c r="F879" s="14"/>
+      <c r="E879" s="16"/>
+      <c r="F879" s="16"/>
       <c r="G879" s="13"/>
       <c r="H879" s="13"/>
     </row>
     <row r="880">
       <c r="A880" s="13"/>
-      <c r="E880" s="14"/>
-      <c r="F880" s="14"/>
+      <c r="E880" s="16"/>
+      <c r="F880" s="16"/>
       <c r="G880" s="13"/>
       <c r="H880" s="13"/>
     </row>
     <row r="881">
       <c r="A881" s="13"/>
-      <c r="E881" s="14"/>
-      <c r="F881" s="14"/>
+      <c r="E881" s="16"/>
+      <c r="F881" s="16"/>
       <c r="G881" s="13"/>
       <c r="H881" s="13"/>
     </row>
     <row r="882">
       <c r="A882" s="13"/>
-      <c r="E882" s="14"/>
-      <c r="F882" s="14"/>
+      <c r="E882" s="16"/>
+      <c r="F882" s="16"/>
       <c r="G882" s="13"/>
       <c r="H882" s="13"/>
     </row>
     <row r="883">
       <c r="A883" s="13"/>
-      <c r="E883" s="14"/>
-      <c r="F883" s="14"/>
+      <c r="E883" s="16"/>
+      <c r="F883" s="16"/>
       <c r="G883" s="13"/>
       <c r="H883" s="13"/>
     </row>
     <row r="884">
       <c r="A884" s="13"/>
-      <c r="E884" s="14"/>
-      <c r="F884" s="14"/>
+      <c r="E884" s="16"/>
+      <c r="F884" s="16"/>
       <c r="G884" s="13"/>
       <c r="H884" s="13"/>
     </row>
     <row r="885">
       <c r="A885" s="13"/>
-      <c r="E885" s="14"/>
-      <c r="F885" s="14"/>
+      <c r="E885" s="16"/>
+      <c r="F885" s="16"/>
       <c r="G885" s="13"/>
       <c r="H885" s="13"/>
     </row>
     <row r="886">
       <c r="A886" s="13"/>
-      <c r="E886" s="14"/>
-      <c r="F886" s="14"/>
+      <c r="E886" s="16"/>
+      <c r="F886" s="16"/>
       <c r="G886" s="13"/>
       <c r="H886" s="13"/>
     </row>
     <row r="887">
       <c r="A887" s="13"/>
-      <c r="E887" s="14"/>
-      <c r="F887" s="14"/>
+      <c r="E887" s="16"/>
+      <c r="F887" s="16"/>
       <c r="G887" s="13"/>
       <c r="H887" s="13"/>
     </row>
     <row r="888">
       <c r="A888" s="13"/>
-      <c r="E888" s="14"/>
-      <c r="F888" s="14"/>
+      <c r="E888" s="16"/>
+      <c r="F888" s="16"/>
       <c r="G888" s="13"/>
       <c r="H888" s="13"/>
     </row>
     <row r="889">
       <c r="A889" s="13"/>
-      <c r="E889" s="14"/>
-      <c r="F889" s="14"/>
+      <c r="E889" s="16"/>
+      <c r="F889" s="16"/>
       <c r="G889" s="13"/>
       <c r="H889" s="13"/>
     </row>
     <row r="890">
       <c r="A890" s="13"/>
-      <c r="E890" s="14"/>
-      <c r="F890" s="14"/>
+      <c r="E890" s="16"/>
+      <c r="F890" s="16"/>
       <c r="G890" s="13"/>
       <c r="H890" s="13"/>
     </row>
     <row r="891">
       <c r="A891" s="13"/>
-      <c r="E891" s="14"/>
-      <c r="F891" s="14"/>
+      <c r="E891" s="16"/>
+      <c r="F891" s="16"/>
       <c r="G891" s="13"/>
       <c r="H891" s="13"/>
     </row>
     <row r="892">
       <c r="A892" s="13"/>
-      <c r="E892" s="14"/>
-      <c r="F892" s="14"/>
+      <c r="E892" s="16"/>
+      <c r="F892" s="16"/>
       <c r="G892" s="13"/>
       <c r="H892" s="13"/>
     </row>
     <row r="893">
       <c r="A893" s="13"/>
-      <c r="E893" s="14"/>
-      <c r="F893" s="14"/>
+      <c r="E893" s="16"/>
+      <c r="F893" s="16"/>
       <c r="G893" s="13"/>
       <c r="H893" s="13"/>
     </row>
     <row r="894">
       <c r="A894" s="13"/>
-      <c r="E894" s="14"/>
-      <c r="F894" s="14"/>
+      <c r="E894" s="16"/>
+      <c r="F894" s="16"/>
       <c r="G894" s="13"/>
       <c r="H894" s="13"/>
     </row>
     <row r="895">
       <c r="A895" s="13"/>
-      <c r="E895" s="14"/>
-      <c r="F895" s="14"/>
+      <c r="E895" s="16"/>
+      <c r="F895" s="16"/>
       <c r="G895" s="13"/>
       <c r="H895" s="13"/>
     </row>
     <row r="896">
       <c r="A896" s="13"/>
-      <c r="E896" s="14"/>
-      <c r="F896" s="14"/>
+      <c r="E896" s="16"/>
+      <c r="F896" s="16"/>
       <c r="G896" s="13"/>
       <c r="H896" s="13"/>
     </row>
     <row r="897">
       <c r="A897" s="13"/>
-      <c r="E897" s="14"/>
-      <c r="F897" s="14"/>
+      <c r="E897" s="16"/>
+      <c r="F897" s="16"/>
       <c r="G897" s="13"/>
       <c r="H897" s="13"/>
     </row>
     <row r="898">
       <c r="A898" s="13"/>
-      <c r="E898" s="14"/>
-      <c r="F898" s="14"/>
+      <c r="E898" s="16"/>
+      <c r="F898" s="16"/>
       <c r="G898" s="13"/>
       <c r="H898" s="13"/>
     </row>
     <row r="899">
       <c r="A899" s="13"/>
-      <c r="E899" s="14"/>
-      <c r="F899" s="14"/>
+      <c r="E899" s="16"/>
+      <c r="F899" s="16"/>
       <c r="G899" s="13"/>
       <c r="H899" s="13"/>
     </row>
     <row r="900">
       <c r="A900" s="13"/>
-      <c r="E900" s="14"/>
-      <c r="F900" s="14"/>
+      <c r="E900" s="16"/>
+      <c r="F900" s="16"/>
       <c r="G900" s="13"/>
       <c r="H900" s="13"/>
     </row>
     <row r="901">
       <c r="A901" s="13"/>
-      <c r="E901" s="14"/>
-      <c r="F901" s="14"/>
+      <c r="E901" s="16"/>
+      <c r="F901" s="16"/>
       <c r="G901" s="13"/>
       <c r="H901" s="13"/>
     </row>
     <row r="902">
       <c r="A902" s="13"/>
-      <c r="E902" s="14"/>
-      <c r="F902" s="14"/>
+      <c r="E902" s="16"/>
+      <c r="F902" s="16"/>
       <c r="G902" s="13"/>
       <c r="H902" s="13"/>
     </row>
     <row r="903">
       <c r="A903" s="13"/>
-      <c r="E903" s="14"/>
-      <c r="F903" s="14"/>
+      <c r="E903" s="16"/>
+      <c r="F903" s="16"/>
       <c r="G903" s="13"/>
       <c r="H903" s="13"/>
     </row>
     <row r="904">
       <c r="A904" s="13"/>
-      <c r="E904" s="14"/>
-      <c r="F904" s="14"/>
+      <c r="E904" s="16"/>
+      <c r="F904" s="16"/>
       <c r="G904" s="13"/>
       <c r="H904" s="13"/>
     </row>
     <row r="905">
       <c r="A905" s="13"/>
-      <c r="E905" s="14"/>
-      <c r="F905" s="14"/>
+      <c r="E905" s="16"/>
+      <c r="F905" s="16"/>
       <c r="G905" s="13"/>
       <c r="H905" s="13"/>
     </row>
     <row r="906">
       <c r="A906" s="13"/>
-      <c r="E906" s="14"/>
-      <c r="F906" s="14"/>
+      <c r="E906" s="16"/>
+      <c r="F906" s="16"/>
       <c r="G906" s="13"/>
       <c r="H906" s="13"/>
     </row>
     <row r="907">
       <c r="A907" s="13"/>
-      <c r="E907" s="14"/>
-      <c r="F907" s="14"/>
+      <c r="E907" s="16"/>
+      <c r="F907" s="16"/>
       <c r="G907" s="13"/>
       <c r="H907" s="13"/>
     </row>
     <row r="908">
       <c r="A908" s="13"/>
-      <c r="E908" s="14"/>
-      <c r="F908" s="14"/>
+      <c r="E908" s="16"/>
+      <c r="F908" s="16"/>
       <c r="G908" s="13"/>
       <c r="H908" s="13"/>
     </row>
     <row r="909">
       <c r="A909" s="13"/>
-      <c r="E909" s="14"/>
-      <c r="F909" s="14"/>
+      <c r="E909" s="16"/>
+      <c r="F909" s="16"/>
       <c r="G909" s="13"/>
       <c r="H909" s="13"/>
     </row>
     <row r="910">
       <c r="A910" s="13"/>
-      <c r="E910" s="14"/>
-      <c r="F910" s="14"/>
+      <c r="E910" s="16"/>
+      <c r="F910" s="16"/>
       <c r="G910" s="13"/>
       <c r="H910" s="13"/>
     </row>
     <row r="911">
       <c r="A911" s="13"/>
-      <c r="E911" s="14"/>
-      <c r="F911" s="14"/>
+      <c r="E911" s="16"/>
+      <c r="F911" s="16"/>
       <c r="G911" s="13"/>
       <c r="H911" s="13"/>
     </row>
     <row r="912">
       <c r="A912" s="13"/>
-      <c r="E912" s="14"/>
-      <c r="F912" s="14"/>
+      <c r="E912" s="16"/>
+      <c r="F912" s="16"/>
       <c r="G912" s="13"/>
       <c r="H912" s="13"/>
     </row>
     <row r="913">
       <c r="A913" s="13"/>
-      <c r="E913" s="14"/>
-      <c r="F913" s="14"/>
+      <c r="E913" s="16"/>
+      <c r="F913" s="16"/>
       <c r="G913" s="13"/>
       <c r="H913" s="13"/>
     </row>
     <row r="914">
       <c r="A914" s="13"/>
-      <c r="E914" s="14"/>
-      <c r="F914" s="14"/>
+      <c r="E914" s="16"/>
+      <c r="F914" s="16"/>
       <c r="G914" s="13"/>
       <c r="H914" s="13"/>
     </row>
     <row r="915">
       <c r="A915" s="13"/>
-      <c r="E915" s="14"/>
-      <c r="F915" s="14"/>
+      <c r="E915" s="16"/>
+      <c r="F915" s="16"/>
       <c r="G915" s="13"/>
       <c r="H915" s="13"/>
     </row>
     <row r="916">
       <c r="A916" s="13"/>
-      <c r="E916" s="14"/>
-      <c r="F916" s="14"/>
+      <c r="E916" s="16"/>
+      <c r="F916" s="16"/>
       <c r="G916" s="13"/>
       <c r="H916" s="13"/>
     </row>
     <row r="917">
       <c r="A917" s="13"/>
-      <c r="E917" s="14"/>
-      <c r="F917" s="14"/>
+      <c r="E917" s="16"/>
+      <c r="F917" s="16"/>
       <c r="G917" s="13"/>
       <c r="H917" s="13"/>
     </row>
     <row r="918">
       <c r="A918" s="13"/>
-      <c r="E918" s="14"/>
-      <c r="F918" s="14"/>
+      <c r="E918" s="16"/>
+      <c r="F918" s="16"/>
       <c r="G918" s="13"/>
       <c r="H918" s="13"/>
     </row>
     <row r="919">
       <c r="A919" s="13"/>
-      <c r="E919" s="14"/>
-      <c r="F919" s="14"/>
+      <c r="E919" s="16"/>
+      <c r="F919" s="16"/>
       <c r="G919" s="13"/>
       <c r="H919" s="13"/>
     </row>
     <row r="920">
       <c r="A920" s="13"/>
-      <c r="E920" s="14"/>
-      <c r="F920" s="14"/>
+      <c r="E920" s="16"/>
+      <c r="F920" s="16"/>
       <c r="G920" s="13"/>
       <c r="H920" s="13"/>
     </row>
     <row r="921">
       <c r="A921" s="13"/>
-      <c r="E921" s="14"/>
-      <c r="F921" s="14"/>
+      <c r="E921" s="16"/>
+      <c r="F921" s="16"/>
       <c r="G921" s="13"/>
       <c r="H921" s="13"/>
     </row>
     <row r="922">
       <c r="A922" s="13"/>
-      <c r="E922" s="14"/>
-      <c r="F922" s="14"/>
+      <c r="E922" s="16"/>
+      <c r="F922" s="16"/>
       <c r="G922" s="13"/>
       <c r="H922" s="13"/>
     </row>
     <row r="923">
       <c r="A923" s="13"/>
-      <c r="E923" s="14"/>
-      <c r="F923" s="14"/>
+      <c r="E923" s="16"/>
+      <c r="F923" s="16"/>
       <c r="G923" s="13"/>
       <c r="H923" s="13"/>
     </row>
     <row r="924">
       <c r="A924" s="13"/>
-      <c r="E924" s="14"/>
-      <c r="F924" s="14"/>
+      <c r="E924" s="16"/>
+      <c r="F924" s="16"/>
       <c r="G924" s="13"/>
       <c r="H924" s="13"/>
     </row>
     <row r="925">
       <c r="A925" s="13"/>
-      <c r="E925" s="14"/>
-      <c r="F925" s="14"/>
+      <c r="E925" s="16"/>
+      <c r="F925" s="16"/>
       <c r="G925" s="13"/>
       <c r="H925" s="13"/>
     </row>
     <row r="926">
       <c r="A926" s="13"/>
-      <c r="E926" s="14"/>
-      <c r="F926" s="14"/>
+      <c r="E926" s="16"/>
+      <c r="F926" s="16"/>
       <c r="G926" s="13"/>
       <c r="H926" s="13"/>
     </row>
     <row r="927">
       <c r="A927" s="13"/>
-      <c r="E927" s="14"/>
-      <c r="F927" s="14"/>
+      <c r="E927" s="16"/>
+      <c r="F927" s="16"/>
       <c r="G927" s="13"/>
       <c r="H927" s="13"/>
     </row>
     <row r="928">
       <c r="A928" s="13"/>
-      <c r="E928" s="14"/>
-      <c r="F928" s="14"/>
+      <c r="E928" s="16"/>
+      <c r="F928" s="16"/>
       <c r="G928" s="13"/>
       <c r="H928" s="13"/>
     </row>
     <row r="929">
       <c r="A929" s="13"/>
-      <c r="E929" s="14"/>
-      <c r="F929" s="14"/>
+      <c r="E929" s="16"/>
+      <c r="F929" s="16"/>
       <c r="G929" s="13"/>
       <c r="H929" s="13"/>
     </row>
     <row r="930">
       <c r="A930" s="13"/>
-      <c r="E930" s="14"/>
-      <c r="F930" s="14"/>
+      <c r="E930" s="16"/>
+      <c r="F930" s="16"/>
       <c r="G930" s="13"/>
       <c r="H930" s="13"/>
     </row>
     <row r="931">
       <c r="A931" s="13"/>
-      <c r="E931" s="14"/>
-      <c r="F931" s="14"/>
+      <c r="E931" s="16"/>
+      <c r="F931" s="16"/>
       <c r="G931" s="13"/>
       <c r="H931" s="13"/>
     </row>
     <row r="932">
       <c r="A932" s="13"/>
-      <c r="E932" s="14"/>
-      <c r="F932" s="14"/>
+      <c r="E932" s="16"/>
+      <c r="F932" s="16"/>
       <c r="G932" s="13"/>
       <c r="H932" s="13"/>
     </row>
     <row r="933">
       <c r="A933" s="13"/>
-      <c r="E933" s="14"/>
-      <c r="F933" s="14"/>
+      <c r="E933" s="16"/>
+      <c r="F933" s="16"/>
       <c r="G933" s="13"/>
       <c r="H933" s="13"/>
     </row>
     <row r="934">
       <c r="A934" s="13"/>
-      <c r="E934" s="14"/>
-      <c r="F934" s="14"/>
+      <c r="E934" s="16"/>
+      <c r="F934" s="16"/>
       <c r="G934" s="13"/>
       <c r="H934" s="13"/>
     </row>
     <row r="935">
       <c r="A935" s="13"/>
-      <c r="E935" s="14"/>
-      <c r="F935" s="14"/>
+      <c r="E935" s="16"/>
+      <c r="F935" s="16"/>
       <c r="G935" s="13"/>
       <c r="H935" s="13"/>
     </row>
     <row r="936">
       <c r="A936" s="13"/>
-      <c r="E936" s="14"/>
-      <c r="F936" s="14"/>
+      <c r="E936" s="16"/>
+      <c r="F936" s="16"/>
       <c r="G936" s="13"/>
       <c r="H936" s="13"/>
     </row>
     <row r="937">
       <c r="A937" s="13"/>
-      <c r="E937" s="14"/>
-      <c r="F937" s="14"/>
+      <c r="E937" s="16"/>
+      <c r="F937" s="16"/>
       <c r="G937" s="13"/>
       <c r="H937" s="13"/>
     </row>
     <row r="938">
       <c r="A938" s="13"/>
-      <c r="E938" s="14"/>
-      <c r="F938" s="14"/>
+      <c r="E938" s="16"/>
+      <c r="F938" s="16"/>
       <c r="G938" s="13"/>
       <c r="H938" s="13"/>
     </row>
     <row r="939">
       <c r="A939" s="13"/>
-      <c r="E939" s="14"/>
-      <c r="F939" s="14"/>
+      <c r="E939" s="16"/>
+      <c r="F939" s="16"/>
       <c r="G939" s="13"/>
       <c r="H939" s="13"/>
     </row>
     <row r="940">
       <c r="A940" s="13"/>
-      <c r="E940" s="14"/>
-      <c r="F940" s="14"/>
+      <c r="E940" s="16"/>
+      <c r="F940" s="16"/>
       <c r="G940" s="13"/>
       <c r="H940" s="13"/>
     </row>
     <row r="941">
       <c r="A941" s="13"/>
-      <c r="E941" s="14"/>
-      <c r="F941" s="14"/>
+      <c r="E941" s="16"/>
+      <c r="F941" s="16"/>
       <c r="G941" s="13"/>
       <c r="H941" s="13"/>
     </row>
     <row r="942">
       <c r="A942" s="13"/>
-      <c r="E942" s="14"/>
-      <c r="F942" s="14"/>
+      <c r="E942" s="16"/>
+      <c r="F942" s="16"/>
       <c r="G942" s="13"/>
       <c r="H942" s="13"/>
     </row>
     <row r="943">
       <c r="A943" s="13"/>
-      <c r="E943" s="14"/>
-      <c r="F943" s="14"/>
+      <c r="E943" s="16"/>
+      <c r="F943" s="16"/>
       <c r="G943" s="13"/>
       <c r="H943" s="13"/>
     </row>
     <row r="944">
       <c r="A944" s="13"/>
-      <c r="E944" s="14"/>
-      <c r="F944" s="14"/>
+      <c r="E944" s="16"/>
+      <c r="F944" s="16"/>
       <c r="G944" s="13"/>
       <c r="H944" s="13"/>
     </row>
     <row r="945">
       <c r="A945" s="13"/>
-      <c r="E945" s="14"/>
-      <c r="F945" s="14"/>
+      <c r="E945" s="16"/>
+      <c r="F945" s="16"/>
       <c r="G945" s="13"/>
       <c r="H945" s="13"/>
     </row>
     <row r="946">
       <c r="A946" s="13"/>
-      <c r="E946" s="14"/>
-      <c r="F946" s="14"/>
+      <c r="E946" s="16"/>
+      <c r="F946" s="16"/>
       <c r="G946" s="13"/>
       <c r="H946" s="13"/>
     </row>
     <row r="947">
       <c r="A947" s="13"/>
-      <c r="E947" s="14"/>
-      <c r="F947" s="14"/>
+      <c r="E947" s="16"/>
+      <c r="F947" s="16"/>
       <c r="G947" s="13"/>
       <c r="H947" s="13"/>
     </row>
     <row r="948">
       <c r="A948" s="13"/>
-      <c r="E948" s="14"/>
-      <c r="F948" s="14"/>
+      <c r="E948" s="16"/>
+      <c r="F948" s="16"/>
       <c r="G948" s="13"/>
       <c r="H948" s="13"/>
     </row>
     <row r="949">
       <c r="A949" s="13"/>
-      <c r="E949" s="14"/>
-      <c r="F949" s="14"/>
+      <c r="E949" s="16"/>
+      <c r="F949" s="16"/>
       <c r="G949" s="13"/>
       <c r="H949" s="13"/>
     </row>
     <row r="950">
       <c r="A950" s="13"/>
-      <c r="E950" s="14"/>
-      <c r="F950" s="14"/>
+      <c r="E950" s="16"/>
+      <c r="F950" s="16"/>
       <c r="G950" s="13"/>
       <c r="H950" s="13"/>
     </row>
     <row r="951">
       <c r="A951" s="13"/>
-      <c r="E951" s="14"/>
-      <c r="F951" s="14"/>
+      <c r="E951" s="16"/>
+      <c r="F951" s="16"/>
       <c r="G951" s="13"/>
       <c r="H951" s="13"/>
     </row>
     <row r="952">
       <c r="A952" s="13"/>
-      <c r="E952" s="14"/>
-      <c r="F952" s="14"/>
+      <c r="E952" s="16"/>
+      <c r="F952" s="16"/>
       <c r="G952" s="13"/>
       <c r="H952" s="13"/>
     </row>
     <row r="953">
       <c r="A953" s="13"/>
-      <c r="E953" s="14"/>
-      <c r="F953" s="14"/>
+      <c r="E953" s="16"/>
+      <c r="F953" s="16"/>
       <c r="G953" s="13"/>
       <c r="H953" s="13"/>
     </row>
     <row r="954">
       <c r="A954" s="13"/>
-      <c r="E954" s="14"/>
-      <c r="F954" s="14"/>
+      <c r="E954" s="16"/>
+      <c r="F954" s="16"/>
       <c r="G954" s="13"/>
       <c r="H954" s="13"/>
     </row>
     <row r="955">
       <c r="A955" s="13"/>
-      <c r="E955" s="14"/>
-      <c r="F955" s="14"/>
+      <c r="E955" s="16"/>
+      <c r="F955" s="16"/>
       <c r="G955" s="13"/>
       <c r="H955" s="13"/>
     </row>
     <row r="956">
       <c r="A956" s="13"/>
-      <c r="E956" s="14"/>
-      <c r="F956" s="14"/>
+      <c r="E956" s="16"/>
+      <c r="F956" s="16"/>
       <c r="G956" s="13"/>
       <c r="H956" s="13"/>
     </row>
     <row r="957">
       <c r="A957" s="13"/>
-      <c r="E957" s="14"/>
-      <c r="F957" s="14"/>
+      <c r="E957" s="16"/>
+      <c r="F957" s="16"/>
       <c r="G957" s="13"/>
       <c r="H957" s="13"/>
     </row>
     <row r="958">
       <c r="A958" s="13"/>
-      <c r="E958" s="14"/>
-      <c r="F958" s="14"/>
+      <c r="E958" s="16"/>
+      <c r="F958" s="16"/>
       <c r="G958" s="13"/>
       <c r="H958" s="13"/>
     </row>
     <row r="959">
       <c r="A959" s="13"/>
-      <c r="E959" s="14"/>
-      <c r="F959" s="14"/>
+      <c r="E959" s="16"/>
+      <c r="F959" s="16"/>
       <c r="G959" s="13"/>
       <c r="H959" s="13"/>
     </row>
     <row r="960">
       <c r="A960" s="13"/>
-      <c r="E960" s="14"/>
-      <c r="F960" s="14"/>
+      <c r="E960" s="16"/>
+      <c r="F960" s="16"/>
       <c r="G960" s="13"/>
       <c r="H960" s="13"/>
     </row>
     <row r="961">
       <c r="A961" s="13"/>
-      <c r="E961" s="14"/>
-      <c r="F961" s="14"/>
+      <c r="E961" s="16"/>
+      <c r="F961" s="16"/>
       <c r="G961" s="13"/>
       <c r="H961" s="13"/>
     </row>
     <row r="962">
       <c r="A962" s="13"/>
-      <c r="E962" s="14"/>
-      <c r="F962" s="14"/>
+      <c r="E962" s="16"/>
+      <c r="F962" s="16"/>
       <c r="G962" s="13"/>
       <c r="H962" s="13"/>
     </row>
     <row r="963">
       <c r="A963" s="13"/>
-      <c r="E963" s="14"/>
-      <c r="F963" s="14"/>
+      <c r="E963" s="16"/>
+      <c r="F963" s="16"/>
       <c r="G963" s="13"/>
       <c r="H963" s="13"/>
     </row>
     <row r="964">
       <c r="A964" s="13"/>
-      <c r="E964" s="14"/>
-      <c r="F964" s="14"/>
+      <c r="E964" s="16"/>
+      <c r="F964" s="16"/>
       <c r="G964" s="13"/>
       <c r="H964" s="13"/>
     </row>
     <row r="965">
       <c r="A965" s="13"/>
-      <c r="E965" s="14"/>
-      <c r="F965" s="14"/>
+      <c r="E965" s="16"/>
+      <c r="F965" s="16"/>
       <c r="G965" s="13"/>
       <c r="H965" s="13"/>
     </row>
     <row r="966">
       <c r="A966" s="13"/>
-      <c r="E966" s="14"/>
-      <c r="F966" s="14"/>
+      <c r="E966" s="16"/>
+      <c r="F966" s="16"/>
       <c r="G966" s="13"/>
       <c r="H966" s="13"/>
     </row>
     <row r="967">
       <c r="A967" s="13"/>
-      <c r="E967" s="14"/>
-      <c r="F967" s="14"/>
+      <c r="E967" s="16"/>
+      <c r="F967" s="16"/>
       <c r="G967" s="13"/>
       <c r="H967" s="13"/>
     </row>
     <row r="968">
       <c r="A968" s="13"/>
-      <c r="E968" s="14"/>
-      <c r="F968" s="14"/>
+      <c r="E968" s="16"/>
+      <c r="F968" s="16"/>
       <c r="G968" s="13"/>
       <c r="H968" s="13"/>
     </row>
     <row r="969">
       <c r="A969" s="13"/>
-      <c r="E969" s="14"/>
-      <c r="F969" s="14"/>
+      <c r="E969" s="16"/>
+      <c r="F969" s="16"/>
       <c r="G969" s="13"/>
       <c r="H969" s="13"/>
     </row>
     <row r="970">
       <c r="A970" s="13"/>
-      <c r="E970" s="14"/>
-      <c r="F970" s="14"/>
+      <c r="E970" s="16"/>
+      <c r="F970" s="16"/>
       <c r="G970" s="13"/>
       <c r="H970" s="13"/>
     </row>
     <row r="971">
       <c r="A971" s="13"/>
-      <c r="E971" s="14"/>
-      <c r="F971" s="14"/>
+      <c r="E971" s="16"/>
+      <c r="F971" s="16"/>
       <c r="G971" s="13"/>
       <c r="H971" s="13"/>
     </row>
     <row r="972">
       <c r="A972" s="13"/>
-      <c r="E972" s="14"/>
-      <c r="F972" s="14"/>
+      <c r="E972" s="16"/>
+      <c r="F972" s="16"/>
       <c r="G972" s="13"/>
       <c r="H972" s="13"/>
     </row>
     <row r="973">
       <c r="A973" s="13"/>
-      <c r="E973" s="14"/>
-      <c r="F973" s="14"/>
+      <c r="E973" s="16"/>
+      <c r="F973" s="16"/>
       <c r="G973" s="13"/>
       <c r="H973" s="13"/>
     </row>
     <row r="974">
       <c r="A974" s="13"/>
-      <c r="E974" s="14"/>
-      <c r="F974" s="14"/>
+      <c r="E974" s="16"/>
+      <c r="F974" s="16"/>
       <c r="G974" s="13"/>
       <c r="H974" s="13"/>
     </row>
     <row r="975">
       <c r="A975" s="13"/>
-      <c r="E975" s="14"/>
-      <c r="F975" s="14"/>
+      <c r="E975" s="16"/>
+      <c r="F975" s="16"/>
       <c r="G975" s="13"/>
       <c r="H975" s="13"/>
     </row>
     <row r="976">
       <c r="A976" s="13"/>
-      <c r="E976" s="14"/>
-      <c r="F976" s="14"/>
+      <c r="E976" s="16"/>
+      <c r="F976" s="16"/>
       <c r="G976" s="13"/>
       <c r="H976" s="13"/>
     </row>
     <row r="977">
       <c r="A977" s="13"/>
-      <c r="E977" s="14"/>
-      <c r="F977" s="14"/>
+      <c r="E977" s="16"/>
+      <c r="F977" s="16"/>
       <c r="G977" s="13"/>
       <c r="H977" s="13"/>
     </row>
     <row r="978">
       <c r="A978" s="13"/>
-      <c r="E978" s="14"/>
-      <c r="F978" s="14"/>
+      <c r="E978" s="16"/>
+      <c r="F978" s="16"/>
       <c r="G978" s="13"/>
       <c r="H978" s="13"/>
     </row>
     <row r="979">
       <c r="A979" s="13"/>
-      <c r="E979" s="14"/>
-      <c r="F979" s="14"/>
+      <c r="E979" s="16"/>
+      <c r="F979" s="16"/>
       <c r="G979" s="13"/>
       <c r="H979" s="13"/>
     </row>
     <row r="980">
       <c r="A980" s="13"/>
-      <c r="E980" s="14"/>
-      <c r="F980" s="14"/>
+      <c r="E980" s="16"/>
+      <c r="F980" s="16"/>
       <c r="G980" s="13"/>
       <c r="H980" s="13"/>
     </row>
     <row r="981">
       <c r="A981" s="13"/>
-      <c r="E981" s="14"/>
-      <c r="F981" s="14"/>
+      <c r="E981" s="16"/>
+      <c r="F981" s="16"/>
       <c r="G981" s="13"/>
       <c r="H981" s="13"/>
     </row>
     <row r="982">
       <c r="A982" s="13"/>
-      <c r="E982" s="14"/>
-      <c r="F982" s="14"/>
+      <c r="E982" s="16"/>
+      <c r="F982" s="16"/>
       <c r="G982" s="13"/>
       <c r="H982" s="13"/>
     </row>
     <row r="983">
       <c r="A983" s="13"/>
-      <c r="E983" s="14"/>
-      <c r="F983" s="14"/>
+      <c r="E983" s="16"/>
+      <c r="F983" s="16"/>
       <c r="G983" s="13"/>
       <c r="H983" s="13"/>
     </row>
     <row r="984">
       <c r="A984" s="13"/>
-      <c r="E984" s="14"/>
-      <c r="F984" s="14"/>
+      <c r="E984" s="16"/>
+      <c r="F984" s="16"/>
       <c r="G984" s="13"/>
       <c r="H984" s="13"/>
     </row>
     <row r="985">
       <c r="A985" s="13"/>
-      <c r="E985" s="14"/>
-      <c r="F985" s="14"/>
+      <c r="E985" s="16"/>
+      <c r="F985" s="16"/>
       <c r="G985" s="13"/>
       <c r="H985" s="13"/>
     </row>
     <row r="986">
       <c r="A986" s="13"/>
-      <c r="E986" s="14"/>
-      <c r="F986" s="14"/>
+      <c r="E986" s="16"/>
+      <c r="F986" s="16"/>
       <c r="G986" s="13"/>
       <c r="H986" s="13"/>
     </row>
     <row r="987">
       <c r="A987" s="13"/>
-      <c r="E987" s="14"/>
-      <c r="F987" s="14"/>
+      <c r="E987" s="16"/>
+      <c r="F987" s="16"/>
       <c r="G987" s="13"/>
       <c r="H987" s="13"/>
     </row>
     <row r="988">
       <c r="A988" s="13"/>
-      <c r="E988" s="14"/>
-      <c r="F988" s="14"/>
+      <c r="E988" s="16"/>
+      <c r="F988" s="16"/>
       <c r="G988" s="13"/>
       <c r="H988" s="13"/>
     </row>
     <row r="989">
       <c r="A989" s="13"/>
-      <c r="E989" s="14"/>
-      <c r="F989" s="14"/>
+      <c r="E989" s="16"/>
+      <c r="F989" s="16"/>
       <c r="G989" s="13"/>
       <c r="H989" s="13"/>
     </row>
     <row r="990">
       <c r="A990" s="13"/>
-      <c r="E990" s="14"/>
-      <c r="F990" s="14"/>
+      <c r="E990" s="16"/>
+      <c r="F990" s="16"/>
       <c r="G990" s="13"/>
       <c r="H990" s="13"/>
     </row>
     <row r="991">
       <c r="A991" s="13"/>
-      <c r="E991" s="14"/>
-      <c r="F991" s="14"/>
+      <c r="E991" s="16"/>
+      <c r="F991" s="16"/>
       <c r="G991" s="13"/>
       <c r="H991" s="13"/>
     </row>
     <row r="992">
       <c r="A992" s="13"/>
-      <c r="E992" s="14"/>
-      <c r="F992" s="14"/>
+      <c r="E992" s="16"/>
+      <c r="F992" s="16"/>
       <c r="G992" s="13"/>
       <c r="H992" s="13"/>
     </row>
     <row r="993">
       <c r="A993" s="13"/>
-      <c r="E993" s="14"/>
-      <c r="F993" s="14"/>
+      <c r="E993" s="16"/>
+      <c r="F993" s="16"/>
       <c r="G993" s="13"/>
       <c r="H993" s="13"/>
     </row>
     <row r="994">
       <c r="A994" s="13"/>
-      <c r="E994" s="14"/>
-      <c r="F994" s="14"/>
+      <c r="E994" s="16"/>
+      <c r="F994" s="16"/>
       <c r="G994" s="13"/>
       <c r="H994" s="13"/>
     </row>
     <row r="995">
       <c r="A995" s="13"/>
-      <c r="E995" s="14"/>
-      <c r="F995" s="14"/>
+      <c r="E995" s="16"/>
+      <c r="F995" s="16"/>
       <c r="G995" s="13"/>
       <c r="H995" s="13"/>
     </row>
     <row r="996">
       <c r="A996" s="13"/>
-      <c r="E996" s="14"/>
-      <c r="F996" s="14"/>
+      <c r="E996" s="16"/>
+      <c r="F996" s="16"/>
       <c r="G996" s="13"/>
       <c r="H996" s="13"/>
     </row>
     <row r="997">
       <c r="A997" s="13"/>
-      <c r="E997" s="14"/>
-      <c r="F997" s="14"/>
+      <c r="E997" s="16"/>
+      <c r="F997" s="16"/>
       <c r="G997" s="13"/>
       <c r="H997" s="13"/>
     </row>
     <row r="998">
       <c r="A998" s="13"/>
-      <c r="E998" s="14"/>
-      <c r="F998" s="14"/>
+      <c r="E998" s="16"/>
+      <c r="F998" s="16"/>
       <c r="G998" s="13"/>
       <c r="H998" s="13"/>
     </row>
     <row r="999">
       <c r="A999" s="13"/>
-      <c r="E999" s="14"/>
-      <c r="F999" s="14"/>
+      <c r="E999" s="16"/>
+      <c r="F999" s="16"/>
       <c r="G999" s="13"/>
       <c r="H999" s="13"/>
     </row>
     <row r="1000">
       <c r="A1000" s="13"/>
-      <c r="E1000" s="14"/>
-      <c r="F1000" s="14"/>
+      <c r="E1000" s="16"/>
+      <c r="F1000" s="16"/>
       <c r="G1000" s="13"/>
       <c r="H1000" s="13"/>
     </row>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -8089,21 +8089,21 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10">
         <v>0.0</v>
@@ -8111,21 +8111,21 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>50</v>
@@ -11164,34 +11164,34 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -11236,36 +11236,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
@@ -11392,7 +11392,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4">
         <v>1.0</v>
@@ -11434,7 +11434,7 @@
         <v>129</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4">
         <v>1.0</v>
@@ -11516,7 +11516,9 @@
       <c r="D1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -11552,6 +11554,9 @@
       <c r="D2" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="E2" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -11566,6 +11571,9 @@
       <c r="D3" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="E3" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
@@ -11580,7 +11588,9 @@
       <c r="D4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="6">
+        <v>2.0</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -11943,7 +11953,7 @@
         <v>129</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="24" t="str">
@@ -12216,7 +12226,7 @@
         <v>129</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="24" t="str">
@@ -12489,7 +12499,7 @@
         <v>129</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="24" t="str">

--- a/SSoT/twolaat.xlsx
+++ b/SSoT/twolaat.xlsx
@@ -22,19 +22,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t>HexValue</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>InitialValue</t>
   </si>
   <si>
     <t>WayNumber</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>InitialValue</t>
+    <t>HexValue</t>
   </si>
   <si>
     <t>DisplayWayNumber</t>
@@ -46,10 +43,31 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>Disadvantages</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>W01</t>
+  </si>
+  <si>
     <t>#000000</t>
   </si>
   <si>
     <t>Red</t>
+  </si>
+  <si>
+    <t>0x0</t>
   </si>
   <si>
     <t>#FF0000</t>
@@ -64,21 +82,6 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Advantages</t>
-  </si>
-  <si>
-    <t>Disadvantages</t>
-  </si>
-  <si>
-    <t>W01</t>
-  </si>
-  <si>
-    <t>#00FF00</t>
-  </si>
-  <si>
     <t>Way 01</t>
   </si>
   <si>
@@ -91,11 +94,23 @@
     <t>Simple OO -- a class with mutable state</t>
   </si>
   <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Degrees</t>
+  </si>
+  <si>
     <t>In this design, a simple OO class represents the turtle,
 and the client talks to the turtle directly.</t>
   </si>
   <si>
+    <t>Color</t>
+  </si>
+  <si>
     <t>W02</t>
+  </si>
+  <si>
+    <t>PenState</t>
   </si>
   <si>
     <t>Way 02</t>
@@ -108,12 +123,6 @@
   </si>
   <si>
     <t>Simple FP - a module of functions with immutable state</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>0x0</t>
   </si>
   <si>
     <t>In this design, the turtle state is immutable. A module contains functions that return a new turtle state,
@@ -134,6 +143,9 @@
   </si>
   <si>
     <t>API (OO Approach) -- OO API calling stateful core class</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
   </si>
   <si>
     <t>In this design, an API layer communicates with a turtle class
@@ -164,18 +176,6 @@
   </si>
   <si>
     <t>W05</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>Degrees</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>PenState</t>
   </si>
   <si>
     <t>Down</t>
@@ -373,6 +373,12 @@
     <t>Abstract Data Turtle - a private type with an associated module of functions</t>
   </si>
   <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>The pen is up (not drawing)</t>
+  </si>
+  <si>
     <t>In this design, the details of the turtle structure is hidden from the client,
 so the it could be changed without breaking any code.
 See https://www.reddit.com/r/fsharp/comments/36s0zr/structuring_f_programs_with_abstract_data_types/?
@@ -380,6 +386,15 @@
   </si>
   <si>
     <t>W15</t>
+  </si>
+  <si>
+    <t>The pne is down (drawing)</t>
+  </si>
+  <si>
+    <t>Moving</t>
+  </si>
+  <si>
+    <t>The pen is in motion</t>
   </si>
   <si>
     <t>15-CapabilityBasedTurtle.fsx</t>
@@ -394,21 +409,6 @@
     <t>In this design, the turtle exposes a list of functions (capabilities) after each action.
 These are the ONLY actions available to the client
 More on capability-based security at http://fsharpforfunandprofit.com/posts/capability-based-security/</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>The pen is up (not drawing)</t>
-  </si>
-  <si>
-    <t>The pne is down (drawing)</t>
-  </si>
-  <si>
-    <t>Moving</t>
-  </si>
-  <si>
-    <t>The pen is in motion</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -549,14 +549,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -585,35 +585,35 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,27 +634,27 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -662,7 +662,7 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -718,493 +718,493 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
+      <c r="A1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
+      <c r="A2" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="str">
         <f t="shared" ref="B6:B19" si="1">CONCATENATE("Way ",right(A6,2))</f>
         <v>Way 05</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 06</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 06</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 07</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 07</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 08</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 09</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>107</v>
+      <c r="F18" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>108</v>
+      <c r="A19" s="6" t="s">
+        <v>110</v>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Way 15</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>109</v>
+      <c r="C19" s="5" t="s">
+        <v>114</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>110</v>
+      <c r="D19" s="5" t="s">
+        <v>115</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>111</v>
+      <c r="E19" s="8" t="s">
+        <v>116</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>112</v>
+      <c r="F19" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="13"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="16"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="16"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="13"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="16"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="13"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="16"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -8058,76 +8058,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11136,86 +11136,86 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
+      <c r="A2" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11240,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -11268,52 +11268,52 @@
       <c r="Z1" s="15"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11335,7 +11335,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>118</v>
@@ -11349,140 +11349,140 @@
       <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>1.0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>47</v>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>1.0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>1.0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>113</v>
+      <c r="F4" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>1.0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>48</v>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>1.0</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <v>2.0</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11511,7 +11511,7 @@
         <v>132</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>133</v>
@@ -11542,76 +11542,76 @@
       <c r="Z1" s="18"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="4" t="b">
+      <c r="D2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="4" t="b">
+      <c r="D3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="6" t="b">
+      <c r="D4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="10">
         <v>2.0</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11647,7 +11647,7 @@
         <v>143</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>144</v>
@@ -11676,11 +11676,11 @@
       <c r="AA1" s="22"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="str">
+      <c r="A2" s="5" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="23">
@@ -11714,11 +11714,11 @@
       <c r="AA2" s="25"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C3" s="23">
@@ -11752,11 +11752,11 @@
       <c r="AA3" s="25"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="23">
@@ -11790,11 +11790,11 @@
       <c r="AA4" s="25"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="str">
+      <c r="A5" s="5" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C5" s="23">
@@ -11828,11 +11828,11 @@
       <c r="AA5" s="25"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="str">
+      <c r="A6" s="5" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="23">
@@ -11866,11 +11866,11 @@
       <c r="AA6" s="25"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="str">
+      <c r="A7" s="5" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="23">
@@ -11953,7 +11953,7 @@
         <v>129</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="24" t="str">
@@ -12226,7 +12226,7 @@
         <v>129</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="24" t="str">
@@ -12499,7 +12499,7 @@
         <v>129</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="24" t="str">
@@ -12608,17 +12608,17 @@
       <c r="AA25" s="29"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="str">
+      <c r="A26" s="10" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="33">
         <v>100.0</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="24" t="str">
         <f>vlookup(B26,TurtleCommands!A$2:C31,3,false)</f>
         <v>Distance</v>
@@ -12647,17 +12647,17 @@
       <c r="AA26" s="25"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="str">
+      <c r="A27" s="10" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C27" s="33">
         <v>90.0</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="24" t="str">
         <f>vlookup(B27,TurtleCommands!A$2:C32,3,false)</f>
         <v>Degrees</v>
@@ -12686,17 +12686,17 @@
       <c r="AA27" s="25"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="str">
+      <c r="A28" s="10" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="33">
         <v>100.0</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="24" t="str">
         <f>vlookup(B28,TurtleCommands!A$2:C33,3,false)</f>
         <v>Distance</v>
@@ -12725,17 +12725,17 @@
       <c r="AA28" s="25"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="str">
+      <c r="A29" s="10" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C29" s="33">
         <v>90.0</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="24" t="str">
         <f>vlookup(B29,TurtleCommands!A$2:C34,3,false)</f>
         <v>Degrees</v>
@@ -12764,17 +12764,17 @@
       <c r="AA29" s="25"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="str">
+      <c r="A30" s="10" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C30" s="33">
         <v>100.0</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="24" t="str">
         <f>vlookup(B30,TurtleCommands!A$2:C35,3,false)</f>
         <v>Distance</v>
@@ -12803,17 +12803,17 @@
       <c r="AA30" s="25"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="str">
+      <c r="A31" s="10" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C31" s="33">
         <v>90.0</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="24" t="str">
         <f>vlookup(B31,TurtleCommands!A$2:C36,3,false)</f>
         <v>Degrees</v>
@@ -12842,17 +12842,17 @@
       <c r="AA31" s="25"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="str">
+      <c r="A32" s="10" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C32" s="33">
         <v>100.0</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="24" t="str">
         <f>vlookup(B32,TurtleCommands!A$2:C37,3,false)</f>
         <v>Distance</v>
@@ -12881,17 +12881,17 @@
       <c r="AA32" s="25"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="str">
+      <c r="A33" s="10" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C33" s="33">
         <v>90.0</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="24" t="str">
         <f>vlookup(B33,TurtleCommands!A$2:C38,3,false)</f>
         <v>Degrees</v>

--- a/SSoT/twolaat.xlsx
+++ b/SSoT/twolaat.xlsx
@@ -22,13 +22,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>WayNumber</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>InitialValue</t>
+  </si>
+  <si>
+    <t>WayNumber</t>
   </si>
   <si>
     <t>DisplayWayNumber</t>
@@ -37,34 +37,16 @@
     <t>MainFileName</t>
   </si>
   <si>
+    <t>HexValue</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>HexValue</t>
+    <t>Black</t>
   </si>
   <si>
     <t>Position</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Advantages</t>
-  </si>
-  <si>
-    <t>Disadvantages</t>
-  </si>
-  <si>
-    <t>0x0</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>Degrees</t>
-  </si>
-  <si>
-    <t>Black</t>
   </si>
   <si>
     <t>#000000</t>
@@ -82,10 +64,25 @@
     <t>#0000FF</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>Disadvantages</t>
+  </si>
+  <si>
     <t>W01</t>
   </si>
   <si>
-    <t>Green</t>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>0x0</t>
   </si>
   <si>
     <t>Way 01</t>
@@ -100,11 +97,17 @@
     <t>Simple OO -- a class with mutable state</t>
   </si>
   <si>
-    <t>#00FF00</t>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Degrees</t>
   </si>
   <si>
     <t>In this design, a simple OO class represents the turtle,
 and the client talks to the turtle directly.</t>
+  </si>
+  <si>
+    <t>Color</t>
   </si>
   <si>
     <t>W02</t>
@@ -116,16 +119,13 @@
     <t>02-FPTurtle.fsx</t>
   </si>
   <si>
+    <t>PenState</t>
+  </si>
+  <si>
     <t>FPTurtle</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>Simple FP - a module of functions with immutable state</t>
-  </si>
-  <si>
-    <t>PenState</t>
   </si>
   <si>
     <t>In this design, the turtle state is immutable. A module contains functions that return a new turtle state,
@@ -154,6 +154,9 @@
 input and returns a Result containing any errors.</t>
   </si>
   <si>
+    <t>Down</t>
+  </si>
+  <si>
     <t>W04</t>
   </si>
   <si>
@@ -167,9 +170,6 @@
   </si>
   <si>
     <t>API (OO/FP hybrid approach) -- OO API calling stateless functions</t>
-  </si>
-  <si>
-    <t>Down</t>
   </si>
   <si>
     <t>In this design, an API layer communicates with pure turtle functions
@@ -215,7 +215,22 @@
 The client injects a specific turtle implementation via the API's constructor.</t>
   </si>
   <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>The pen is up (not drawing)</t>
+  </si>
+  <si>
+    <t>The pne is down (drawing)</t>
+  </si>
+  <si>
+    <t>Moving</t>
+  </si>
+  <si>
     <t>06-DependencyInjection_Interface-2.fsx</t>
+  </si>
+  <si>
+    <t>The pen is in motion</t>
   </si>
   <si>
     <t>DependencyInjection_Interface2</t>
@@ -391,24 +406,9 @@
     <t>API with capabilities</t>
   </si>
   <si>
-    <t>Up</t>
-  </si>
-  <si>
     <t>In this design, the turtle exposes a list of functions (capabilities) after each action.
 These are the ONLY actions available to the client
 More on capability-based security at http://fsharpforfunandprofit.com/posts/capability-based-security/</t>
-  </si>
-  <si>
-    <t>The pen is up (not drawing)</t>
-  </si>
-  <si>
-    <t>The pne is down (drawing)</t>
-  </si>
-  <si>
-    <t>Moving</t>
-  </si>
-  <si>
-    <t>The pen is in motion</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -465,22 +465,19 @@
     <t>int</t>
   </si>
   <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
     <t>PredefinedScript</t>
   </si>
   <si>
     <t>Command</t>
   </si>
   <si>
-    <t>DisplayName</t>
-  </si>
-  <si>
     <t>Argument</t>
-  </si>
-  <si>
-    <t>IsActive</t>
-  </si>
-  <si>
-    <t>ArgumentType</t>
   </si>
   <si>
     <t>Triangle</t>
@@ -496,6 +493,9 @@
   </si>
   <si>
     <t>Draw three paralell lines of length 100, 50 pixels apart</t>
+  </si>
+  <si>
+    <t>ArgumentType</t>
   </si>
   <si>
     <t>Box</t>
@@ -561,14 +561,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -601,29 +601,29 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -639,34 +639,34 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -674,7 +674,7 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -731,7 +731,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -742,17 +742,17 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -777,446 +777,446 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
+      <c r="A2" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="4" t="str">
         <f t="shared" ref="B6:B19" si="1">CONCATENATE("Way ",right(A6,2))</f>
         <v>Way 05</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 06</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 06</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>60</v>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>61</v>
+      <c r="D8" s="4" t="s">
+        <v>66</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>62</v>
+      <c r="E8" s="10" t="s">
+        <v>67</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>63</v>
+      <c r="A9" s="8" t="s">
+        <v>68</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 07</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>64</v>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>65</v>
+      <c r="D9" s="4" t="s">
+        <v>70</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>66</v>
+      <c r="E9" s="10" t="s">
+        <v>71</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>67</v>
+      <c r="F9" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>63</v>
+      <c r="A10" s="8" t="s">
+        <v>68</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 07</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>68</v>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>69</v>
+      <c r="D10" s="4" t="s">
+        <v>74</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>70</v>
+      <c r="E10" s="10" t="s">
+        <v>75</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>67</v>
+      <c r="F10" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>71</v>
+      <c r="A11" s="8" t="s">
+        <v>76</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 08</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>72</v>
+      <c r="C11" s="4" t="s">
+        <v>77</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>73</v>
+      <c r="D11" s="4" t="s">
+        <v>78</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>74</v>
+      <c r="E11" s="10" t="s">
+        <v>79</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>75</v>
+      <c r="F11" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>76</v>
+      <c r="A12" s="8" t="s">
+        <v>81</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 09</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>77</v>
+      <c r="C12" s="4" t="s">
+        <v>82</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>78</v>
+      <c r="D12" s="4" t="s">
+        <v>83</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>79</v>
+      <c r="E12" s="10" t="s">
+        <v>84</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>80</v>
+      <c r="F12" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>81</v>
+      <c r="A13" s="8" t="s">
+        <v>86</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 10</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>82</v>
+      <c r="C13" s="4" t="s">
+        <v>87</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>83</v>
+      <c r="D13" s="4" t="s">
+        <v>88</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>84</v>
+      <c r="E13" s="10" t="s">
+        <v>89</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>85</v>
+      <c r="F13" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>86</v>
+      <c r="A14" s="8" t="s">
+        <v>91</v>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 11</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>87</v>
+      <c r="C14" s="4" t="s">
+        <v>92</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>88</v>
+      <c r="D14" s="4" t="s">
+        <v>93</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>89</v>
+      <c r="E14" s="10" t="s">
+        <v>94</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>90</v>
+      <c r="F14" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>91</v>
+      <c r="A15" s="8" t="s">
+        <v>96</v>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 12</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>92</v>
+      <c r="C15" s="4" t="s">
+        <v>97</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>93</v>
+      <c r="D15" s="4" t="s">
+        <v>98</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>94</v>
+      <c r="E15" s="10" t="s">
+        <v>99</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>95</v>
+      <c r="F15" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>96</v>
+      <c r="A16" s="8" t="s">
+        <v>101</v>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 13</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>97</v>
+      <c r="C16" s="4" t="s">
+        <v>102</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>98</v>
+      <c r="D16" s="4" t="s">
+        <v>103</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>99</v>
+      <c r="E16" s="10" t="s">
+        <v>104</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>100</v>
+      <c r="F16" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>96</v>
+      <c r="A17" s="8" t="s">
+        <v>101</v>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 13</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>101</v>
+      <c r="C17" s="4" t="s">
+        <v>106</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>102</v>
+      <c r="D17" s="4" t="s">
+        <v>107</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>99</v>
+      <c r="E17" s="10" t="s">
+        <v>104</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>100</v>
+      <c r="F17" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>103</v>
+      <c r="A18" s="8" t="s">
+        <v>108</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 14</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>104</v>
+      <c r="C18" s="4" t="s">
+        <v>109</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>105</v>
+      <c r="D18" s="4" t="s">
+        <v>110</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>106</v>
+      <c r="E18" s="10" t="s">
+        <v>111</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>107</v>
+      <c r="F18" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>108</v>
+      <c r="A19" s="8" t="s">
+        <v>113</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Way 15</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>109</v>
+      <c r="C19" s="4" t="s">
+        <v>114</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>110</v>
+      <c r="D19" s="4" t="s">
+        <v>115</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>111</v>
+      <c r="E19" s="10" t="s">
+        <v>116</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>113</v>
+      <c r="F19" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="13"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="16"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="16"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="13"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="16"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="13"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="16"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -8100,47 +8100,47 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
+      <c r="A2" s="4" t="s">
+        <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
+      <c r="A3" s="4" t="s">
+        <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="11">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>48</v>
+      <c r="C5" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -11175,59 +11175,59 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -11280,52 +11280,52 @@
       <c r="Z1" s="15"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>112</v>
+      <c r="A2" s="4" t="s">
+        <v>60</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>114</v>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>48</v>
+      <c r="A3" s="4" t="s">
+        <v>43</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>115</v>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>116</v>
+      <c r="A4" s="6" t="s">
+        <v>63</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>117</v>
+      <c r="B4" s="6" t="s">
+        <v>65</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>118</v>
@@ -11385,131 +11385,131 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1.0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1.0</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1.0</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>112</v>
+      <c r="G4" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1.0</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>48</v>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1.0</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>2.0</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11535,110 +11535,110 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>142</v>
+      <c r="D2" s="4" t="b">
+        <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="B3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="4">
         <v>1.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="8" t="b">
+      <c r="D4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>2.0</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11665,19 +11665,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="18" t="s">
         <v>139</v>
       </c>
+      <c r="C1" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="D1" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -11703,11 +11703,11 @@
       <c r="AA1" s="22"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="4" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C2" s="23">
@@ -11741,11 +11741,11 @@
       <c r="AA2" s="25"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C3" s="23">
@@ -11779,11 +11779,11 @@
       <c r="AA3" s="25"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="23">
@@ -11817,11 +11817,11 @@
       <c r="AA4" s="25"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="4" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C5" s="23">
@@ -11855,11 +11855,11 @@
       <c r="AA5" s="25"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="str">
+      <c r="A6" s="4" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="23">
@@ -11893,11 +11893,11 @@
       <c r="AA6" s="25"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="str">
+      <c r="A7" s="4" t="str">
         <f>PredifinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="23">
@@ -11980,7 +11980,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="24" t="str">
@@ -12253,7 +12253,7 @@
         <v>131</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="24" t="str">
@@ -12526,7 +12526,7 @@
         <v>131</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="24" t="str">
@@ -12635,17 +12635,17 @@
       <c r="AA25" s="29"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="str">
+      <c r="A26" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C26" s="33">
         <v>100.0</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="24" t="str">
         <f>vlookup(B26,TurtleCommands!A$2:C31,3,false)</f>
         <v>Distance</v>
@@ -12674,17 +12674,17 @@
       <c r="AA26" s="25"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="str">
+      <c r="A27" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="33">
         <v>90.0</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="24" t="str">
         <f>vlookup(B27,TurtleCommands!A$2:C32,3,false)</f>
         <v>Degrees</v>
@@ -12713,17 +12713,17 @@
       <c r="AA27" s="25"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C28" s="33">
         <v>100.0</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="24" t="str">
         <f>vlookup(B28,TurtleCommands!A$2:C33,3,false)</f>
         <v>Distance</v>
@@ -12752,17 +12752,17 @@
       <c r="AA28" s="25"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="str">
+      <c r="A29" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="33">
         <v>90.0</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="24" t="str">
         <f>vlookup(B29,TurtleCommands!A$2:C34,3,false)</f>
         <v>Degrees</v>
@@ -12791,17 +12791,17 @@
       <c r="AA29" s="25"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C30" s="33">
         <v>100.0</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="24" t="str">
         <f>vlookup(B30,TurtleCommands!A$2:C35,3,false)</f>
         <v>Distance</v>
@@ -12830,17 +12830,17 @@
       <c r="AA30" s="25"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="str">
+      <c r="A31" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="33">
         <v>90.0</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="24" t="str">
         <f>vlookup(B31,TurtleCommands!A$2:C36,3,false)</f>
         <v>Degrees</v>
@@ -12869,17 +12869,17 @@
       <c r="AA31" s="25"/>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="str">
+      <c r="A32" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C32" s="33">
         <v>100.0</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="24" t="str">
         <f>vlookup(B32,TurtleCommands!A$2:C37,3,false)</f>
         <v>Distance</v>
@@ -12908,17 +12908,17 @@
       <c r="AA32" s="25"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="str">
+      <c r="A33" s="6" t="str">
         <f>PredifinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C33" s="33">
         <v>90.0</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="24" t="str">
         <f>vlookup(B33,TurtleCommands!A$2:C38,3,false)</f>
         <v>Degrees</v>

--- a/SSoT/twolaat.xlsx
+++ b/SSoT/twolaat.xlsx
@@ -22,22 +22,25 @@
     <t>WayNumber</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>DisplayWayNumber</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>HexValue</t>
   </si>
   <si>
     <t>MainFileName</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
     <t>InitialValue</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Notes</t>
@@ -49,19 +52,13 @@
     <t>Disadvantages</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>HexValue</t>
-  </si>
-  <si>
     <t>W01</t>
   </si>
   <si>
     <t>Black</t>
   </si>
   <si>
-    <t>0x0</t>
+    <t>Position</t>
   </si>
   <si>
     <t>Way 01</t>
@@ -70,10 +67,31 @@
     <t>01-OOTurtle.fsx</t>
   </si>
   <si>
+    <t>#000000</t>
+  </si>
+  <si>
     <t>OOTurtle</t>
   </si>
   <si>
+    <t>0x0</t>
+  </si>
+  <si>
     <t>Simple OO -- a class with mutable state</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>#0000FF</t>
+  </si>
+  <si>
+    <t>Green</t>
   </si>
   <si>
     <t>Angle</t>
@@ -82,17 +100,23 @@
     <t>Degrees</t>
   </si>
   <si>
-    <t>In this design, a simple OO class represents the turtle,
-and the client talks to the turtle directly.</t>
+    <t>#00FF00</t>
   </si>
   <si>
     <t>Color</t>
   </si>
   <si>
-    <t>W02</t>
+    <t>PenState</t>
   </si>
   <si>
-    <t>PenState</t>
+    <t>In this design, a simple OO class represents the turtle,
+and the client talks to the turtle directly.</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>W02</t>
   </si>
   <si>
     <t>Way 02</t>
@@ -104,16 +128,7 @@
     <t>FPTurtle</t>
   </si>
   <si>
-    <t>#000000</t>
-  </si>
-  <si>
     <t>Simple FP - a module of functions with immutable state</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>#FF0000</t>
   </si>
   <si>
     <t>In this design, the turtle state is immutable. A module contains functions that return a new turtle state,
@@ -121,16 +136,7 @@
 The client must keep track of the current state and pass it into the next function call.</t>
   </si>
   <si>
-    <t>Blue</t>
-  </si>
-  <si>
     <t>W03</t>
-  </si>
-  <si>
-    <t>#0000FF</t>
-  </si>
-  <si>
-    <t>Green</t>
   </si>
   <si>
     <t>Way 03</t>
@@ -149,9 +155,6 @@
 and the client talks to the API layer.
 The input to the API are strings, and so the API validates the
 input and returns a Result containing any errors.</t>
-  </si>
-  <si>
-    <t>Down</t>
   </si>
   <si>
     <t>W04</t>
@@ -176,9 +179,6 @@
   </si>
   <si>
     <t>W05</t>
-  </si>
-  <si>
-    <t>#00FF00</t>
   </si>
   <si>
     <t>05-TurtleAgent.fsx</t>
@@ -604,28 +604,28 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,25 +734,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -777,410 +777,410 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
+      <c r="A2" s="5" t="s">
+        <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>18</v>
+      <c r="E2" s="11" t="s">
+        <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
+      <c r="F2" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
+      <c r="A3" s="5" t="s">
+        <v>32</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>29</v>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>32</v>
+      <c r="F3" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>41</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>48</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>49</v>
+      <c r="A6" s="5" t="s">
+        <v>50</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="6" t="str">
         <f t="shared" ref="B6:B19" si="1">CONCATENATE("Way ",right(A6,2))</f>
         <v>Way 05</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="11" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 06</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 06</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 07</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 07</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 08</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="11" t="s">
         <v>75</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 09</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 11</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 13</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 14</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 15</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="11" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="13"/>
@@ -1188,35 +1188,35 @@
     </row>
     <row r="20">
       <c r="A20" s="13"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="14"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="14"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="13"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="14"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="13"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="14"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="14"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -8067,7 +8067,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -8100,47 +8100,47 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
+      <c r="A2" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
+      <c r="A3" s="6" t="s">
+        <v>25</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
+      <c r="A4" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
+      <c r="A5" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
+      <c r="B5" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -11145,10 +11145,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11175,59 +11175,59 @@
       <c r="Y1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
+      <c r="A2" s="6" t="s">
+        <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>30</v>
+      <c r="A3" s="6" t="s">
+        <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>33</v>
+      <c r="A4" s="6" t="s">
+        <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>35</v>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
+      <c r="A5" s="8" t="s">
+        <v>24</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>50</v>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11249,10 +11249,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -11280,52 +11280,52 @@
       <c r="Z1" s="16"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>42</v>
+      <c r="A3" s="6" t="s">
+        <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11344,10 +11344,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>118</v>
@@ -11385,131 +11385,131 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>1.0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>1.0</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>1.0</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>1.0</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>42</v>
+      <c r="G5" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>1.0</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>2.0</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11532,13 +11532,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>136</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>137</v>
@@ -11569,76 +11569,76 @@
       <c r="Z1" s="18"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="5" t="b">
+      <c r="D3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="11" t="b">
+      <c r="D4" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>2.0</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11674,7 +11674,7 @@
         <v>147</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>148</v>
@@ -11703,11 +11703,11 @@
       <c r="AA1" s="22"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="6" t="str">
         <f>PredefinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C2" s="23">
@@ -11741,11 +11741,11 @@
       <c r="AA2" s="25"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="6" t="str">
         <f>PredefinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C3" s="23">
@@ -11779,11 +11779,11 @@
       <c r="AA3" s="25"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="6" t="str">
         <f>PredefinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="23">
@@ -11817,11 +11817,11 @@
       <c r="AA4" s="25"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="6" t="str">
         <f>PredefinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C5" s="23">
@@ -11855,11 +11855,11 @@
       <c r="AA5" s="25"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="str">
+      <c r="A6" s="6" t="str">
         <f>PredefinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="23">
@@ -11893,11 +11893,11 @@
       <c r="AA6" s="25"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="str">
+      <c r="A7" s="6" t="str">
         <f>PredefinedScripts!A$2</f>
         <v>Triangle</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="23">
@@ -11980,7 +11980,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="24" t="str">
@@ -12253,7 +12253,7 @@
         <v>131</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="24" t="str">
@@ -12526,7 +12526,7 @@
         <v>131</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="24" t="str">
@@ -12635,17 +12635,17 @@
       <c r="AA25" s="29"/>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="str">
+      <c r="A26" s="8" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C26" s="33">
         <v>100.0</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="24" t="str">
         <f>vlookup(B26,TurtleCommands!A$2:C31,3,false)</f>
         <v>Distance</v>
@@ -12674,17 +12674,17 @@
       <c r="AA26" s="25"/>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="str">
+      <c r="A27" s="8" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="33">
         <v>90.0</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="24" t="str">
         <f>vlookup(B27,TurtleCommands!A$2:C32,3,false)</f>
         <v>Degrees</v>
@@ -12713,17 +12713,17 @@
       <c r="AA27" s="25"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="str">
+      <c r="A28" s="8" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C28" s="33">
         <v>100.0</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="24" t="str">
         <f>vlookup(B28,TurtleCommands!A$2:C33,3,false)</f>
         <v>Distance</v>
@@ -12752,17 +12752,17 @@
       <c r="AA28" s="25"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="str">
+      <c r="A29" s="8" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="33">
         <v>90.0</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="24" t="str">
         <f>vlookup(B29,TurtleCommands!A$2:C34,3,false)</f>
         <v>Degrees</v>
@@ -12791,17 +12791,17 @@
       <c r="AA29" s="25"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="str">
+      <c r="A30" s="8" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C30" s="33">
         <v>100.0</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="24" t="str">
         <f>vlookup(B30,TurtleCommands!A$2:C35,3,false)</f>
         <v>Distance</v>
@@ -12830,17 +12830,17 @@
       <c r="AA30" s="25"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="str">
+      <c r="A31" s="8" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="33">
         <v>90.0</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="24" t="str">
         <f>vlookup(B31,TurtleCommands!A$2:C36,3,false)</f>
         <v>Degrees</v>
@@ -12869,17 +12869,17 @@
       <c r="AA31" s="25"/>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="str">
+      <c r="A32" s="8" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C32" s="33">
         <v>100.0</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="24" t="str">
         <f>vlookup(B32,TurtleCommands!A$2:C37,3,false)</f>
         <v>Distance</v>
@@ -12908,17 +12908,17 @@
       <c r="AA32" s="25"/>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="str">
+      <c r="A33" s="8" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C33" s="33">
         <v>90.0</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="24" t="str">
         <f>vlookup(B33,TurtleCommands!A$2:C38,3,false)</f>
         <v>Degrees</v>

--- a/SSoT/twolaat.xlsx
+++ b/SSoT/twolaat.xlsx
@@ -25,22 +25,13 @@
     <t>DisplayWayNumber</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>MainFileName</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>InitialValue</t>
-  </si>
-  <si>
-    <t>HexValue</t>
   </si>
   <si>
     <t>Notes</t>
@@ -55,13 +46,28 @@
     <t>W01</t>
   </si>
   <si>
-    <t>Black</t>
+    <t>Way 01</t>
   </si>
   <si>
-    <t>Position</t>
+    <t>01-OOTurtle.fsx</t>
   </si>
   <si>
-    <t>Way 01</t>
+    <t>OOTurtle</t>
+  </si>
+  <si>
+    <t>HexValue</t>
+  </si>
+  <si>
+    <t>Simple OO -- a class with mutable state</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>InitialValue</t>
+  </si>
+  <si>
+    <t>Black</t>
   </si>
   <si>
     <t>#000000</t>
@@ -70,44 +76,29 @@
     <t>Red</t>
   </si>
   <si>
-    <t>01-OOTurtle.fsx</t>
-  </si>
-  <si>
     <t>#FF0000</t>
   </si>
   <si>
-    <t>OOTurtle</t>
-  </si>
-  <si>
     <t>Blue</t>
-  </si>
-  <si>
-    <t>Simple OO -- a class with mutable state</t>
-  </si>
-  <si>
-    <t>#0000FF</t>
-  </si>
-  <si>
-    <t>0x0</t>
-  </si>
-  <si>
-    <t>Green</t>
   </si>
   <si>
     <t>In this design, a simple OO class represents the turtle,
 and the client talks to the turtle directly.</t>
   </si>
   <si>
-    <t>Angle</t>
+    <t>#0000FF</t>
   </si>
   <si>
-    <t>Degrees</t>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>0x0</t>
   </si>
   <si>
     <t>W02</t>
-  </si>
-  <si>
-    <t>Color</t>
   </si>
   <si>
     <t>Way 02</t>
@@ -117,9 +108,6 @@
   </si>
   <si>
     <t>FPTurtle</t>
-  </si>
-  <si>
-    <t>PenState</t>
   </si>
   <si>
     <t>Simple FP - a module of functions with immutable state</t>
@@ -151,6 +139,9 @@
 input and returns a Result containing any errors.</t>
   </si>
   <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
     <t>W04</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>API (OO/FP hybrid approach) -- OO API calling stateless functions</t>
   </si>
   <si>
-    <t>#00FF00</t>
-  </si>
-  <si>
     <t>In this design, an API layer communicates with pure turtle functions
 and the client talks to the API layer.
 The API layer manages the state (rather than the client) by storing a mutable turtle state.
@@ -176,6 +164,18 @@
   </si>
   <si>
     <t>W05</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Degrees</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>PenState</t>
   </si>
   <si>
     <t>Down</t>
@@ -297,9 +297,6 @@
     <t>Event sourcing -- Building state from a list of past events</t>
   </si>
   <si>
-    <t>Up</t>
-  </si>
-  <si>
     <t>In this design, the client sends a `Command` to a `CommandHandler`.
 The CommandHandler converts that to a list of events and stores them in an `EventStore`.
 In order to know how to process a Command, the CommandHandler builds the current state
@@ -307,19 +304,7 @@
 Neither the client nor the command handler needs to track state.  Only the EventStore is mutable.</t>
   </si>
   <si>
-    <t>The pen is up (not drawing)</t>
-  </si>
-  <si>
     <t>W11</t>
-  </si>
-  <si>
-    <t>The pne is down (drawing)</t>
-  </si>
-  <si>
-    <t>Moving</t>
-  </si>
-  <si>
-    <t>The pen is in motion</t>
   </si>
   <si>
     <t>11-FRP.fsx</t>
@@ -357,6 +342,12 @@
     <t>W13</t>
   </si>
   <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>The pen is up (not drawing)</t>
+  </si>
+  <si>
     <t>13-Interpreter-v1.fsx</t>
   </si>
   <si>
@@ -366,8 +357,17 @@
     <t>The interpreter pattern</t>
   </si>
   <si>
+    <t>The pne is down (drawing)</t>
+  </si>
+  <si>
+    <t>Moving</t>
+  </si>
+  <si>
     <t>In this design, the client builds a data structure (`TurtleProgram`) that represents the instructions.
 This Turtle Program can then interpreted later in various ways</t>
+  </si>
+  <si>
+    <t>The pen is in motion</t>
   </si>
   <si>
     <t>13-Interpreter-v2.fsx</t>
@@ -618,14 +618,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -670,17 +670,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -703,27 +703,27 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -731,7 +731,7 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -794,22 +794,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -835,95 +835,95 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6" t="str">
         <f t="shared" ref="B6:B19" si="1">CONCATENATE("Way ",right(A6,2))</f>
@@ -941,8 +941,8 @@
       <c r="F6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
@@ -964,8 +964,8 @@
       <c r="F7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
@@ -987,8 +987,8 @@
       <c r="F8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
@@ -1010,8 +1010,8 @@
       <c r="F9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
@@ -1033,8 +1033,8 @@
       <c r="F10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
@@ -1056,7 +1056,7 @@
       <c r="F11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12">
@@ -1100,83 +1100,83 @@
         <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Way 13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1189,10 +1189,10 @@
         <v>107</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -8124,13 +8124,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -8158,45 +8158,45 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11202,10 +11202,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11233,18 +11233,18 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -11256,35 +11256,35 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11306,10 +11306,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -11338,10 +11338,10 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -11349,40 +11349,40 @@
         <v>50</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="A4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11406,10 +11406,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>118</v>
@@ -11494,7 +11494,7 @@
         <v>132</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>130</v>
@@ -11530,7 +11530,7 @@
         <v>135</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -11560,7 +11560,7 @@
         <v>139</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>140</v>
@@ -11578,53 +11578,53 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
         <v>2.0</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>0.0</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>360.0</v>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="J7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>DrawPolygon</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
@@ -12269,13 +12269,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>156</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>157</v>
@@ -12340,42 +12340,42 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="10" t="b">
+      <c r="D4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>2.0</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -12411,7 +12411,7 @@
         <v>166</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>167</v>
@@ -12717,7 +12717,7 @@
         <v>138</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="24" t="str">
@@ -12990,7 +12990,7 @@
         <v>138</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="24" t="str">
@@ -13372,17 +13372,17 @@
       <c r="AA25" s="29"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="str">
+      <c r="A26" s="9" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="33">
         <v>100.0</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="24" t="str">
         <f>vlookup(B26,TurtleCommands!A$2:C31,3,false)</f>
         <v>Distance</v>
@@ -13411,17 +13411,17 @@
       <c r="AA26" s="25"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="str">
+      <c r="A27" s="9" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C27" s="33">
         <v>90.0</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="24" t="str">
         <f>vlookup(B27,TurtleCommands!A$2:C32,3,false)</f>
         <v>Degrees</v>
@@ -13450,17 +13450,17 @@
       <c r="AA27" s="25"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="str">
+      <c r="A28" s="9" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="33">
         <v>100.0</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="24" t="str">
         <f>vlookup(B28,TurtleCommands!A$2:C33,3,false)</f>
         <v>Distance</v>
@@ -13489,17 +13489,17 @@
       <c r="AA28" s="25"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="str">
+      <c r="A29" s="9" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="33">
         <v>90.0</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="24" t="str">
         <f>vlookup(B29,TurtleCommands!A$2:C34,3,false)</f>
         <v>Degrees</v>
@@ -13528,17 +13528,17 @@
       <c r="AA29" s="25"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="str">
+      <c r="A30" s="9" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="33">
         <v>100.0</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="24" t="str">
         <f>vlookup(B30,TurtleCommands!A$2:C35,3,false)</f>
         <v>Distance</v>
@@ -13567,17 +13567,17 @@
       <c r="AA30" s="25"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="str">
+      <c r="A31" s="9" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C31" s="33">
         <v>90.0</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="24" t="str">
         <f>vlookup(B31,TurtleCommands!A$2:C36,3,false)</f>
         <v>Degrees</v>
@@ -13606,17 +13606,17 @@
       <c r="AA31" s="25"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="str">
+      <c r="A32" s="9" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C32" s="33">
         <v>100.0</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="24" t="str">
         <f>vlookup(B32,TurtleCommands!A$2:C37,3,false)</f>
         <v>Distance</v>
@@ -13645,17 +13645,17 @@
       <c r="AA32" s="25"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="str">
+      <c r="A33" s="9" t="str">
         <f>PredefinedScripts!A$4</f>
         <v>Box</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C33" s="33">
         <v>90.0</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="24" t="str">
         <f>vlookup(B33,TurtleCommands!A$2:C38,3,false)</f>
         <v>Degrees</v>
